--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-12-07.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-12-07.xlsx
@@ -670,22 +670,22 @@
         <v>2.08</v>
       </c>
       <c r="G2" t="n">
-        <v>2.12</v>
+        <v>2.14</v>
       </c>
       <c r="H2" t="n">
-        <v>3.95</v>
+        <v>3.9</v>
       </c>
       <c r="I2" t="n">
         <v>4.1</v>
       </c>
       <c r="J2" t="n">
-        <v>3.55</v>
+        <v>3.6</v>
       </c>
       <c r="K2" t="n">
         <v>3.65</v>
       </c>
       <c r="L2" t="n">
-        <v>1.42</v>
+        <v>1.43</v>
       </c>
       <c r="M2" t="n">
         <v>1.07</v>
@@ -697,34 +697,34 @@
         <v>1.33</v>
       </c>
       <c r="P2" t="n">
-        <v>1.97</v>
+        <v>1.96</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.99</v>
+        <v>2</v>
       </c>
       <c r="R2" t="n">
         <v>1.37</v>
       </c>
       <c r="S2" t="n">
-        <v>3.5</v>
+        <v>3.55</v>
       </c>
       <c r="T2" t="n">
-        <v>1.76</v>
+        <v>1.8</v>
       </c>
       <c r="U2" t="n">
-        <v>2.1</v>
+        <v>2.12</v>
       </c>
       <c r="V2" t="n">
         <v>1.32</v>
       </c>
       <c r="W2" t="n">
-        <v>1.9</v>
+        <v>1.87</v>
       </c>
       <c r="X2" t="n">
         <v>14</v>
       </c>
       <c r="Y2" t="n">
-        <v>15.5</v>
+        <v>14.5</v>
       </c>
       <c r="Z2" t="n">
         <v>30</v>
@@ -733,7 +733,7 @@
         <v>80</v>
       </c>
       <c r="AB2" t="n">
-        <v>9.800000000000001</v>
+        <v>9.4</v>
       </c>
       <c r="AC2" t="n">
         <v>8</v>
@@ -757,13 +757,13 @@
         <v>60</v>
       </c>
       <c r="AJ2" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AK2" t="n">
         <v>22</v>
       </c>
       <c r="AL2" t="n">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="AM2" t="n">
         <v>100</v>
@@ -802,112 +802,112 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>2.02</v>
+        <v>2.08</v>
       </c>
       <c r="G3" t="n">
-        <v>2.28</v>
+        <v>2.24</v>
       </c>
       <c r="H3" t="n">
-        <v>3.35</v>
+        <v>3.5</v>
       </c>
       <c r="I3" t="n">
-        <v>4.4</v>
+        <v>3.85</v>
       </c>
       <c r="J3" t="n">
         <v>3.65</v>
       </c>
       <c r="K3" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="L3" t="n">
         <v>1.36</v>
       </c>
       <c r="M3" t="n">
-        <v>1.03</v>
+        <v>1.06</v>
       </c>
       <c r="N3" t="n">
         <v>4.1</v>
       </c>
       <c r="O3" t="n">
-        <v>1.26</v>
+        <v>1.27</v>
       </c>
       <c r="P3" t="n">
-        <v>2.04</v>
+        <v>2.08</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.66</v>
+        <v>1.79</v>
       </c>
       <c r="R3" t="n">
         <v>1.43</v>
       </c>
       <c r="S3" t="n">
-        <v>2.94</v>
+        <v>3</v>
       </c>
       <c r="T3" t="n">
-        <v>1.04</v>
+        <v>1.68</v>
       </c>
       <c r="U3" t="n">
-        <v>1.04</v>
+        <v>2.24</v>
       </c>
       <c r="V3" t="n">
-        <v>1.33</v>
+        <v>1.35</v>
       </c>
       <c r="W3" t="n">
-        <v>1.79</v>
+        <v>1.81</v>
       </c>
       <c r="X3" t="n">
-        <v>1000</v>
+        <v>21</v>
       </c>
       <c r="Y3" t="n">
-        <v>1000</v>
+        <v>18.5</v>
       </c>
       <c r="Z3" t="n">
-        <v>1000</v>
+        <v>28</v>
       </c>
       <c r="AA3" t="n">
-        <v>1000</v>
+        <v>70</v>
       </c>
       <c r="AB3" t="n">
-        <v>1000</v>
+        <v>12.5</v>
       </c>
       <c r="AC3" t="n">
-        <v>1000</v>
+        <v>10.5</v>
       </c>
       <c r="AD3" t="n">
-        <v>1000</v>
+        <v>18.5</v>
       </c>
       <c r="AE3" t="n">
-        <v>1000</v>
+        <v>50</v>
       </c>
       <c r="AF3" t="n">
-        <v>1000</v>
+        <v>18</v>
       </c>
       <c r="AG3" t="n">
-        <v>1000</v>
+        <v>13.5</v>
       </c>
       <c r="AH3" t="n">
-        <v>1000</v>
+        <v>20</v>
       </c>
       <c r="AI3" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AJ3" t="n">
-        <v>1000</v>
+        <v>27</v>
       </c>
       <c r="AK3" t="n">
-        <v>1000</v>
+        <v>26</v>
       </c>
       <c r="AL3" t="n">
-        <v>1000</v>
+        <v>40</v>
       </c>
       <c r="AM3" t="n">
-        <v>1000</v>
+        <v>95</v>
       </c>
       <c r="AN3" t="n">
-        <v>1000</v>
+        <v>16.5</v>
       </c>
       <c r="AO3" t="n">
-        <v>1000</v>
+        <v>36</v>
       </c>
     </row>
     <row r="4">
@@ -937,16 +937,16 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>2.04</v>
+        <v>2.08</v>
       </c>
       <c r="G4" t="n">
         <v>2.24</v>
       </c>
       <c r="H4" t="n">
-        <v>3.85</v>
+        <v>3.8</v>
       </c>
       <c r="I4" t="n">
-        <v>4.4</v>
+        <v>4.2</v>
       </c>
       <c r="J4" t="n">
         <v>3.25</v>
@@ -958,22 +958,22 @@
         <v>1.47</v>
       </c>
       <c r="M4" t="n">
-        <v>1.09</v>
+        <v>1.08</v>
       </c>
       <c r="N4" t="n">
-        <v>3.05</v>
+        <v>3.1</v>
       </c>
       <c r="O4" t="n">
-        <v>1.41</v>
+        <v>1.4</v>
       </c>
       <c r="P4" t="n">
-        <v>1.7</v>
+        <v>1.73</v>
       </c>
       <c r="Q4" t="n">
-        <v>2.18</v>
+        <v>2</v>
       </c>
       <c r="R4" t="n">
-        <v>1.26</v>
+        <v>1.27</v>
       </c>
       <c r="S4" t="n">
         <v>4.1</v>
@@ -982,13 +982,13 @@
         <v>1.93</v>
       </c>
       <c r="U4" t="n">
-        <v>1.9</v>
+        <v>1.94</v>
       </c>
       <c r="V4" t="n">
-        <v>1.3</v>
+        <v>1.31</v>
       </c>
       <c r="W4" t="n">
-        <v>1.8</v>
+        <v>1.81</v>
       </c>
       <c r="X4" t="n">
         <v>14</v>
@@ -997,13 +997,13 @@
         <v>970</v>
       </c>
       <c r="Z4" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AA4" t="n">
         <v>110</v>
       </c>
       <c r="AB4" t="n">
-        <v>9.4</v>
+        <v>9.6</v>
       </c>
       <c r="AC4" t="n">
         <v>8</v>
@@ -1012,7 +1012,7 @@
         <v>970</v>
       </c>
       <c r="AE4" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="AF4" t="n">
         <v>970</v>
@@ -1021,25 +1021,25 @@
         <v>11.5</v>
       </c>
       <c r="AH4" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AI4" t="n">
         <v>75</v>
       </c>
       <c r="AJ4" t="n">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="AK4" t="n">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="AL4" t="n">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="AM4" t="n">
         <v>150</v>
       </c>
       <c r="AN4" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="AO4" t="n">
         <v>75</v>
@@ -1072,7 +1072,7 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>2.16</v>
+        <v>2.18</v>
       </c>
       <c r="G5" t="n">
         <v>2.54</v>
@@ -1081,10 +1081,10 @@
         <v>3.2</v>
       </c>
       <c r="I5" t="n">
-        <v>4.1</v>
+        <v>3.95</v>
       </c>
       <c r="J5" t="n">
-        <v>3.15</v>
+        <v>3.1</v>
       </c>
       <c r="K5" t="n">
         <v>3.8</v>
@@ -1093,7 +1093,7 @@
         <v>1.42</v>
       </c>
       <c r="M5" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="N5" t="n">
         <v>3.15</v>
@@ -1105,7 +1105,7 @@
         <v>1.76</v>
       </c>
       <c r="Q5" t="n">
-        <v>2.04</v>
+        <v>2.02</v>
       </c>
       <c r="R5" t="n">
         <v>1.29</v>
@@ -1117,7 +1117,7 @@
         <v>1.78</v>
       </c>
       <c r="U5" t="n">
-        <v>1.99</v>
+        <v>1.98</v>
       </c>
       <c r="V5" t="n">
         <v>1.34</v>
@@ -1138,10 +1138,10 @@
         <v>75</v>
       </c>
       <c r="AB5" t="n">
-        <v>11</v>
+        <v>11.5</v>
       </c>
       <c r="AC5" t="n">
-        <v>9</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AD5" t="n">
         <v>18</v>
@@ -1150,7 +1150,7 @@
         <v>55</v>
       </c>
       <c r="AF5" t="n">
-        <v>15.5</v>
+        <v>16</v>
       </c>
       <c r="AG5" t="n">
         <v>14</v>
@@ -1162,19 +1162,19 @@
         <v>70</v>
       </c>
       <c r="AJ5" t="n">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="AK5" t="n">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="AL5" t="n">
         <v>55</v>
       </c>
       <c r="AM5" t="n">
-        <v>130</v>
+        <v>140</v>
       </c>
       <c r="AN5" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AO5" t="n">
         <v>55</v>
@@ -1216,13 +1216,13 @@
         <v>2.38</v>
       </c>
       <c r="I6" t="n">
-        <v>2.88</v>
+        <v>2.76</v>
       </c>
       <c r="J6" t="n">
         <v>3.3</v>
       </c>
       <c r="K6" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="L6" t="n">
         <v>1.37</v>
@@ -1237,10 +1237,10 @@
         <v>1.27</v>
       </c>
       <c r="P6" t="n">
-        <v>1.99</v>
+        <v>2</v>
       </c>
       <c r="Q6" t="n">
-        <v>1.72</v>
+        <v>1.75</v>
       </c>
       <c r="R6" t="n">
         <v>1.39</v>
@@ -1255,7 +1255,7 @@
         <v>2.18</v>
       </c>
       <c r="V6" t="n">
-        <v>1.56</v>
+        <v>1.57</v>
       </c>
       <c r="W6" t="n">
         <v>1.43</v>
@@ -1342,55 +1342,55 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>48</v>
+        <v>60</v>
       </c>
       <c r="G7" t="n">
         <v>110</v>
       </c>
       <c r="H7" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="I7" t="n">
-        <v>1.09</v>
+        <v>1.08</v>
       </c>
       <c r="J7" t="n">
-        <v>13.5</v>
+        <v>16.5</v>
       </c>
       <c r="K7" t="n">
         <v>22</v>
       </c>
       <c r="L7" t="n">
-        <v>1.15</v>
+        <v>1.18</v>
       </c>
       <c r="M7" t="n">
         <v>1.01</v>
       </c>
       <c r="N7" t="n">
-        <v>8.4</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="O7" t="n">
         <v>1.1</v>
       </c>
       <c r="P7" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="Q7" t="n">
-        <v>1.31</v>
+        <v>1.29</v>
       </c>
       <c r="R7" t="n">
-        <v>2.02</v>
+        <v>2.06</v>
       </c>
       <c r="S7" t="n">
-        <v>1.84</v>
+        <v>1.89</v>
       </c>
       <c r="T7" t="n">
-        <v>2.96</v>
+        <v>3.1</v>
       </c>
       <c r="U7" t="n">
-        <v>1.33</v>
+        <v>1.4</v>
       </c>
       <c r="V7" t="n">
-        <v>12</v>
+        <v>13.5</v>
       </c>
       <c r="W7" t="n">
         <v>1.01</v>
@@ -1399,13 +1399,13 @@
         <v>65</v>
       </c>
       <c r="Y7" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="Z7" t="n">
-        <v>9.4</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AA7" t="n">
-        <v>8</v>
+        <v>7.8</v>
       </c>
       <c r="AB7" t="n">
         <v>210</v>
@@ -1414,22 +1414,22 @@
         <v>55</v>
       </c>
       <c r="AD7" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AE7" t="n">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="AF7" t="n">
         <v>1000</v>
       </c>
       <c r="AG7" t="n">
-        <v>340</v>
+        <v>320</v>
       </c>
       <c r="AH7" t="n">
-        <v>170</v>
+        <v>160</v>
       </c>
       <c r="AI7" t="n">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="AJ7" t="n">
         <v>1000</v>
@@ -1447,7 +1447,7 @@
         <v>1000</v>
       </c>
       <c r="AO7" t="n">
-        <v>2.36</v>
+        <v>2.28</v>
       </c>
     </row>
     <row r="8">
@@ -1480,13 +1480,13 @@
         <v>2.12</v>
       </c>
       <c r="G8" t="n">
-        <v>2.18</v>
+        <v>2.14</v>
       </c>
       <c r="H8" t="n">
-        <v>3.45</v>
+        <v>3.5</v>
       </c>
       <c r="I8" t="n">
-        <v>3.6</v>
+        <v>3.65</v>
       </c>
       <c r="J8" t="n">
         <v>3.9</v>
@@ -1507,7 +1507,7 @@
         <v>1.24</v>
       </c>
       <c r="P8" t="n">
-        <v>2.28</v>
+        <v>2.3</v>
       </c>
       <c r="Q8" t="n">
         <v>1.72</v>
@@ -1522,22 +1522,22 @@
         <v>1.64</v>
       </c>
       <c r="U8" t="n">
-        <v>2.46</v>
+        <v>2.44</v>
       </c>
       <c r="V8" t="n">
-        <v>1.38</v>
+        <v>1.37</v>
       </c>
       <c r="W8" t="n">
-        <v>1.84</v>
+        <v>1.87</v>
       </c>
       <c r="X8" t="n">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="Y8" t="n">
         <v>17.5</v>
       </c>
       <c r="Z8" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AA8" t="n">
         <v>65</v>
@@ -1546,34 +1546,34 @@
         <v>12.5</v>
       </c>
       <c r="AC8" t="n">
-        <v>9.199999999999999</v>
+        <v>9</v>
       </c>
       <c r="AD8" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="AE8" t="n">
         <v>38</v>
       </c>
       <c r="AF8" t="n">
+        <v>15</v>
+      </c>
+      <c r="AG8" t="n">
+        <v>11</v>
+      </c>
+      <c r="AH8" t="n">
         <v>15.5</v>
       </c>
-      <c r="AG8" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AH8" t="n">
-        <v>17</v>
-      </c>
       <c r="AI8" t="n">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="AJ8" t="n">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="AK8" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="AL8" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AM8" t="n">
         <v>70</v>
@@ -1582,7 +1582,7 @@
         <v>12.5</v>
       </c>
       <c r="AO8" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="9">
@@ -1615,16 +1615,16 @@
         <v>4</v>
       </c>
       <c r="G9" t="n">
-        <v>8.4</v>
+        <v>7.6</v>
       </c>
       <c r="H9" t="n">
         <v>1.51</v>
       </c>
       <c r="I9" t="n">
-        <v>1.79</v>
+        <v>1.77</v>
       </c>
       <c r="J9" t="n">
-        <v>3.1</v>
+        <v>3.65</v>
       </c>
       <c r="K9" t="n">
         <v>5.1</v>
@@ -1747,31 +1747,31 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>1.58</v>
+        <v>1.53</v>
       </c>
       <c r="G10" t="n">
-        <v>1.82</v>
+        <v>1.76</v>
       </c>
       <c r="H10" t="n">
-        <v>5</v>
+        <v>5.3</v>
       </c>
       <c r="I10" t="n">
-        <v>8.199999999999999</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="J10" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="K10" t="n">
-        <v>5.5</v>
+        <v>5.7</v>
       </c>
       <c r="L10" t="n">
-        <v>1.25</v>
+        <v>1.38</v>
       </c>
       <c r="M10" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="N10" t="n">
-        <v>3.05</v>
+        <v>3</v>
       </c>
       <c r="O10" t="n">
         <v>1.31</v>
@@ -1780,7 +1780,7 @@
         <v>1.78</v>
       </c>
       <c r="Q10" t="n">
-        <v>1.9</v>
+        <v>1.91</v>
       </c>
       <c r="R10" t="n">
         <v>1.3</v>
@@ -1789,25 +1789,25 @@
         <v>3.1</v>
       </c>
       <c r="T10" t="n">
-        <v>1.87</v>
+        <v>1.9</v>
       </c>
       <c r="U10" t="n">
-        <v>1.8</v>
+        <v>1.76</v>
       </c>
       <c r="V10" t="n">
-        <v>1.15</v>
+        <v>1.14</v>
       </c>
       <c r="W10" t="n">
-        <v>2.2</v>
+        <v>2.3</v>
       </c>
       <c r="X10" t="n">
         <v>970</v>
       </c>
       <c r="Y10" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="Z10" t="n">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="AA10" t="n">
         <v>1000</v>
@@ -1819,7 +1819,7 @@
         <v>970</v>
       </c>
       <c r="AD10" t="n">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="AE10" t="n">
         <v>1000</v>
@@ -1831,7 +1831,7 @@
         <v>970</v>
       </c>
       <c r="AH10" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AI10" t="n">
         <v>1000</v>
@@ -1885,13 +1885,13 @@
         <v>2.24</v>
       </c>
       <c r="G11" t="n">
-        <v>2.56</v>
+        <v>2.54</v>
       </c>
       <c r="H11" t="n">
         <v>3.15</v>
       </c>
       <c r="I11" t="n">
-        <v>3.8</v>
+        <v>3.85</v>
       </c>
       <c r="J11" t="n">
         <v>3.2</v>
@@ -1900,7 +1900,7 @@
         <v>3.8</v>
       </c>
       <c r="L11" t="n">
-        <v>1.41</v>
+        <v>1.35</v>
       </c>
       <c r="M11" t="n">
         <v>1.07</v>
@@ -2029,46 +2029,46 @@
         <v>1.89</v>
       </c>
       <c r="J12" t="n">
-        <v>3.15</v>
+        <v>3.4</v>
       </c>
       <c r="K12" t="n">
-        <v>4.8</v>
+        <v>4.5</v>
       </c>
       <c r="L12" t="n">
-        <v>1.36</v>
+        <v>1.37</v>
       </c>
       <c r="M12" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="N12" t="n">
         <v>2.84</v>
       </c>
       <c r="O12" t="n">
-        <v>1.34</v>
+        <v>1.4</v>
       </c>
       <c r="P12" t="n">
         <v>1.73</v>
       </c>
       <c r="Q12" t="n">
-        <v>2</v>
+        <v>1.94</v>
       </c>
       <c r="R12" t="n">
-        <v>1.25</v>
+        <v>1.27</v>
       </c>
       <c r="S12" t="n">
         <v>3.45</v>
       </c>
       <c r="T12" t="n">
-        <v>1.9</v>
+        <v>1.96</v>
       </c>
       <c r="U12" t="n">
-        <v>1.75</v>
+        <v>1.81</v>
       </c>
       <c r="V12" t="n">
         <v>2.12</v>
       </c>
       <c r="W12" t="n">
-        <v>1.16</v>
+        <v>1.19</v>
       </c>
       <c r="X12" t="n">
         <v>970</v>
@@ -2083,7 +2083,7 @@
         <v>23</v>
       </c>
       <c r="AB12" t="n">
-        <v>21</v>
+        <v>970</v>
       </c>
       <c r="AC12" t="n">
         <v>970</v>
@@ -2092,19 +2092,19 @@
         <v>970</v>
       </c>
       <c r="AE12" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AF12" t="n">
         <v>55</v>
       </c>
       <c r="AG12" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AH12" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AI12" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="AJ12" t="n">
         <v>1000</v>
@@ -2113,7 +2113,7 @@
         <v>1000</v>
       </c>
       <c r="AL12" t="n">
-        <v>110</v>
+        <v>1000</v>
       </c>
       <c r="AM12" t="n">
         <v>1000</v>
@@ -2152,10 +2152,10 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>3.05</v>
+        <v>3.1</v>
       </c>
       <c r="G13" t="n">
-        <v>5.6</v>
+        <v>7.2</v>
       </c>
       <c r="H13" t="n">
         <v>1.85</v>
@@ -2164,10 +2164,10 @@
         <v>2.32</v>
       </c>
       <c r="J13" t="n">
-        <v>2.96</v>
+        <v>3.1</v>
       </c>
       <c r="K13" t="n">
-        <v>4.8</v>
+        <v>4.1</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
@@ -2179,7 +2179,7 @@
         <v>2.84</v>
       </c>
       <c r="O13" t="n">
-        <v>1.34</v>
+        <v>1.43</v>
       </c>
       <c r="P13" t="n">
         <v>0</v>
@@ -2290,16 +2290,16 @@
         <v>1.02</v>
       </c>
       <c r="G14" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="H14" t="n">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="I14" t="n">
         <v>600</v>
       </c>
       <c r="J14" t="n">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="K14" t="n">
         <v>400</v>
@@ -2311,7 +2311,7 @@
         <v>1.01</v>
       </c>
       <c r="N14" t="n">
-        <v>1.1</v>
+        <v>1.25</v>
       </c>
       <c r="O14" t="n">
         <v>1.01</v>
@@ -2323,7 +2323,7 @@
         <v>1.04</v>
       </c>
       <c r="R14" t="n">
-        <v>1.2</v>
+        <v>1.24</v>
       </c>
       <c r="S14" t="n">
         <v>1.11</v>
@@ -2338,7 +2338,7 @@
         <v>1.01</v>
       </c>
       <c r="W14" t="n">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="X14" t="n">
         <v>1000</v>
@@ -2389,7 +2389,7 @@
         <v>1000</v>
       </c>
       <c r="AN14" t="n">
-        <v>970</v>
+        <v>1000</v>
       </c>
       <c r="AO14" t="n">
         <v>1000</v>
@@ -2428,16 +2428,16 @@
         <v>3.45</v>
       </c>
       <c r="H15" t="n">
-        <v>2.42</v>
+        <v>2.34</v>
       </c>
       <c r="I15" t="n">
-        <v>2.82</v>
+        <v>2.62</v>
       </c>
       <c r="J15" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="K15" t="n">
-        <v>3.65</v>
+        <v>3.75</v>
       </c>
       <c r="L15" t="n">
         <v>1.42</v>
@@ -2446,7 +2446,7 @@
         <v>1.08</v>
       </c>
       <c r="N15" t="n">
-        <v>3.35</v>
+        <v>3.4</v>
       </c>
       <c r="O15" t="n">
         <v>1.35</v>
@@ -2470,7 +2470,7 @@
         <v>2.06</v>
       </c>
       <c r="V15" t="n">
-        <v>1.55</v>
+        <v>1.62</v>
       </c>
       <c r="W15" t="n">
         <v>1.41</v>
@@ -2560,22 +2560,22 @@
         <v>2.32</v>
       </c>
       <c r="G16" t="n">
-        <v>2.6</v>
+        <v>2.58</v>
       </c>
       <c r="H16" t="n">
-        <v>2.78</v>
+        <v>2.82</v>
       </c>
       <c r="I16" t="n">
         <v>3.2</v>
       </c>
       <c r="J16" t="n">
-        <v>3.35</v>
+        <v>3.7</v>
       </c>
       <c r="K16" t="n">
         <v>4.2</v>
       </c>
       <c r="L16" t="n">
-        <v>1.25</v>
+        <v>1.26</v>
       </c>
       <c r="M16" t="n">
         <v>1.04</v>
@@ -2584,22 +2584,22 @@
         <v>4.9</v>
       </c>
       <c r="O16" t="n">
-        <v>1.2</v>
+        <v>1.21</v>
       </c>
       <c r="P16" t="n">
-        <v>2.34</v>
+        <v>2.32</v>
       </c>
       <c r="Q16" t="n">
-        <v>1.61</v>
+        <v>1.62</v>
       </c>
       <c r="R16" t="n">
         <v>1.53</v>
       </c>
       <c r="S16" t="n">
-        <v>2.5</v>
+        <v>2.52</v>
       </c>
       <c r="T16" t="n">
-        <v>1.55</v>
+        <v>1.62</v>
       </c>
       <c r="U16" t="n">
         <v>2.46</v>
@@ -2692,25 +2692,25 @@
         </is>
       </c>
       <c r="F17" t="n">
-        <v>2</v>
+        <v>2.04</v>
       </c>
       <c r="G17" t="n">
-        <v>2.2</v>
+        <v>2.22</v>
       </c>
       <c r="H17" t="n">
-        <v>3.9</v>
+        <v>3.85</v>
       </c>
       <c r="I17" t="n">
-        <v>4.6</v>
+        <v>4.5</v>
       </c>
       <c r="J17" t="n">
         <v>3.4</v>
       </c>
       <c r="K17" t="n">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="L17" t="n">
-        <v>1.43</v>
+        <v>1.42</v>
       </c>
       <c r="M17" t="n">
         <v>1.08</v>
@@ -2722,7 +2722,7 @@
         <v>1.36</v>
       </c>
       <c r="P17" t="n">
-        <v>1.78</v>
+        <v>1.8</v>
       </c>
       <c r="Q17" t="n">
         <v>2.08</v>
@@ -2740,10 +2740,10 @@
         <v>1.96</v>
       </c>
       <c r="V17" t="n">
-        <v>1.28</v>
+        <v>1.29</v>
       </c>
       <c r="W17" t="n">
-        <v>1.84</v>
+        <v>1.82</v>
       </c>
       <c r="X17" t="n">
         <v>15</v>
@@ -2797,7 +2797,7 @@
         <v>970</v>
       </c>
       <c r="AO17" t="n">
-        <v>80</v>
+        <v>75</v>
       </c>
     </row>
     <row r="18">
@@ -2830,7 +2830,7 @@
         <v>1.42</v>
       </c>
       <c r="G18" t="n">
-        <v>1.49</v>
+        <v>1.5</v>
       </c>
       <c r="H18" t="n">
         <v>8.199999999999999</v>
@@ -2878,7 +2878,7 @@
         <v>1.11</v>
       </c>
       <c r="W18" t="n">
-        <v>3</v>
+        <v>2.96</v>
       </c>
       <c r="X18" t="n">
         <v>23</v>
@@ -2962,16 +2962,16 @@
         </is>
       </c>
       <c r="F19" t="n">
-        <v>1.99</v>
+        <v>2</v>
       </c>
       <c r="G19" t="n">
-        <v>2.22</v>
+        <v>2.24</v>
       </c>
       <c r="H19" t="n">
-        <v>3.6</v>
+        <v>3.55</v>
       </c>
       <c r="I19" t="n">
-        <v>4.8</v>
+        <v>4.7</v>
       </c>
       <c r="J19" t="n">
         <v>3.25</v>
@@ -2980,40 +2980,40 @@
         <v>4</v>
       </c>
       <c r="L19" t="n">
-        <v>1.31</v>
+        <v>1.32</v>
       </c>
       <c r="M19" t="n">
         <v>1.06</v>
       </c>
       <c r="N19" t="n">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="O19" t="n">
-        <v>1.28</v>
+        <v>1.29</v>
       </c>
       <c r="P19" t="n">
-        <v>1.97</v>
+        <v>1.95</v>
       </c>
       <c r="Q19" t="n">
-        <v>1.72</v>
+        <v>1.73</v>
       </c>
       <c r="R19" t="n">
-        <v>1.38</v>
+        <v>1.37</v>
       </c>
       <c r="S19" t="n">
-        <v>2.82</v>
+        <v>2.84</v>
       </c>
       <c r="T19" t="n">
-        <v>1.7</v>
+        <v>1.71</v>
       </c>
       <c r="U19" t="n">
         <v>2.12</v>
       </c>
       <c r="V19" t="n">
-        <v>1.26</v>
+        <v>1.3</v>
       </c>
       <c r="W19" t="n">
-        <v>1.81</v>
+        <v>1.8</v>
       </c>
       <c r="X19" t="n">
         <v>970</v>
@@ -3022,7 +3022,7 @@
         <v>970</v>
       </c>
       <c r="Z19" t="n">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="AA19" t="n">
         <v>90</v>
@@ -3058,7 +3058,7 @@
         <v>27</v>
       </c>
       <c r="AL19" t="n">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="AM19" t="n">
         <v>110</v>
@@ -3097,7 +3097,7 @@
         </is>
       </c>
       <c r="F20" t="n">
-        <v>3.2</v>
+        <v>3.15</v>
       </c>
       <c r="G20" t="n">
         <v>3.5</v>
@@ -3106,10 +3106,10 @@
         <v>2.14</v>
       </c>
       <c r="I20" t="n">
-        <v>2.32</v>
+        <v>2.3</v>
       </c>
       <c r="J20" t="n">
-        <v>3.75</v>
+        <v>3.95</v>
       </c>
       <c r="K20" t="n">
         <v>4.2</v>
@@ -3121,19 +3121,19 @@
         <v>1.04</v>
       </c>
       <c r="N20" t="n">
-        <v>4.7</v>
+        <v>4.8</v>
       </c>
       <c r="O20" t="n">
         <v>1.22</v>
       </c>
       <c r="P20" t="n">
-        <v>2.28</v>
+        <v>2.3</v>
       </c>
       <c r="Q20" t="n">
         <v>1.65</v>
       </c>
       <c r="R20" t="n">
-        <v>1.51</v>
+        <v>1.52</v>
       </c>
       <c r="S20" t="n">
         <v>2.66</v>
@@ -3145,7 +3145,7 @@
         <v>2.44</v>
       </c>
       <c r="V20" t="n">
-        <v>1.78</v>
+        <v>1.77</v>
       </c>
       <c r="W20" t="n">
         <v>1.4</v>
@@ -3184,16 +3184,16 @@
         <v>19</v>
       </c>
       <c r="AI20" t="n">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="AJ20" t="n">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="AK20" t="n">
         <v>42</v>
       </c>
       <c r="AL20" t="n">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="AM20" t="n">
         <v>80</v>
@@ -3232,10 +3232,10 @@
         </is>
       </c>
       <c r="F21" t="n">
-        <v>2.56</v>
+        <v>2.58</v>
       </c>
       <c r="G21" t="n">
-        <v>2.64</v>
+        <v>2.7</v>
       </c>
       <c r="H21" t="n">
         <v>2.86</v>
@@ -3247,7 +3247,7 @@
         <v>3.6</v>
       </c>
       <c r="K21" t="n">
-        <v>3.7</v>
+        <v>3.65</v>
       </c>
       <c r="L21" t="n">
         <v>1.36</v>
@@ -3259,16 +3259,16 @@
         <v>4.2</v>
       </c>
       <c r="O21" t="n">
-        <v>1.28</v>
+        <v>1.27</v>
       </c>
       <c r="P21" t="n">
         <v>2.12</v>
       </c>
       <c r="Q21" t="n">
-        <v>1.81</v>
+        <v>1.82</v>
       </c>
       <c r="R21" t="n">
-        <v>1.43</v>
+        <v>1.44</v>
       </c>
       <c r="S21" t="n">
         <v>3.05</v>
@@ -3283,7 +3283,7 @@
         <v>1.5</v>
       </c>
       <c r="W21" t="n">
-        <v>1.6</v>
+        <v>1.59</v>
       </c>
       <c r="X21" t="n">
         <v>21</v>
@@ -3301,7 +3301,7 @@
         <v>15</v>
       </c>
       <c r="AC21" t="n">
-        <v>10</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AD21" t="n">
         <v>16</v>
@@ -3367,16 +3367,16 @@
         </is>
       </c>
       <c r="F22" t="n">
-        <v>2.52</v>
+        <v>2.56</v>
       </c>
       <c r="G22" t="n">
-        <v>2.54</v>
+        <v>2.58</v>
       </c>
       <c r="H22" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="I22" t="n">
         <v>3.55</v>
-      </c>
-      <c r="I22" t="n">
-        <v>3.6</v>
       </c>
       <c r="J22" t="n">
         <v>3.05</v>
@@ -3385,16 +3385,16 @@
         <v>3.1</v>
       </c>
       <c r="L22" t="n">
-        <v>1.55</v>
+        <v>1.57</v>
       </c>
       <c r="M22" t="n">
         <v>1.13</v>
       </c>
       <c r="N22" t="n">
-        <v>2.74</v>
+        <v>2.78</v>
       </c>
       <c r="O22" t="n">
-        <v>1.54</v>
+        <v>1.55</v>
       </c>
       <c r="P22" t="n">
         <v>1.58</v>
@@ -3409,19 +3409,19 @@
         <v>5.4</v>
       </c>
       <c r="T22" t="n">
-        <v>2.14</v>
+        <v>2.12</v>
       </c>
       <c r="U22" t="n">
         <v>1.83</v>
       </c>
       <c r="V22" t="n">
-        <v>1.38</v>
+        <v>1.39</v>
       </c>
       <c r="W22" t="n">
-        <v>1.64</v>
+        <v>1.63</v>
       </c>
       <c r="X22" t="n">
-        <v>8.4</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="Y22" t="n">
         <v>9.6</v>
@@ -3505,10 +3505,10 @@
         <v>2.12</v>
       </c>
       <c r="G23" t="n">
-        <v>2.54</v>
+        <v>2.58</v>
       </c>
       <c r="H23" t="n">
-        <v>2.9</v>
+        <v>2.86</v>
       </c>
       <c r="I23" t="n">
         <v>4.5</v>
@@ -3640,13 +3640,13 @@
         <v>2.64</v>
       </c>
       <c r="G24" t="n">
-        <v>3.1</v>
+        <v>3.15</v>
       </c>
       <c r="H24" t="n">
-        <v>2.72</v>
+        <v>2.74</v>
       </c>
       <c r="I24" t="n">
-        <v>3.25</v>
+        <v>3.45</v>
       </c>
       <c r="J24" t="n">
         <v>2.84</v>
@@ -3655,7 +3655,7 @@
         <v>3.6</v>
       </c>
       <c r="L24" t="n">
-        <v>1.38</v>
+        <v>1.39</v>
       </c>
       <c r="M24" t="n">
         <v>1.08</v>
@@ -3778,10 +3778,10 @@
         <v>5.2</v>
       </c>
       <c r="H25" t="n">
-        <v>1.77</v>
+        <v>1.76</v>
       </c>
       <c r="I25" t="n">
-        <v>1.91</v>
+        <v>1.89</v>
       </c>
       <c r="J25" t="n">
         <v>3.85</v>
@@ -3790,7 +3790,7 @@
         <v>4.4</v>
       </c>
       <c r="L25" t="n">
-        <v>1.34</v>
+        <v>1.29</v>
       </c>
       <c r="M25" t="n">
         <v>1.05</v>
@@ -3805,25 +3805,25 @@
         <v>2.1</v>
       </c>
       <c r="Q25" t="n">
-        <v>1.75</v>
+        <v>1.76</v>
       </c>
       <c r="R25" t="n">
         <v>1.43</v>
       </c>
       <c r="S25" t="n">
-        <v>2.88</v>
+        <v>2.9</v>
       </c>
       <c r="T25" t="n">
-        <v>1.72</v>
+        <v>1.83</v>
       </c>
       <c r="U25" t="n">
         <v>2.14</v>
       </c>
       <c r="V25" t="n">
-        <v>2.1</v>
+        <v>2.12</v>
       </c>
       <c r="W25" t="n">
-        <v>1.23</v>
+        <v>1.24</v>
       </c>
       <c r="X25" t="n">
         <v>22</v>
@@ -3859,7 +3859,7 @@
         <v>22</v>
       </c>
       <c r="AI25" t="n">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="AJ25" t="n">
         <v>130</v>
@@ -3874,7 +3874,7 @@
         <v>110</v>
       </c>
       <c r="AN25" t="n">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="AO25" t="n">
         <v>12.5</v>
@@ -3907,16 +3907,16 @@
         </is>
       </c>
       <c r="F26" t="n">
-        <v>2.28</v>
+        <v>2.3</v>
       </c>
       <c r="G26" t="n">
-        <v>2.36</v>
+        <v>2.34</v>
       </c>
       <c r="H26" t="n">
         <v>3.5</v>
       </c>
       <c r="I26" t="n">
-        <v>3.55</v>
+        <v>3.65</v>
       </c>
       <c r="J26" t="n">
         <v>3.4</v>
@@ -3931,16 +3931,16 @@
         <v>1.07</v>
       </c>
       <c r="N26" t="n">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="O26" t="n">
         <v>1.32</v>
       </c>
       <c r="P26" t="n">
-        <v>1.93</v>
+        <v>1.96</v>
       </c>
       <c r="Q26" t="n">
-        <v>1.96</v>
+        <v>1.95</v>
       </c>
       <c r="R26" t="n">
         <v>1.36</v>
@@ -3955,10 +3955,10 @@
         <v>2.16</v>
       </c>
       <c r="V26" t="n">
-        <v>1.39</v>
+        <v>1.37</v>
       </c>
       <c r="W26" t="n">
-        <v>1.73</v>
+        <v>1.74</v>
       </c>
       <c r="X26" t="n">
         <v>14.5</v>
@@ -3982,7 +3982,7 @@
         <v>15.5</v>
       </c>
       <c r="AE26" t="n">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="AF26" t="n">
         <v>15.5</v>
@@ -4009,7 +4009,7 @@
         <v>110</v>
       </c>
       <c r="AN26" t="n">
-        <v>19.5</v>
+        <v>22</v>
       </c>
       <c r="AO26" t="n">
         <v>42</v>
@@ -4066,13 +4066,13 @@
         <v>1.08</v>
       </c>
       <c r="N27" t="n">
-        <v>2.74</v>
+        <v>2.76</v>
       </c>
       <c r="O27" t="n">
         <v>1.38</v>
       </c>
       <c r="P27" t="n">
-        <v>1.67</v>
+        <v>1.68</v>
       </c>
       <c r="Q27" t="n">
         <v>2.02</v>
@@ -4087,10 +4087,10 @@
         <v>2</v>
       </c>
       <c r="U27" t="n">
-        <v>1.76</v>
+        <v>1.77</v>
       </c>
       <c r="V27" t="n">
-        <v>1.17</v>
+        <v>1.19</v>
       </c>
       <c r="W27" t="n">
         <v>2.12</v>
@@ -4114,10 +4114,10 @@
         <v>10.5</v>
       </c>
       <c r="AD27" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AE27" t="n">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="AF27" t="n">
         <v>12</v>
@@ -4138,16 +4138,16 @@
         <v>26</v>
       </c>
       <c r="AL27" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AM27" t="n">
-        <v>210</v>
+        <v>200</v>
       </c>
       <c r="AN27" t="n">
         <v>18</v>
       </c>
       <c r="AO27" t="n">
-        <v>190</v>
+        <v>180</v>
       </c>
     </row>
     <row r="28">
@@ -4189,7 +4189,7 @@
         <v>4.6</v>
       </c>
       <c r="J28" t="n">
-        <v>3.5</v>
+        <v>3.55</v>
       </c>
       <c r="K28" t="n">
         <v>3.9</v>
@@ -4222,7 +4222,7 @@
         <v>1.74</v>
       </c>
       <c r="U28" t="n">
-        <v>2.12</v>
+        <v>2.14</v>
       </c>
       <c r="V28" t="n">
         <v>1.28</v>
@@ -4318,7 +4318,7 @@
         <v>5.1</v>
       </c>
       <c r="H29" t="n">
-        <v>1.86</v>
+        <v>1.87</v>
       </c>
       <c r="I29" t="n">
         <v>2</v>
@@ -4330,31 +4330,31 @@
         <v>4.1</v>
       </c>
       <c r="L29" t="n">
-        <v>1.34</v>
+        <v>1.33</v>
       </c>
       <c r="M29" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="N29" t="n">
         <v>3.6</v>
       </c>
       <c r="O29" t="n">
-        <v>1.31</v>
+        <v>1.3</v>
       </c>
       <c r="P29" t="n">
-        <v>1.92</v>
+        <v>1.9</v>
       </c>
       <c r="Q29" t="n">
-        <v>1.83</v>
+        <v>2.02</v>
       </c>
       <c r="R29" t="n">
         <v>1.35</v>
       </c>
       <c r="S29" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="T29" t="n">
-        <v>1.79</v>
+        <v>1.78</v>
       </c>
       <c r="U29" t="n">
         <v>2.02</v>
@@ -4363,49 +4363,49 @@
         <v>2</v>
       </c>
       <c r="W29" t="n">
-        <v>1.24</v>
+        <v>1.25</v>
       </c>
       <c r="X29" t="n">
-        <v>970</v>
+        <v>18</v>
       </c>
       <c r="Y29" t="n">
-        <v>9.4</v>
+        <v>11</v>
       </c>
       <c r="Z29" t="n">
         <v>970</v>
       </c>
       <c r="AA29" t="n">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="AB29" t="n">
-        <v>970</v>
+        <v>20</v>
       </c>
       <c r="AC29" t="n">
-        <v>9</v>
+        <v>10.5</v>
       </c>
       <c r="AD29" t="n">
-        <v>970</v>
+        <v>12.5</v>
       </c>
       <c r="AE29" t="n">
         <v>25</v>
       </c>
       <c r="AF29" t="n">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="AG29" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AH29" t="n">
         <v>23</v>
       </c>
       <c r="AI29" t="n">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="AJ29" t="n">
         <v>1000</v>
       </c>
       <c r="AK29" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="AL29" t="n">
         <v>70</v>
@@ -4414,10 +4414,10 @@
         <v>1000</v>
       </c>
       <c r="AN29" t="n">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="AO29" t="n">
-        <v>970</v>
+        <v>16</v>
       </c>
     </row>
     <row r="30">
@@ -4447,28 +4447,28 @@
         </is>
       </c>
       <c r="F30" t="n">
-        <v>1.17</v>
+        <v>1.21</v>
       </c>
       <c r="G30" t="n">
-        <v>1.3</v>
+        <v>1.26</v>
       </c>
       <c r="H30" t="n">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I30" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J30" t="n">
         <v>6</v>
       </c>
       <c r="K30" t="n">
-        <v>15</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="L30" t="n">
         <v>1.22</v>
       </c>
       <c r="M30" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="N30" t="n">
         <v>5.4</v>
@@ -4492,67 +4492,67 @@
         <v>2.2</v>
       </c>
       <c r="U30" t="n">
-        <v>1.66</v>
+        <v>1.68</v>
       </c>
       <c r="V30" t="n">
         <v>1.04</v>
       </c>
       <c r="W30" t="n">
-        <v>4.2</v>
+        <v>4.8</v>
       </c>
       <c r="X30" t="n">
-        <v>1000</v>
+        <v>34</v>
       </c>
       <c r="Y30" t="n">
-        <v>1000</v>
+        <v>65</v>
       </c>
       <c r="Z30" t="n">
-        <v>1000</v>
+        <v>220</v>
       </c>
       <c r="AA30" t="n">
         <v>1000</v>
       </c>
       <c r="AB30" t="n">
-        <v>1000</v>
+        <v>12</v>
       </c>
       <c r="AC30" t="n">
-        <v>1000</v>
+        <v>21</v>
       </c>
       <c r="AD30" t="n">
-        <v>1000</v>
+        <v>75</v>
       </c>
       <c r="AE30" t="n">
-        <v>1000</v>
+        <v>390</v>
       </c>
       <c r="AF30" t="n">
-        <v>1000</v>
+        <v>9.6</v>
       </c>
       <c r="AG30" t="n">
-        <v>1000</v>
+        <v>14.5</v>
       </c>
       <c r="AH30" t="n">
-        <v>1000</v>
+        <v>48</v>
       </c>
       <c r="AI30" t="n">
-        <v>1000</v>
+        <v>270</v>
       </c>
       <c r="AJ30" t="n">
-        <v>1000</v>
+        <v>11</v>
       </c>
       <c r="AK30" t="n">
-        <v>1000</v>
+        <v>18</v>
       </c>
       <c r="AL30" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AM30" t="n">
-        <v>1000</v>
+        <v>280</v>
       </c>
       <c r="AN30" t="n">
-        <v>1000</v>
+        <v>4.7</v>
       </c>
       <c r="AO30" t="n">
-        <v>1000</v>
+        <v>580</v>
       </c>
     </row>
     <row r="31">
@@ -4582,7 +4582,7 @@
         </is>
       </c>
       <c r="F31" t="n">
-        <v>2.4</v>
+        <v>2.42</v>
       </c>
       <c r="G31" t="n">
         <v>2.64</v>
@@ -4594,13 +4594,13 @@
         <v>3.45</v>
       </c>
       <c r="J31" t="n">
-        <v>3.15</v>
+        <v>3.25</v>
       </c>
       <c r="K31" t="n">
         <v>3.6</v>
       </c>
       <c r="L31" t="n">
-        <v>1.36</v>
+        <v>1.44</v>
       </c>
       <c r="M31" t="n">
         <v>1.08</v>
@@ -4612,7 +4612,7 @@
         <v>1.37</v>
       </c>
       <c r="P31" t="n">
-        <v>1.79</v>
+        <v>1.8</v>
       </c>
       <c r="Q31" t="n">
         <v>2.06</v>
@@ -4630,7 +4630,7 @@
         <v>2.04</v>
       </c>
       <c r="V31" t="n">
-        <v>1.42</v>
+        <v>1.41</v>
       </c>
       <c r="W31" t="n">
         <v>1.61</v>
@@ -4645,7 +4645,7 @@
         <v>27</v>
       </c>
       <c r="AA31" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="AB31" t="n">
         <v>12</v>
@@ -4657,7 +4657,7 @@
         <v>16.5</v>
       </c>
       <c r="AE31" t="n">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="AF31" t="n">
         <v>19.5</v>
@@ -4672,7 +4672,7 @@
         <v>60</v>
       </c>
       <c r="AJ31" t="n">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="AK31" t="n">
         <v>36</v>
@@ -4687,7 +4687,7 @@
         <v>30</v>
       </c>
       <c r="AO31" t="n">
-        <v>48</v>
+        <v>42</v>
       </c>
     </row>
     <row r="32">
@@ -4723,7 +4723,7 @@
         <v>2.28</v>
       </c>
       <c r="H32" t="n">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="I32" t="n">
         <v>3.75</v>
@@ -4759,7 +4759,7 @@
         <v>2.74</v>
       </c>
       <c r="T32" t="n">
-        <v>1.62</v>
+        <v>1.63</v>
       </c>
       <c r="U32" t="n">
         <v>2.32</v>
@@ -4780,7 +4780,7 @@
         <v>34</v>
       </c>
       <c r="AA32" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="AB32" t="n">
         <v>12.5</v>
@@ -4792,7 +4792,7 @@
         <v>16</v>
       </c>
       <c r="AE32" t="n">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="AF32" t="n">
         <v>18</v>
@@ -4822,7 +4822,7 @@
         <v>14</v>
       </c>
       <c r="AO32" t="n">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="33">
@@ -4852,22 +4852,22 @@
         </is>
       </c>
       <c r="F33" t="n">
-        <v>2.88</v>
+        <v>2.84</v>
       </c>
       <c r="G33" t="n">
-        <v>2.98</v>
+        <v>2.96</v>
       </c>
       <c r="H33" t="n">
-        <v>2.46</v>
+        <v>2.54</v>
       </c>
       <c r="I33" t="n">
-        <v>2.56</v>
+        <v>2.66</v>
       </c>
       <c r="J33" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="K33" t="n">
         <v>3.8</v>
-      </c>
-      <c r="K33" t="n">
-        <v>3.85</v>
       </c>
       <c r="L33" t="n">
         <v>1.34</v>
@@ -4876,49 +4876,49 @@
         <v>1.05</v>
       </c>
       <c r="N33" t="n">
-        <v>4.7</v>
+        <v>4.6</v>
       </c>
       <c r="O33" t="n">
         <v>1.24</v>
       </c>
       <c r="P33" t="n">
-        <v>2.26</v>
+        <v>2.24</v>
       </c>
       <c r="Q33" t="n">
-        <v>1.72</v>
+        <v>1.73</v>
       </c>
       <c r="R33" t="n">
-        <v>1.51</v>
+        <v>1.5</v>
       </c>
       <c r="S33" t="n">
-        <v>2.78</v>
+        <v>2.84</v>
       </c>
       <c r="T33" t="n">
-        <v>1.61</v>
+        <v>1.65</v>
       </c>
       <c r="U33" t="n">
         <v>2.44</v>
       </c>
       <c r="V33" t="n">
-        <v>1.64</v>
+        <v>1.6</v>
       </c>
       <c r="W33" t="n">
-        <v>1.5</v>
+        <v>1.51</v>
       </c>
       <c r="X33" t="n">
         <v>19</v>
       </c>
       <c r="Y33" t="n">
-        <v>14.5</v>
+        <v>15.5</v>
       </c>
       <c r="Z33" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AA33" t="n">
         <v>38</v>
       </c>
       <c r="AB33" t="n">
-        <v>15.5</v>
+        <v>17.5</v>
       </c>
       <c r="AC33" t="n">
         <v>9</v>
@@ -4939,10 +4939,10 @@
         <v>15.5</v>
       </c>
       <c r="AI33" t="n">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="AJ33" t="n">
-        <v>60</v>
+        <v>46</v>
       </c>
       <c r="AK33" t="n">
         <v>30</v>
@@ -4954,10 +4954,10 @@
         <v>70</v>
       </c>
       <c r="AN33" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AO33" t="n">
-        <v>16.5</v>
+        <v>19</v>
       </c>
     </row>
     <row r="34">
@@ -4987,13 +4987,13 @@
         </is>
       </c>
       <c r="F34" t="n">
-        <v>1.81</v>
+        <v>1.83</v>
       </c>
       <c r="G34" t="n">
         <v>1.85</v>
       </c>
       <c r="H34" t="n">
-        <v>4.3</v>
+        <v>4.5</v>
       </c>
       <c r="I34" t="n">
         <v>4.6</v>
@@ -5017,7 +5017,7 @@
         <v>1.18</v>
       </c>
       <c r="P34" t="n">
-        <v>2.66</v>
+        <v>2.62</v>
       </c>
       <c r="Q34" t="n">
         <v>1.56</v>
@@ -5026,10 +5026,10 @@
         <v>1.65</v>
       </c>
       <c r="S34" t="n">
-        <v>2.38</v>
+        <v>2.4</v>
       </c>
       <c r="T34" t="n">
-        <v>1.58</v>
+        <v>1.62</v>
       </c>
       <c r="U34" t="n">
         <v>2.52</v>
@@ -5122,31 +5122,31 @@
         </is>
       </c>
       <c r="F35" t="n">
-        <v>1.92</v>
+        <v>1.9</v>
       </c>
       <c r="G35" t="n">
-        <v>1.96</v>
+        <v>1.93</v>
       </c>
       <c r="H35" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="I35" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="J35" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="K35" t="n">
         <v>4.2</v>
       </c>
-      <c r="I35" t="n">
-        <v>4.4</v>
-      </c>
-      <c r="J35" t="n">
-        <v>3.85</v>
-      </c>
-      <c r="K35" t="n">
-        <v>4.1</v>
-      </c>
       <c r="L35" t="n">
-        <v>1.26</v>
+        <v>1.27</v>
       </c>
       <c r="M35" t="n">
         <v>1.03</v>
       </c>
       <c r="N35" t="n">
-        <v>6.8</v>
+        <v>6.4</v>
       </c>
       <c r="O35" t="n">
         <v>1.16</v>
@@ -5158,61 +5158,61 @@
         <v>1.52</v>
       </c>
       <c r="R35" t="n">
-        <v>1.78</v>
+        <v>1.77</v>
       </c>
       <c r="S35" t="n">
-        <v>2.2</v>
+        <v>2.22</v>
       </c>
       <c r="T35" t="n">
-        <v>1.5</v>
+        <v>1.52</v>
       </c>
       <c r="U35" t="n">
-        <v>2.88</v>
+        <v>2.78</v>
       </c>
       <c r="V35" t="n">
-        <v>1.29</v>
+        <v>1.28</v>
       </c>
       <c r="W35" t="n">
-        <v>2.04</v>
+        <v>2.06</v>
       </c>
       <c r="X35" t="n">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="Y35" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="Z35" t="n">
         <v>980</v>
       </c>
       <c r="AA35" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AB35" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="AC35" t="n">
         <v>10.5</v>
       </c>
       <c r="AD35" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AE35" t="n">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="AF35" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="AG35" t="n">
         <v>12</v>
       </c>
       <c r="AH35" t="n">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="AI35" t="n">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="AJ35" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AK35" t="n">
         <v>17.5</v>
@@ -5221,13 +5221,13 @@
         <v>24</v>
       </c>
       <c r="AM35" t="n">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="AN35" t="n">
-        <v>7.8</v>
+        <v>7.6</v>
       </c>
       <c r="AO35" t="n">
-        <v>1000</v>
+        <v>38</v>
       </c>
     </row>
     <row r="36">
@@ -5257,22 +5257,22 @@
         </is>
       </c>
       <c r="F36" t="n">
-        <v>2.9</v>
+        <v>2.88</v>
       </c>
       <c r="G36" t="n">
-        <v>3.15</v>
+        <v>3.1</v>
       </c>
       <c r="H36" t="n">
-        <v>2.38</v>
+        <v>2.46</v>
       </c>
       <c r="I36" t="n">
-        <v>2.58</v>
+        <v>2.56</v>
       </c>
       <c r="J36" t="n">
         <v>3.55</v>
       </c>
       <c r="K36" t="n">
-        <v>3.9</v>
+        <v>3.8</v>
       </c>
       <c r="L36" t="n">
         <v>1.3</v>
@@ -5281,16 +5281,16 @@
         <v>1.06</v>
       </c>
       <c r="N36" t="n">
-        <v>3.9</v>
+        <v>3.85</v>
       </c>
       <c r="O36" t="n">
         <v>1.29</v>
       </c>
       <c r="P36" t="n">
-        <v>2</v>
+        <v>1.97</v>
       </c>
       <c r="Q36" t="n">
-        <v>1.86</v>
+        <v>1.85</v>
       </c>
       <c r="R36" t="n">
         <v>1.39</v>
@@ -5302,16 +5302,16 @@
         <v>1.7</v>
       </c>
       <c r="U36" t="n">
-        <v>2.18</v>
+        <v>2.16</v>
       </c>
       <c r="V36" t="n">
-        <v>1.63</v>
+        <v>1.64</v>
       </c>
       <c r="W36" t="n">
-        <v>1.47</v>
+        <v>1.48</v>
       </c>
       <c r="X36" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="Y36" t="n">
         <v>11.5</v>
@@ -5320,7 +5320,7 @@
         <v>17</v>
       </c>
       <c r="AA36" t="n">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="AB36" t="n">
         <v>13.5</v>
@@ -5329,7 +5329,7 @@
         <v>8.199999999999999</v>
       </c>
       <c r="AD36" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="AE36" t="n">
         <v>28</v>
@@ -5344,7 +5344,7 @@
         <v>17.5</v>
       </c>
       <c r="AI36" t="n">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="AJ36" t="n">
         <v>50</v>
@@ -5395,7 +5395,7 @@
         <v>6.6</v>
       </c>
       <c r="G37" t="n">
-        <v>9</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="H37" t="n">
         <v>1.42</v>
@@ -5404,13 +5404,13 @@
         <v>1.48</v>
       </c>
       <c r="J37" t="n">
-        <v>4.7</v>
+        <v>5.5</v>
       </c>
       <c r="K37" t="n">
         <v>6.2</v>
       </c>
       <c r="L37" t="n">
-        <v>1.17</v>
+        <v>1.19</v>
       </c>
       <c r="M37" t="n">
         <v>1.02</v>
@@ -5431,13 +5431,13 @@
         <v>1.97</v>
       </c>
       <c r="S37" t="n">
-        <v>1.9</v>
+        <v>1.79</v>
       </c>
       <c r="T37" t="n">
-        <v>1.58</v>
+        <v>1.59</v>
       </c>
       <c r="U37" t="n">
-        <v>2.48</v>
+        <v>2.46</v>
       </c>
       <c r="V37" t="n">
         <v>3.05</v>
@@ -5536,7 +5536,7 @@
         <v>2.76</v>
       </c>
       <c r="I38" t="n">
-        <v>3.3</v>
+        <v>3.15</v>
       </c>
       <c r="J38" t="n">
         <v>3.5</v>
@@ -5557,10 +5557,10 @@
         <v>1.25</v>
       </c>
       <c r="P38" t="n">
-        <v>2.14</v>
+        <v>2.18</v>
       </c>
       <c r="Q38" t="n">
-        <v>1.6</v>
+        <v>1.7</v>
       </c>
       <c r="R38" t="n">
         <v>1.46</v>
@@ -5569,13 +5569,13 @@
         <v>2.8</v>
       </c>
       <c r="T38" t="n">
-        <v>1.61</v>
+        <v>1.6</v>
       </c>
       <c r="U38" t="n">
         <v>2.32</v>
       </c>
       <c r="V38" t="n">
-        <v>1.44</v>
+        <v>1.47</v>
       </c>
       <c r="W38" t="n">
         <v>1.59</v>
@@ -5623,10 +5623,10 @@
         <v>32</v>
       </c>
       <c r="AL38" t="n">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="AM38" t="n">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="AN38" t="n">
         <v>21</v>
@@ -5665,10 +5665,10 @@
         <v>2.82</v>
       </c>
       <c r="G39" t="n">
-        <v>3</v>
+        <v>2.96</v>
       </c>
       <c r="H39" t="n">
-        <v>2.58</v>
+        <v>2.64</v>
       </c>
       <c r="I39" t="n">
         <v>2.76</v>
@@ -5680,40 +5680,40 @@
         <v>3.6</v>
       </c>
       <c r="L39" t="n">
-        <v>1.38</v>
+        <v>1.4</v>
       </c>
       <c r="M39" t="n">
         <v>1.07</v>
       </c>
       <c r="N39" t="n">
-        <v>3.8</v>
+        <v>3.85</v>
       </c>
       <c r="O39" t="n">
         <v>1.31</v>
       </c>
       <c r="P39" t="n">
-        <v>1.98</v>
+        <v>1.97</v>
       </c>
       <c r="Q39" t="n">
-        <v>1.91</v>
+        <v>1.93</v>
       </c>
       <c r="R39" t="n">
         <v>1.38</v>
       </c>
       <c r="S39" t="n">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="T39" t="n">
-        <v>1.72</v>
+        <v>1.73</v>
       </c>
       <c r="U39" t="n">
-        <v>2.22</v>
+        <v>2.2</v>
       </c>
       <c r="V39" t="n">
         <v>1.56</v>
       </c>
       <c r="W39" t="n">
-        <v>1.5</v>
+        <v>1.51</v>
       </c>
       <c r="X39" t="n">
         <v>970</v>
@@ -5722,52 +5722,52 @@
         <v>12</v>
       </c>
       <c r="Z39" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AA39" t="n">
         <v>44</v>
       </c>
       <c r="AB39" t="n">
-        <v>970</v>
+        <v>12</v>
       </c>
       <c r="AC39" t="n">
-        <v>8.199999999999999</v>
+        <v>8</v>
       </c>
       <c r="AD39" t="n">
         <v>12.5</v>
       </c>
       <c r="AE39" t="n">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="AF39" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AG39" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AH39" t="n">
         <v>19</v>
       </c>
       <c r="AI39" t="n">
+        <v>40</v>
+      </c>
+      <c r="AJ39" t="n">
         <v>48</v>
       </c>
-      <c r="AJ39" t="n">
-        <v>50</v>
-      </c>
       <c r="AK39" t="n">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="AL39" t="n">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="AM39" t="n">
         <v>100</v>
       </c>
       <c r="AN39" t="n">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="AO39" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="40">
@@ -5797,7 +5797,7 @@
         </is>
       </c>
       <c r="F40" t="n">
-        <v>1.92</v>
+        <v>1.91</v>
       </c>
       <c r="G40" t="n">
         <v>2.06</v>
@@ -5815,7 +5815,7 @@
         <v>3.55</v>
       </c>
       <c r="L40" t="n">
-        <v>1.42</v>
+        <v>1.43</v>
       </c>
       <c r="M40" t="n">
         <v>1.1</v>
@@ -5932,10 +5932,10 @@
         </is>
       </c>
       <c r="F41" t="n">
-        <v>1.73</v>
+        <v>1.78</v>
       </c>
       <c r="G41" t="n">
-        <v>1.77</v>
+        <v>1.79</v>
       </c>
       <c r="H41" t="n">
         <v>4.6</v>
@@ -5944,10 +5944,10 @@
         <v>4.9</v>
       </c>
       <c r="J41" t="n">
-        <v>4.4</v>
+        <v>4.3</v>
       </c>
       <c r="K41" t="n">
-        <v>4.7</v>
+        <v>4.6</v>
       </c>
       <c r="L41" t="n">
         <v>1.26</v>
@@ -5962,28 +5962,28 @@
         <v>1.18</v>
       </c>
       <c r="P41" t="n">
-        <v>2.6</v>
+        <v>2.62</v>
       </c>
       <c r="Q41" t="n">
-        <v>1.55</v>
+        <v>1.56</v>
       </c>
       <c r="R41" t="n">
-        <v>1.65</v>
+        <v>1.66</v>
       </c>
       <c r="S41" t="n">
+        <v>2.36</v>
+      </c>
+      <c r="T41" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="U41" t="n">
+        <v>2.46</v>
+      </c>
+      <c r="V41" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="W41" t="n">
         <v>2.26</v>
-      </c>
-      <c r="T41" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="U41" t="n">
-        <v>2.44</v>
-      </c>
-      <c r="V41" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="W41" t="n">
-        <v>2.28</v>
       </c>
       <c r="X41" t="n">
         <v>32</v>
@@ -6037,7 +6037,7 @@
         <v>7.2</v>
       </c>
       <c r="AO41" t="n">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="42">
@@ -6073,7 +6073,7 @@
         <v>5.4</v>
       </c>
       <c r="H42" t="n">
-        <v>1.68</v>
+        <v>1.7</v>
       </c>
       <c r="I42" t="n">
         <v>1.72</v>
@@ -6139,10 +6139,10 @@
         <v>10.5</v>
       </c>
       <c r="AD42" t="n">
-        <v>9.800000000000001</v>
+        <v>12.5</v>
       </c>
       <c r="AE42" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AF42" t="n">
         <v>48</v>
@@ -6172,7 +6172,7 @@
         <v>44</v>
       </c>
       <c r="AO42" t="n">
-        <v>7.6</v>
+        <v>8.199999999999999</v>
       </c>
     </row>
     <row r="43">
@@ -6202,22 +6202,22 @@
         </is>
       </c>
       <c r="F43" t="n">
-        <v>2.22</v>
+        <v>2.2</v>
       </c>
       <c r="G43" t="n">
         <v>2.24</v>
       </c>
       <c r="H43" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="I43" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="J43" t="n">
         <v>3.6</v>
       </c>
-      <c r="I43" t="n">
+      <c r="K43" t="n">
         <v>3.7</v>
-      </c>
-      <c r="J43" t="n">
-        <v>3.55</v>
-      </c>
-      <c r="K43" t="n">
-        <v>3.6</v>
       </c>
       <c r="L43" t="n">
         <v>1.41</v>
@@ -6226,7 +6226,7 @@
         <v>1.07</v>
       </c>
       <c r="N43" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="O43" t="n">
         <v>1.31</v>
@@ -6235,7 +6235,7 @@
         <v>2.04</v>
       </c>
       <c r="Q43" t="n">
-        <v>1.93</v>
+        <v>1.92</v>
       </c>
       <c r="R43" t="n">
         <v>1.39</v>
@@ -6253,7 +6253,7 @@
         <v>1.37</v>
       </c>
       <c r="W43" t="n">
-        <v>1.8</v>
+        <v>1.81</v>
       </c>
       <c r="X43" t="n">
         <v>14</v>
@@ -6304,7 +6304,7 @@
         <v>90</v>
       </c>
       <c r="AN43" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="AO43" t="n">
         <v>38</v>
@@ -6475,7 +6475,7 @@
         <v>4.2</v>
       </c>
       <c r="G45" t="n">
-        <v>5.6</v>
+        <v>5.5</v>
       </c>
       <c r="H45" t="n">
         <v>1.79</v>
@@ -6484,10 +6484,10 @@
         <v>1.95</v>
       </c>
       <c r="J45" t="n">
-        <v>3.35</v>
+        <v>3.8</v>
       </c>
       <c r="K45" t="n">
-        <v>4.4</v>
+        <v>4.5</v>
       </c>
       <c r="L45" t="n">
         <v>1.28</v>
@@ -6502,22 +6502,22 @@
         <v>1.24</v>
       </c>
       <c r="P45" t="n">
-        <v>2.14</v>
+        <v>2.18</v>
       </c>
       <c r="Q45" t="n">
-        <v>1.71</v>
+        <v>1.69</v>
       </c>
       <c r="R45" t="n">
-        <v>1.45</v>
+        <v>1.48</v>
       </c>
       <c r="S45" t="n">
-        <v>2.78</v>
+        <v>2.74</v>
       </c>
       <c r="T45" t="n">
-        <v>1.59</v>
+        <v>1.76</v>
       </c>
       <c r="U45" t="n">
-        <v>2.16</v>
+        <v>2.2</v>
       </c>
       <c r="V45" t="n">
         <v>2.04</v>
@@ -6526,13 +6526,13 @@
         <v>1.23</v>
       </c>
       <c r="X45" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="Y45" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="Z45" t="n">
-        <v>15</v>
+        <v>15.5</v>
       </c>
       <c r="AA45" t="n">
         <v>25</v>
@@ -6547,7 +6547,7 @@
         <v>12.5</v>
       </c>
       <c r="AE45" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AF45" t="n">
         <v>44</v>
@@ -6556,28 +6556,28 @@
         <v>22</v>
       </c>
       <c r="AH45" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AI45" t="n">
         <v>38</v>
       </c>
       <c r="AJ45" t="n">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="AK45" t="n">
         <v>65</v>
       </c>
       <c r="AL45" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="AM45" t="n">
-        <v>110</v>
+        <v>95</v>
       </c>
       <c r="AN45" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="AO45" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="46">
@@ -6742,19 +6742,19 @@
         </is>
       </c>
       <c r="F47" t="n">
-        <v>1.4</v>
+        <v>1.41</v>
       </c>
       <c r="G47" t="n">
-        <v>1.49</v>
+        <v>1.5</v>
       </c>
       <c r="H47" t="n">
         <v>10.5</v>
       </c>
       <c r="I47" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="J47" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="K47" t="n">
         <v>4.9</v>
@@ -6877,22 +6877,22 @@
         </is>
       </c>
       <c r="F48" t="n">
-        <v>1.57</v>
+        <v>1.58</v>
       </c>
       <c r="G48" t="n">
-        <v>1.72</v>
+        <v>1.74</v>
       </c>
       <c r="H48" t="n">
-        <v>6.2</v>
+        <v>6</v>
       </c>
       <c r="I48" t="n">
-        <v>7.8</v>
+        <v>7.6</v>
       </c>
       <c r="J48" t="n">
         <v>3.65</v>
       </c>
       <c r="K48" t="n">
-        <v>4.4</v>
+        <v>4.5</v>
       </c>
       <c r="L48" t="n">
         <v>1.42</v>
@@ -6919,37 +6919,37 @@
         <v>3.7</v>
       </c>
       <c r="T48" t="n">
-        <v>2</v>
+        <v>2.02</v>
       </c>
       <c r="U48" t="n">
-        <v>1.75</v>
+        <v>1.77</v>
       </c>
       <c r="V48" t="n">
         <v>1.15</v>
       </c>
       <c r="W48" t="n">
-        <v>2.38</v>
+        <v>2.32</v>
       </c>
       <c r="X48" t="n">
         <v>15.5</v>
       </c>
       <c r="Y48" t="n">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="Z48" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="AA48" t="n">
         <v>270</v>
       </c>
       <c r="AB48" t="n">
-        <v>8.6</v>
+        <v>7.6</v>
       </c>
       <c r="AC48" t="n">
         <v>11</v>
       </c>
       <c r="AD48" t="n">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="AE48" t="n">
         <v>140</v>
@@ -6967,13 +6967,13 @@
         <v>140</v>
       </c>
       <c r="AJ48" t="n">
-        <v>18.5</v>
+        <v>17</v>
       </c>
       <c r="AK48" t="n">
         <v>21</v>
       </c>
       <c r="AL48" t="n">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="AM48" t="n">
         <v>210</v>
@@ -7018,7 +7018,7 @@
         <v>2.42</v>
       </c>
       <c r="H49" t="n">
-        <v>3.5</v>
+        <v>3.55</v>
       </c>
       <c r="I49" t="n">
         <v>4.2</v>
@@ -7153,7 +7153,7 @@
         <v>6.8</v>
       </c>
       <c r="H50" t="n">
-        <v>1.77</v>
+        <v>1.79</v>
       </c>
       <c r="I50" t="n">
         <v>2.2</v>
@@ -7174,13 +7174,13 @@
         <v>2.38</v>
       </c>
       <c r="O50" t="n">
-        <v>1.08</v>
+        <v>1.01</v>
       </c>
       <c r="P50" t="n">
         <v>1.55</v>
       </c>
       <c r="Q50" t="n">
-        <v>1.64</v>
+        <v>2.36</v>
       </c>
       <c r="R50" t="n">
         <v>1.18</v>
@@ -7282,7 +7282,7 @@
         </is>
       </c>
       <c r="F51" t="n">
-        <v>1.46</v>
+        <v>1.47</v>
       </c>
       <c r="G51" t="n">
         <v>1.49</v>
@@ -7318,10 +7318,10 @@
         <v>1.47</v>
       </c>
       <c r="R51" t="n">
-        <v>1.78</v>
+        <v>1.79</v>
       </c>
       <c r="S51" t="n">
-        <v>2.12</v>
+        <v>2.14</v>
       </c>
       <c r="T51" t="n">
         <v>1.68</v>
@@ -7330,7 +7330,7 @@
         <v>2.32</v>
       </c>
       <c r="V51" t="n">
-        <v>1.14</v>
+        <v>1.15</v>
       </c>
       <c r="W51" t="n">
         <v>3</v>
@@ -7366,7 +7366,7 @@
         <v>11.5</v>
       </c>
       <c r="AH51" t="n">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="AI51" t="n">
         <v>70</v>
@@ -7417,25 +7417,25 @@
         </is>
       </c>
       <c r="F52" t="n">
-        <v>4</v>
+        <v>3.95</v>
       </c>
       <c r="G52" t="n">
         <v>4.3</v>
       </c>
       <c r="H52" t="n">
-        <v>1.84</v>
+        <v>1.88</v>
       </c>
       <c r="I52" t="n">
-        <v>1.89</v>
+        <v>1.9</v>
       </c>
       <c r="J52" t="n">
-        <v>4.3</v>
+        <v>4.2</v>
       </c>
       <c r="K52" t="n">
         <v>4.5</v>
       </c>
       <c r="L52" t="n">
-        <v>1.01</v>
+        <v>1.21</v>
       </c>
       <c r="M52" t="n">
         <v>1.03</v>
@@ -7450,22 +7450,22 @@
         <v>2.86</v>
       </c>
       <c r="Q52" t="n">
-        <v>1.48</v>
+        <v>1.49</v>
       </c>
       <c r="R52" t="n">
-        <v>1.78</v>
+        <v>1.76</v>
       </c>
       <c r="S52" t="n">
-        <v>2.16</v>
+        <v>2.18</v>
       </c>
       <c r="T52" t="n">
-        <v>1.5</v>
+        <v>1.49</v>
       </c>
       <c r="U52" t="n">
-        <v>2.72</v>
+        <v>2.68</v>
       </c>
       <c r="V52" t="n">
-        <v>2.12</v>
+        <v>2.1</v>
       </c>
       <c r="W52" t="n">
         <v>1.3</v>
@@ -7576,19 +7576,19 @@
         <v>1.09</v>
       </c>
       <c r="N53" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="O53" t="n">
         <v>1.39</v>
       </c>
       <c r="P53" t="n">
-        <v>1.76</v>
+        <v>1.81</v>
       </c>
       <c r="Q53" t="n">
         <v>2.14</v>
       </c>
       <c r="R53" t="n">
-        <v>1.27</v>
+        <v>1.28</v>
       </c>
       <c r="S53" t="n">
         <v>3.9</v>
@@ -7636,7 +7636,7 @@
         <v>13</v>
       </c>
       <c r="AH53" t="n">
-        <v>19.5</v>
+        <v>19</v>
       </c>
       <c r="AI53" t="n">
         <v>55</v>
@@ -7645,7 +7645,7 @@
         <v>46</v>
       </c>
       <c r="AK53" t="n">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="AL53" t="n">
         <v>50</v>
@@ -7714,7 +7714,7 @@
         <v>3.1</v>
       </c>
       <c r="O54" t="n">
-        <v>1.41</v>
+        <v>1.42</v>
       </c>
       <c r="P54" t="n">
         <v>1.72</v>
@@ -7738,13 +7738,13 @@
         <v>1.46</v>
       </c>
       <c r="W54" t="n">
-        <v>1.55</v>
+        <v>1.54</v>
       </c>
       <c r="X54" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="Y54" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="Z54" t="n">
         <v>24</v>
@@ -7762,7 +7762,7 @@
         <v>14.5</v>
       </c>
       <c r="AE54" t="n">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="AF54" t="n">
         <v>20</v>
@@ -7783,7 +7783,7 @@
         <v>42</v>
       </c>
       <c r="AL54" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AM54" t="n">
         <v>150</v>
@@ -7792,7 +7792,7 @@
         <v>40</v>
       </c>
       <c r="AO54" t="n">
-        <v>48</v>
+        <v>44</v>
       </c>
     </row>
     <row r="55">
@@ -7822,7 +7822,7 @@
         </is>
       </c>
       <c r="F55" t="n">
-        <v>2.42</v>
+        <v>2.4</v>
       </c>
       <c r="G55" t="n">
         <v>2.74</v>
@@ -7831,16 +7831,16 @@
         <v>2.94</v>
       </c>
       <c r="I55" t="n">
-        <v>3.45</v>
+        <v>3.65</v>
       </c>
       <c r="J55" t="n">
-        <v>3.2</v>
+        <v>2.9</v>
       </c>
       <c r="K55" t="n">
         <v>3.75</v>
       </c>
       <c r="L55" t="n">
-        <v>1.42</v>
+        <v>1.43</v>
       </c>
       <c r="M55" t="n">
         <v>1.07</v>
@@ -7870,7 +7870,7 @@
         <v>2.06</v>
       </c>
       <c r="V55" t="n">
-        <v>1.41</v>
+        <v>1.4</v>
       </c>
       <c r="W55" t="n">
         <v>1.58</v>
@@ -7960,19 +7960,19 @@
         <v>2.68</v>
       </c>
       <c r="G56" t="n">
-        <v>2.98</v>
+        <v>2.94</v>
       </c>
       <c r="H56" t="n">
-        <v>2.62</v>
+        <v>2.64</v>
       </c>
       <c r="I56" t="n">
-        <v>2.98</v>
+        <v>2.92</v>
       </c>
       <c r="J56" t="n">
-        <v>3.4</v>
+        <v>3.45</v>
       </c>
       <c r="K56" t="n">
-        <v>3.75</v>
+        <v>3.85</v>
       </c>
       <c r="L56" t="n">
         <v>1.33</v>
@@ -7987,10 +7987,10 @@
         <v>1.3</v>
       </c>
       <c r="P56" t="n">
-        <v>1.92</v>
+        <v>1.94</v>
       </c>
       <c r="Q56" t="n">
-        <v>1.87</v>
+        <v>1.89</v>
       </c>
       <c r="R56" t="n">
         <v>1.36</v>
@@ -7999,16 +7999,16 @@
         <v>3.2</v>
       </c>
       <c r="T56" t="n">
-        <v>1.69</v>
+        <v>1.78</v>
       </c>
       <c r="U56" t="n">
-        <v>2.16</v>
+        <v>2.2</v>
       </c>
       <c r="V56" t="n">
-        <v>1.5</v>
+        <v>1.52</v>
       </c>
       <c r="W56" t="n">
-        <v>1.5</v>
+        <v>1.51</v>
       </c>
       <c r="X56" t="n">
         <v>18</v>
@@ -8032,10 +8032,10 @@
         <v>15</v>
       </c>
       <c r="AE56" t="n">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="AF56" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AG56" t="n">
         <v>15.5</v>
@@ -8101,7 +8101,7 @@
         <v>2.52</v>
       </c>
       <c r="I57" t="n">
-        <v>3.2</v>
+        <v>3.15</v>
       </c>
       <c r="J57" t="n">
         <v>2.92</v>
@@ -8119,7 +8119,7 @@
         <v>3.45</v>
       </c>
       <c r="O57" t="n">
-        <v>1.32</v>
+        <v>1.33</v>
       </c>
       <c r="P57" t="n">
         <v>1.84</v>
@@ -8131,7 +8131,7 @@
         <v>1.32</v>
       </c>
       <c r="S57" t="n">
-        <v>3.25</v>
+        <v>3.15</v>
       </c>
       <c r="T57" t="n">
         <v>1.72</v>
@@ -8185,7 +8185,7 @@
         <v>60</v>
       </c>
       <c r="AK57" t="n">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="AL57" t="n">
         <v>55</v>
@@ -8230,109 +8230,109 @@
         <v>1.83</v>
       </c>
       <c r="G58" t="n">
-        <v>1.88</v>
+        <v>1.86</v>
       </c>
       <c r="H58" t="n">
-        <v>5.2</v>
+        <v>4.9</v>
       </c>
       <c r="I58" t="n">
-        <v>5.7</v>
+        <v>5.1</v>
       </c>
       <c r="J58" t="n">
-        <v>3.55</v>
+        <v>3.9</v>
       </c>
       <c r="K58" t="n">
-        <v>3.65</v>
+        <v>3.95</v>
       </c>
       <c r="L58" t="n">
-        <v>1.45</v>
+        <v>1.39</v>
       </c>
       <c r="M58" t="n">
-        <v>1.09</v>
+        <v>1.06</v>
       </c>
       <c r="N58" t="n">
-        <v>3.25</v>
+        <v>4.1</v>
       </c>
       <c r="O58" t="n">
-        <v>1.4</v>
+        <v>1.29</v>
       </c>
       <c r="P58" t="n">
-        <v>1.76</v>
+        <v>2.1</v>
       </c>
       <c r="Q58" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="R58" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="S58" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="T58" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="U58" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="V58" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="W58" t="n">
         <v>2.16</v>
       </c>
-      <c r="R58" t="n">
-        <v>1.28</v>
-      </c>
-      <c r="S58" t="n">
-        <v>4</v>
-      </c>
-      <c r="T58" t="n">
-        <v>1.98</v>
-      </c>
-      <c r="U58" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="V58" t="n">
-        <v>1.21</v>
-      </c>
-      <c r="W58" t="n">
-        <v>2.12</v>
-      </c>
       <c r="X58" t="n">
-        <v>12</v>
+        <v>15.5</v>
       </c>
       <c r="Y58" t="n">
-        <v>16.5</v>
+        <v>19</v>
       </c>
       <c r="Z58" t="n">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="AA58" t="n">
-        <v>150</v>
+        <v>110</v>
       </c>
       <c r="AB58" t="n">
-        <v>7.6</v>
+        <v>9.4</v>
       </c>
       <c r="AC58" t="n">
-        <v>8</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AD58" t="n">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="AE58" t="n">
-        <v>90</v>
+        <v>60</v>
       </c>
       <c r="AF58" t="n">
-        <v>10.5</v>
+        <v>12.5</v>
       </c>
       <c r="AG58" t="n">
         <v>10</v>
       </c>
       <c r="AH58" t="n">
-        <v>23</v>
+        <v>18.5</v>
       </c>
       <c r="AI58" t="n">
-        <v>90</v>
+        <v>65</v>
       </c>
       <c r="AJ58" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AK58" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AL58" t="n">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="AM58" t="n">
-        <v>150</v>
+        <v>110</v>
       </c>
       <c r="AN58" t="n">
-        <v>15.5</v>
+        <v>11</v>
       </c>
       <c r="AO58" t="n">
-        <v>110</v>
+        <v>60</v>
       </c>
     </row>
     <row r="59">
@@ -8380,7 +8380,7 @@
         <v>3.9</v>
       </c>
       <c r="L59" t="n">
-        <v>1.4</v>
+        <v>1.39</v>
       </c>
       <c r="M59" t="n">
         <v>1.07</v>
@@ -8389,25 +8389,25 @@
         <v>3.6</v>
       </c>
       <c r="O59" t="n">
-        <v>1.32</v>
+        <v>1.31</v>
       </c>
       <c r="P59" t="n">
         <v>1.89</v>
       </c>
       <c r="Q59" t="n">
-        <v>1.91</v>
+        <v>1.92</v>
       </c>
       <c r="R59" t="n">
         <v>1.34</v>
       </c>
       <c r="S59" t="n">
-        <v>3.25</v>
+        <v>3.05</v>
       </c>
       <c r="T59" t="n">
-        <v>1.73</v>
+        <v>1.72</v>
       </c>
       <c r="U59" t="n">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="V59" t="n">
         <v>1.68</v>
@@ -8503,7 +8503,7 @@
         <v>3.85</v>
       </c>
       <c r="H60" t="n">
-        <v>2.02</v>
+        <v>2.08</v>
       </c>
       <c r="I60" t="n">
         <v>2.22</v>
@@ -8527,10 +8527,10 @@
         <v>1.2</v>
       </c>
       <c r="P60" t="n">
-        <v>2.24</v>
+        <v>2.14</v>
       </c>
       <c r="Q60" t="n">
-        <v>1.59</v>
+        <v>1.69</v>
       </c>
       <c r="R60" t="n">
         <v>1.53</v>
@@ -8587,7 +8587,7 @@
         <v>36</v>
       </c>
       <c r="AJ60" t="n">
-        <v>65</v>
+        <v>75</v>
       </c>
       <c r="AK60" t="n">
         <v>44</v>
@@ -8596,7 +8596,7 @@
         <v>48</v>
       </c>
       <c r="AM60" t="n">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="AN60" t="n">
         <v>32</v>
@@ -8632,16 +8632,16 @@
         </is>
       </c>
       <c r="F61" t="n">
-        <v>1.59</v>
+        <v>1.6</v>
       </c>
       <c r="G61" t="n">
-        <v>1.6</v>
+        <v>1.61</v>
       </c>
       <c r="H61" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="I61" t="n">
         <v>6.4</v>
-      </c>
-      <c r="I61" t="n">
-        <v>6.6</v>
       </c>
       <c r="J61" t="n">
         <v>4.6</v>
@@ -8653,19 +8653,19 @@
         <v>1.31</v>
       </c>
       <c r="M61" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="N61" t="n">
-        <v>5.3</v>
+        <v>5.4</v>
       </c>
       <c r="O61" t="n">
-        <v>1.22</v>
+        <v>1.21</v>
       </c>
       <c r="P61" t="n">
         <v>2.46</v>
       </c>
       <c r="Q61" t="n">
-        <v>1.66</v>
+        <v>1.67</v>
       </c>
       <c r="R61" t="n">
         <v>1.57</v>
@@ -8677,7 +8677,7 @@
         <v>1.76</v>
       </c>
       <c r="U61" t="n">
-        <v>2.28</v>
+        <v>2.24</v>
       </c>
       <c r="V61" t="n">
         <v>1.18</v>
@@ -8707,7 +8707,7 @@
         <v>23</v>
       </c>
       <c r="AE61" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="AF61" t="n">
         <v>10.5</v>
@@ -8731,13 +8731,13 @@
         <v>28</v>
       </c>
       <c r="AM61" t="n">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="AN61" t="n">
         <v>6.8</v>
       </c>
       <c r="AO61" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
     </row>
     <row r="62">
@@ -8767,7 +8767,7 @@
         </is>
       </c>
       <c r="F62" t="n">
-        <v>6.2</v>
+        <v>6</v>
       </c>
       <c r="G62" t="n">
         <v>6.4</v>
@@ -8779,13 +8779,13 @@
         <v>1.73</v>
       </c>
       <c r="J62" t="n">
-        <v>3.8</v>
+        <v>3.85</v>
       </c>
       <c r="K62" t="n">
         <v>3.9</v>
       </c>
       <c r="L62" t="n">
-        <v>1.47</v>
+        <v>1.48</v>
       </c>
       <c r="M62" t="n">
         <v>1.09</v>
@@ -8803,13 +8803,13 @@
         <v>2.26</v>
       </c>
       <c r="R62" t="n">
-        <v>1.27</v>
+        <v>1.28</v>
       </c>
       <c r="S62" t="n">
         <v>4.3</v>
       </c>
       <c r="T62" t="n">
-        <v>2.18</v>
+        <v>2.16</v>
       </c>
       <c r="U62" t="n">
         <v>1.8</v>
@@ -8833,7 +8833,7 @@
         <v>16.5</v>
       </c>
       <c r="AB62" t="n">
-        <v>17</v>
+        <v>16.5</v>
       </c>
       <c r="AC62" t="n">
         <v>8.6</v>
@@ -8848,7 +8848,7 @@
         <v>48</v>
       </c>
       <c r="AG62" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AH62" t="n">
         <v>26</v>
@@ -8857,13 +8857,13 @@
         <v>48</v>
       </c>
       <c r="AJ62" t="n">
-        <v>210</v>
+        <v>190</v>
       </c>
       <c r="AK62" t="n">
         <v>110</v>
       </c>
       <c r="AL62" t="n">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="AM62" t="n">
         <v>180</v>
@@ -8872,7 +8872,7 @@
         <v>170</v>
       </c>
       <c r="AO62" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
     </row>
     <row r="63">
@@ -8902,7 +8902,7 @@
         </is>
       </c>
       <c r="F63" t="n">
-        <v>2.04</v>
+        <v>2.02</v>
       </c>
       <c r="G63" t="n">
         <v>2.06</v>
@@ -8920,7 +8920,7 @@
         <v>3.9</v>
       </c>
       <c r="L63" t="n">
-        <v>1.32</v>
+        <v>1.39</v>
       </c>
       <c r="M63" t="n">
         <v>1.06</v>
@@ -8944,7 +8944,7 @@
         <v>3.35</v>
       </c>
       <c r="T63" t="n">
-        <v>1.79</v>
+        <v>1.8</v>
       </c>
       <c r="U63" t="n">
         <v>2.18</v>
@@ -8965,7 +8965,7 @@
         <v>29</v>
       </c>
       <c r="AA63" t="n">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="AB63" t="n">
         <v>9.800000000000001</v>
@@ -9007,7 +9007,7 @@
         <v>14</v>
       </c>
       <c r="AO63" t="n">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="64">
@@ -9046,7 +9046,7 @@
         <v>2.26</v>
       </c>
       <c r="I64" t="n">
-        <v>2.46</v>
+        <v>2.44</v>
       </c>
       <c r="J64" t="n">
         <v>3.1</v>
@@ -9055,7 +9055,7 @@
         <v>3.45</v>
       </c>
       <c r="L64" t="n">
-        <v>1.42</v>
+        <v>1.51</v>
       </c>
       <c r="M64" t="n">
         <v>1.1</v>
@@ -9070,7 +9070,7 @@
         <v>1.66</v>
       </c>
       <c r="Q64" t="n">
-        <v>2.28</v>
+        <v>2.32</v>
       </c>
       <c r="R64" t="n">
         <v>1.24</v>
@@ -9088,7 +9088,7 @@
         <v>1.69</v>
       </c>
       <c r="W64" t="n">
-        <v>1.34</v>
+        <v>1.35</v>
       </c>
       <c r="X64" t="n">
         <v>11</v>
@@ -9199,10 +9199,10 @@
         <v>2.8</v>
       </c>
       <c r="O65" t="n">
-        <v>1.39</v>
+        <v>1.5</v>
       </c>
       <c r="P65" t="n">
-        <v>1.64</v>
+        <v>1.66</v>
       </c>
       <c r="Q65" t="n">
         <v>2.14</v>
@@ -9214,7 +9214,7 @@
         <v>3.45</v>
       </c>
       <c r="T65" t="n">
-        <v>2.46</v>
+        <v>2.42</v>
       </c>
       <c r="U65" t="n">
         <v>1.53</v>
@@ -9307,7 +9307,7 @@
         </is>
       </c>
       <c r="F66" t="n">
-        <v>2.18</v>
+        <v>2.16</v>
       </c>
       <c r="G66" t="n">
         <v>2.28</v>
@@ -9316,7 +9316,7 @@
         <v>3.2</v>
       </c>
       <c r="I66" t="n">
-        <v>3.55</v>
+        <v>3.6</v>
       </c>
       <c r="J66" t="n">
         <v>3.65</v>
@@ -9325,7 +9325,7 @@
         <v>4.1</v>
       </c>
       <c r="L66" t="n">
-        <v>1.28</v>
+        <v>1.33</v>
       </c>
       <c r="M66" t="n">
         <v>1.05</v>
@@ -9340,19 +9340,19 @@
         <v>2.18</v>
       </c>
       <c r="Q66" t="n">
-        <v>1.72</v>
+        <v>1.71</v>
       </c>
       <c r="R66" t="n">
-        <v>1.46</v>
+        <v>1.47</v>
       </c>
       <c r="S66" t="n">
-        <v>2.82</v>
+        <v>2.78</v>
       </c>
       <c r="T66" t="n">
-        <v>1.64</v>
+        <v>1.62</v>
       </c>
       <c r="U66" t="n">
-        <v>2.34</v>
+        <v>2.32</v>
       </c>
       <c r="V66" t="n">
         <v>1.39</v>
@@ -9361,7 +9361,7 @@
         <v>1.78</v>
       </c>
       <c r="X66" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="Y66" t="n">
         <v>19</v>
@@ -9406,7 +9406,7 @@
         <v>40</v>
       </c>
       <c r="AM66" t="n">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="AN66" t="n">
         <v>17</v>
@@ -9445,7 +9445,7 @@
         <v>2.4</v>
       </c>
       <c r="G67" t="n">
-        <v>2.44</v>
+        <v>2.42</v>
       </c>
       <c r="H67" t="n">
         <v>3.1</v>
@@ -9487,16 +9487,16 @@
         <v>1.63</v>
       </c>
       <c r="U67" t="n">
-        <v>2.48</v>
+        <v>2.5</v>
       </c>
       <c r="V67" t="n">
-        <v>1.46</v>
+        <v>1.45</v>
       </c>
       <c r="W67" t="n">
-        <v>1.69</v>
+        <v>1.7</v>
       </c>
       <c r="X67" t="n">
-        <v>18.5</v>
+        <v>18</v>
       </c>
       <c r="Y67" t="n">
         <v>15.5</v>
@@ -9580,10 +9580,10 @@
         <v>2.66</v>
       </c>
       <c r="G68" t="n">
-        <v>3.1</v>
+        <v>3.15</v>
       </c>
       <c r="H68" t="n">
-        <v>2.56</v>
+        <v>2.58</v>
       </c>
       <c r="I68" t="n">
         <v>2.96</v>
@@ -9592,10 +9592,10 @@
         <v>3.3</v>
       </c>
       <c r="K68" t="n">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="L68" t="n">
-        <v>1.34</v>
+        <v>1.33</v>
       </c>
       <c r="M68" t="n">
         <v>1.06</v>
@@ -9619,22 +9619,22 @@
         <v>3.2</v>
       </c>
       <c r="T68" t="n">
-        <v>1.69</v>
+        <v>1.83</v>
       </c>
       <c r="U68" t="n">
-        <v>2.16</v>
+        <v>2.14</v>
       </c>
       <c r="V68" t="n">
         <v>1.51</v>
       </c>
       <c r="W68" t="n">
-        <v>1.47</v>
+        <v>1.48</v>
       </c>
       <c r="X68" t="n">
         <v>18.5</v>
       </c>
       <c r="Y68" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="Z68" t="n">
         <v>23</v>
@@ -9643,13 +9643,13 @@
         <v>50</v>
       </c>
       <c r="AB68" t="n">
-        <v>970</v>
+        <v>14.5</v>
       </c>
       <c r="AC68" t="n">
         <v>9.800000000000001</v>
       </c>
       <c r="AD68" t="n">
-        <v>970</v>
+        <v>15</v>
       </c>
       <c r="AE68" t="n">
         <v>36</v>
@@ -9658,16 +9658,16 @@
         <v>24</v>
       </c>
       <c r="AG68" t="n">
-        <v>970</v>
+        <v>15.5</v>
       </c>
       <c r="AH68" t="n">
         <v>21</v>
       </c>
       <c r="AI68" t="n">
+        <v>48</v>
+      </c>
+      <c r="AJ68" t="n">
         <v>50</v>
-      </c>
-      <c r="AJ68" t="n">
-        <v>55</v>
       </c>
       <c r="AK68" t="n">
         <v>38</v>
@@ -9712,19 +9712,19 @@
         </is>
       </c>
       <c r="F69" t="n">
-        <v>3.05</v>
+        <v>3.15</v>
       </c>
       <c r="G69" t="n">
-        <v>3.5</v>
+        <v>3.55</v>
       </c>
       <c r="H69" t="n">
         <v>2.36</v>
       </c>
       <c r="I69" t="n">
-        <v>2.54</v>
+        <v>2.56</v>
       </c>
       <c r="J69" t="n">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="K69" t="n">
         <v>3.65</v>
@@ -9736,7 +9736,7 @@
         <v>1.08</v>
       </c>
       <c r="N69" t="n">
-        <v>3.4</v>
+        <v>3.35</v>
       </c>
       <c r="O69" t="n">
         <v>1.35</v>
@@ -9757,7 +9757,7 @@
         <v>1.79</v>
       </c>
       <c r="U69" t="n">
-        <v>2.04</v>
+        <v>2.06</v>
       </c>
       <c r="V69" t="n">
         <v>1.64</v>
@@ -9847,22 +9847,22 @@
         </is>
       </c>
       <c r="F70" t="n">
-        <v>3.5</v>
+        <v>3.55</v>
       </c>
       <c r="G70" t="n">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="H70" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="I70" t="n">
         <v>2.14</v>
       </c>
-      <c r="I70" t="n">
-        <v>2.18</v>
-      </c>
       <c r="J70" t="n">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="K70" t="n">
-        <v>3.9</v>
+        <v>3.95</v>
       </c>
       <c r="L70" t="n">
         <v>1.34</v>
@@ -9880,7 +9880,7 @@
         <v>2.2</v>
       </c>
       <c r="Q70" t="n">
-        <v>1.74</v>
+        <v>1.75</v>
       </c>
       <c r="R70" t="n">
         <v>1.48</v>
@@ -9892,10 +9892,10 @@
         <v>1.62</v>
       </c>
       <c r="U70" t="n">
-        <v>2.32</v>
+        <v>2.34</v>
       </c>
       <c r="V70" t="n">
-        <v>1.84</v>
+        <v>1.87</v>
       </c>
       <c r="W70" t="n">
         <v>1.37</v>
@@ -9982,25 +9982,25 @@
         </is>
       </c>
       <c r="F71" t="n">
-        <v>1.59</v>
+        <v>1.58</v>
       </c>
       <c r="G71" t="n">
         <v>1.6</v>
       </c>
       <c r="H71" t="n">
-        <v>6.6</v>
+        <v>6.8</v>
       </c>
       <c r="I71" t="n">
-        <v>7</v>
+        <v>7.4</v>
       </c>
       <c r="J71" t="n">
-        <v>4.3</v>
+        <v>4.4</v>
       </c>
       <c r="K71" t="n">
         <v>4.6</v>
       </c>
       <c r="L71" t="n">
-        <v>1.34</v>
+        <v>1.35</v>
       </c>
       <c r="M71" t="n">
         <v>1.05</v>
@@ -10018,7 +10018,7 @@
         <v>1.79</v>
       </c>
       <c r="R71" t="n">
-        <v>1.44</v>
+        <v>1.45</v>
       </c>
       <c r="S71" t="n">
         <v>3</v>
@@ -10033,16 +10033,16 @@
         <v>1.16</v>
       </c>
       <c r="W71" t="n">
-        <v>2.66</v>
+        <v>2.68</v>
       </c>
       <c r="X71" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="Y71" t="n">
         <v>25</v>
       </c>
       <c r="Z71" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="AA71" t="n">
         <v>220</v>
@@ -10057,7 +10057,7 @@
         <v>25</v>
       </c>
       <c r="AE71" t="n">
-        <v>1000</v>
+        <v>95</v>
       </c>
       <c r="AF71" t="n">
         <v>9.6</v>
@@ -10069,7 +10069,7 @@
         <v>24</v>
       </c>
       <c r="AI71" t="n">
-        <v>1000</v>
+        <v>95</v>
       </c>
       <c r="AJ71" t="n">
         <v>15</v>
@@ -10081,13 +10081,13 @@
         <v>34</v>
       </c>
       <c r="AM71" t="n">
-        <v>980</v>
+        <v>110</v>
       </c>
       <c r="AN71" t="n">
-        <v>8.4</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AO71" t="n">
-        <v>1000</v>
+        <v>110</v>
       </c>
     </row>
     <row r="72">
@@ -10129,7 +10129,7 @@
         <v>1.23</v>
       </c>
       <c r="J72" t="n">
-        <v>6.8</v>
+        <v>7</v>
       </c>
       <c r="K72" t="n">
         <v>8.4</v>
@@ -10141,7 +10141,7 @@
         <v>1.03</v>
       </c>
       <c r="N72" t="n">
-        <v>2.34</v>
+        <v>4.9</v>
       </c>
       <c r="O72" t="n">
         <v>1.2</v>
@@ -10159,10 +10159,10 @@
         <v>2.52</v>
       </c>
       <c r="T72" t="n">
-        <v>1.01</v>
+        <v>2.42</v>
       </c>
       <c r="U72" t="n">
-        <v>1.47</v>
+        <v>1.56</v>
       </c>
       <c r="V72" t="n">
         <v>5.1</v>
@@ -10222,7 +10222,7 @@
         <v>1000</v>
       </c>
       <c r="AO72" t="n">
-        <v>5</v>
+        <v>4.4</v>
       </c>
     </row>
     <row r="73">
@@ -10255,16 +10255,16 @@
         <v>2.6</v>
       </c>
       <c r="G73" t="n">
-        <v>2.92</v>
+        <v>2.84</v>
       </c>
       <c r="H73" t="n">
         <v>2.66</v>
       </c>
       <c r="I73" t="n">
-        <v>2.98</v>
+        <v>3</v>
       </c>
       <c r="J73" t="n">
-        <v>3.15</v>
+        <v>3.2</v>
       </c>
       <c r="K73" t="n">
         <v>3.8</v>
@@ -10279,7 +10279,7 @@
         <v>3.5</v>
       </c>
       <c r="O73" t="n">
-        <v>1.27</v>
+        <v>1.32</v>
       </c>
       <c r="P73" t="n">
         <v>1.86</v>
@@ -10294,7 +10294,7 @@
         <v>3.4</v>
       </c>
       <c r="T73" t="n">
-        <v>1.74</v>
+        <v>1.73</v>
       </c>
       <c r="U73" t="n">
         <v>2.12</v>
@@ -10303,7 +10303,7 @@
         <v>1.5</v>
       </c>
       <c r="W73" t="n">
-        <v>1.52</v>
+        <v>1.54</v>
       </c>
       <c r="X73" t="n">
         <v>17</v>
@@ -10357,7 +10357,7 @@
         <v>34</v>
       </c>
       <c r="AO73" t="n">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="74">
@@ -10387,16 +10387,16 @@
         </is>
       </c>
       <c r="F74" t="n">
-        <v>2.42</v>
+        <v>2.48</v>
       </c>
       <c r="G74" t="n">
-        <v>2.54</v>
+        <v>2.58</v>
       </c>
       <c r="H74" t="n">
-        <v>3.4</v>
+        <v>3.35</v>
       </c>
       <c r="I74" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="J74" t="n">
         <v>3.15</v>
@@ -10417,7 +10417,7 @@
         <v>1.42</v>
       </c>
       <c r="P74" t="n">
-        <v>1.72</v>
+        <v>1.71</v>
       </c>
       <c r="Q74" t="n">
         <v>2.28</v>
@@ -10435,22 +10435,22 @@
         <v>1.98</v>
       </c>
       <c r="V74" t="n">
-        <v>1.38</v>
+        <v>1.4</v>
       </c>
       <c r="W74" t="n">
-        <v>1.64</v>
+        <v>1.63</v>
       </c>
       <c r="X74" t="n">
         <v>12.5</v>
       </c>
       <c r="Y74" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="Z74" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AA74" t="n">
-        <v>85</v>
+        <v>70</v>
       </c>
       <c r="AB74" t="n">
         <v>9.199999999999999</v>
@@ -10477,7 +10477,7 @@
         <v>65</v>
       </c>
       <c r="AJ74" t="n">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="AK74" t="n">
         <v>32</v>
@@ -10528,10 +10528,10 @@
         <v>2.12</v>
       </c>
       <c r="H75" t="n">
-        <v>3.9</v>
+        <v>4</v>
       </c>
       <c r="I75" t="n">
-        <v>3.95</v>
+        <v>4.1</v>
       </c>
       <c r="J75" t="n">
         <v>3.6</v>
@@ -10543,58 +10543,58 @@
         <v>1.48</v>
       </c>
       <c r="M75" t="n">
-        <v>1.08</v>
+        <v>1.09</v>
       </c>
       <c r="N75" t="n">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="O75" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="P75" t="n">
-        <v>1.81</v>
+        <v>1.78</v>
       </c>
       <c r="Q75" t="n">
-        <v>2.16</v>
+        <v>2.24</v>
       </c>
       <c r="R75" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="S75" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="T75" t="n">
+        <v>2</v>
+      </c>
+      <c r="U75" t="n">
         <v>1.94</v>
       </c>
-      <c r="U75" t="n">
-        <v>2</v>
-      </c>
       <c r="V75" t="n">
-        <v>1.33</v>
+        <v>1.32</v>
       </c>
       <c r="W75" t="n">
         <v>1.89</v>
       </c>
       <c r="X75" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="Y75" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="Z75" t="n">
         <v>27</v>
       </c>
       <c r="AA75" t="n">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="AB75" t="n">
-        <v>8.4</v>
+        <v>8</v>
       </c>
       <c r="AC75" t="n">
         <v>8</v>
       </c>
       <c r="AD75" t="n">
-        <v>16</v>
+        <v>16.5</v>
       </c>
       <c r="AE75" t="n">
         <v>55</v>
@@ -10606,10 +10606,10 @@
         <v>11</v>
       </c>
       <c r="AH75" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AI75" t="n">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="AJ75" t="n">
         <v>26</v>
@@ -10621,13 +10621,13 @@
         <v>44</v>
       </c>
       <c r="AM75" t="n">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="AN75" t="n">
-        <v>19.5</v>
+        <v>20</v>
       </c>
       <c r="AO75" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
     </row>
     <row r="76">
@@ -10657,16 +10657,16 @@
         </is>
       </c>
       <c r="F76" t="n">
-        <v>1.71</v>
+        <v>1.73</v>
       </c>
       <c r="G76" t="n">
         <v>1.82</v>
       </c>
       <c r="H76" t="n">
-        <v>4.7</v>
+        <v>4.5</v>
       </c>
       <c r="I76" t="n">
-        <v>5.4</v>
+        <v>5.2</v>
       </c>
       <c r="J76" t="n">
         <v>4</v>
@@ -10696,7 +10696,7 @@
         <v>1.49</v>
       </c>
       <c r="S76" t="n">
-        <v>2.72</v>
+        <v>2.7</v>
       </c>
       <c r="T76" t="n">
         <v>1.68</v>
@@ -10708,7 +10708,7 @@
         <v>1.24</v>
       </c>
       <c r="W76" t="n">
-        <v>2.2</v>
+        <v>2.18</v>
       </c>
       <c r="X76" t="n">
         <v>24</v>
@@ -10798,7 +10798,7 @@
         <v>10.5</v>
       </c>
       <c r="H77" t="n">
-        <v>1.43</v>
+        <v>1.42</v>
       </c>
       <c r="I77" t="n">
         <v>1.49</v>
@@ -10825,7 +10825,7 @@
         <v>2.02</v>
       </c>
       <c r="Q77" t="n">
-        <v>1.8</v>
+        <v>1.68</v>
       </c>
       <c r="R77" t="n">
         <v>1.4</v>
@@ -10930,7 +10930,7 @@
         <v>2.18</v>
       </c>
       <c r="G78" t="n">
-        <v>2.26</v>
+        <v>2.24</v>
       </c>
       <c r="H78" t="n">
         <v>3.9</v>
@@ -10951,22 +10951,22 @@
         <v>1.09</v>
       </c>
       <c r="N78" t="n">
-        <v>3.15</v>
+        <v>3.2</v>
       </c>
       <c r="O78" t="n">
-        <v>1.4</v>
+        <v>1.41</v>
       </c>
       <c r="P78" t="n">
-        <v>1.74</v>
+        <v>1.76</v>
       </c>
       <c r="Q78" t="n">
-        <v>2.22</v>
+        <v>2.2</v>
       </c>
       <c r="R78" t="n">
         <v>1.28</v>
       </c>
       <c r="S78" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="T78" t="n">
         <v>1.9</v>
@@ -10978,7 +10978,7 @@
         <v>1.33</v>
       </c>
       <c r="W78" t="n">
-        <v>1.8</v>
+        <v>1.81</v>
       </c>
       <c r="X78" t="n">
         <v>12</v>
@@ -11083,7 +11083,7 @@
         <v>1.44</v>
       </c>
       <c r="M79" t="n">
-        <v>1.06</v>
+        <v>1.08</v>
       </c>
       <c r="N79" t="n">
         <v>3.35</v>
@@ -11095,16 +11095,16 @@
         <v>1.8</v>
       </c>
       <c r="Q79" t="n">
-        <v>1.87</v>
+        <v>1.89</v>
       </c>
       <c r="R79" t="n">
         <v>1.3</v>
       </c>
       <c r="S79" t="n">
-        <v>3.9</v>
+        <v>3.85</v>
       </c>
       <c r="T79" t="n">
-        <v>1.92</v>
+        <v>2.08</v>
       </c>
       <c r="U79" t="n">
         <v>1.79</v>
@@ -11203,10 +11203,10 @@
         <v>5.7</v>
       </c>
       <c r="H80" t="n">
-        <v>1.75</v>
+        <v>1.76</v>
       </c>
       <c r="I80" t="n">
-        <v>1.85</v>
+        <v>1.86</v>
       </c>
       <c r="J80" t="n">
         <v>3.65</v>
@@ -11218,7 +11218,7 @@
         <v>1.4</v>
       </c>
       <c r="M80" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="N80" t="n">
         <v>3.6</v>
@@ -11350,7 +11350,7 @@
         <v>4.3</v>
       </c>
       <c r="L81" t="n">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="M81" t="n">
         <v>1.03</v>
@@ -11497,7 +11497,7 @@
         <v>1.22</v>
       </c>
       <c r="P82" t="n">
-        <v>2.24</v>
+        <v>2.32</v>
       </c>
       <c r="Q82" t="n">
         <v>1.68</v>
@@ -11542,7 +11542,7 @@
         <v>15</v>
       </c>
       <c r="AE82" t="n">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="AF82" t="n">
         <v>24</v>
@@ -11569,7 +11569,7 @@
         <v>65</v>
       </c>
       <c r="AN82" t="n">
-        <v>21</v>
+        <v>18.5</v>
       </c>
       <c r="AO82" t="n">
         <v>22</v>
@@ -11740,10 +11740,10 @@
         <v>2.18</v>
       </c>
       <c r="G84" t="n">
-        <v>2.24</v>
+        <v>2.22</v>
       </c>
       <c r="H84" t="n">
-        <v>3.4</v>
+        <v>3.45</v>
       </c>
       <c r="I84" t="n">
         <v>3.6</v>
@@ -11755,7 +11755,7 @@
         <v>3.9</v>
       </c>
       <c r="L84" t="n">
-        <v>1.27</v>
+        <v>1.28</v>
       </c>
       <c r="M84" t="n">
         <v>1.05</v>
@@ -11767,19 +11767,19 @@
         <v>1.23</v>
       </c>
       <c r="P84" t="n">
-        <v>2.22</v>
+        <v>2.24</v>
       </c>
       <c r="Q84" t="n">
         <v>1.73</v>
       </c>
       <c r="R84" t="n">
-        <v>1.49</v>
+        <v>1.5</v>
       </c>
       <c r="S84" t="n">
-        <v>2.62</v>
+        <v>2.68</v>
       </c>
       <c r="T84" t="n">
-        <v>1.63</v>
+        <v>1.6</v>
       </c>
       <c r="U84" t="n">
         <v>2.34</v>
@@ -11788,7 +11788,7 @@
         <v>1.38</v>
       </c>
       <c r="W84" t="n">
-        <v>1.8</v>
+        <v>1.81</v>
       </c>
       <c r="X84" t="n">
         <v>24</v>
@@ -12022,7 +12022,7 @@
         <v>3.4</v>
       </c>
       <c r="K86" t="n">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="L86" t="n">
         <v>1.4</v>
@@ -12142,22 +12142,22 @@
         </is>
       </c>
       <c r="F87" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="G87" t="n">
         <v>1.34</v>
       </c>
-      <c r="G87" t="n">
-        <v>1.35</v>
-      </c>
       <c r="H87" t="n">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="I87" t="n">
         <v>14</v>
       </c>
       <c r="J87" t="n">
-        <v>5.4</v>
+        <v>5.7</v>
       </c>
       <c r="K87" t="n">
-        <v>6.4</v>
+        <v>6.6</v>
       </c>
       <c r="L87" t="n">
         <v>1.23</v>
@@ -12172,16 +12172,16 @@
         <v>1.19</v>
       </c>
       <c r="P87" t="n">
-        <v>2.48</v>
+        <v>2.5</v>
       </c>
       <c r="Q87" t="n">
-        <v>1.57</v>
+        <v>1.54</v>
       </c>
       <c r="R87" t="n">
-        <v>1.59</v>
+        <v>1.6</v>
       </c>
       <c r="S87" t="n">
-        <v>2.38</v>
+        <v>2.4</v>
       </c>
       <c r="T87" t="n">
         <v>1.96</v>
@@ -12193,19 +12193,19 @@
         <v>1.07</v>
       </c>
       <c r="W87" t="n">
-        <v>3.85</v>
+        <v>3.9</v>
       </c>
       <c r="X87" t="n">
         <v>32</v>
       </c>
       <c r="Y87" t="n">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="Z87" t="n">
         <v>130</v>
       </c>
       <c r="AA87" t="n">
-        <v>500</v>
+        <v>460</v>
       </c>
       <c r="AB87" t="n">
         <v>12</v>
@@ -12214,16 +12214,16 @@
         <v>16.5</v>
       </c>
       <c r="AD87" t="n">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="AE87" t="n">
-        <v>210</v>
+        <v>200</v>
       </c>
       <c r="AF87" t="n">
         <v>10.5</v>
       </c>
       <c r="AG87" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AH87" t="n">
         <v>34</v>
@@ -12238,16 +12238,16 @@
         <v>17.5</v>
       </c>
       <c r="AL87" t="n">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="AM87" t="n">
-        <v>180</v>
+        <v>170</v>
       </c>
       <c r="AN87" t="n">
-        <v>5.7</v>
+        <v>4.9</v>
       </c>
       <c r="AO87" t="n">
-        <v>260</v>
+        <v>240</v>
       </c>
     </row>
     <row r="88">
@@ -12277,7 +12277,7 @@
         </is>
       </c>
       <c r="F88" t="n">
-        <v>1.66</v>
+        <v>1.69</v>
       </c>
       <c r="G88" t="n">
         <v>1.74</v>
@@ -12295,7 +12295,7 @@
         <v>4.2</v>
       </c>
       <c r="L88" t="n">
-        <v>1.41</v>
+        <v>1.42</v>
       </c>
       <c r="M88" t="n">
         <v>1.07</v>
@@ -12310,7 +12310,7 @@
         <v>1.91</v>
       </c>
       <c r="Q88" t="n">
-        <v>1.95</v>
+        <v>1.94</v>
       </c>
       <c r="R88" t="n">
         <v>1.34</v>
@@ -12322,7 +12322,7 @@
         <v>1.91</v>
       </c>
       <c r="U88" t="n">
-        <v>1.92</v>
+        <v>1.95</v>
       </c>
       <c r="V88" t="n">
         <v>1.18</v>
@@ -12412,16 +12412,16 @@
         </is>
       </c>
       <c r="F89" t="n">
-        <v>1.28</v>
+        <v>1.29</v>
       </c>
       <c r="G89" t="n">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="H89" t="n">
         <v>11</v>
       </c>
       <c r="I89" t="n">
-        <v>13.5</v>
+        <v>11.5</v>
       </c>
       <c r="J89" t="n">
         <v>6.2</v>
@@ -12433,10 +12433,10 @@
         <v>1.19</v>
       </c>
       <c r="M89" t="n">
-        <v>1.02</v>
+        <v>1.01</v>
       </c>
       <c r="N89" t="n">
-        <v>6.4</v>
+        <v>6.8</v>
       </c>
       <c r="O89" t="n">
         <v>1.13</v>
@@ -12460,13 +12460,13 @@
         <v>2</v>
       </c>
       <c r="V89" t="n">
-        <v>1.08</v>
+        <v>1.09</v>
       </c>
       <c r="W89" t="n">
         <v>4</v>
       </c>
       <c r="X89" t="n">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="Y89" t="n">
         <v>50</v>
@@ -12499,7 +12499,7 @@
         <v>29</v>
       </c>
       <c r="AI89" t="n">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="AJ89" t="n">
         <v>970</v>
@@ -12514,10 +12514,10 @@
         <v>1000</v>
       </c>
       <c r="AN89" t="n">
-        <v>4.8</v>
+        <v>3.85</v>
       </c>
       <c r="AO89" t="n">
-        <v>170</v>
+        <v>160</v>
       </c>
     </row>
     <row r="90">
@@ -12547,25 +12547,25 @@
         </is>
       </c>
       <c r="F90" t="n">
-        <v>2</v>
+        <v>2.06</v>
       </c>
       <c r="G90" t="n">
-        <v>2.04</v>
+        <v>2.08</v>
       </c>
       <c r="H90" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="I90" t="n">
-        <v>4.4</v>
+        <v>4.3</v>
       </c>
       <c r="J90" t="n">
         <v>3.6</v>
       </c>
       <c r="K90" t="n">
-        <v>3.7</v>
+        <v>3.65</v>
       </c>
       <c r="L90" t="n">
-        <v>1.35</v>
+        <v>1.41</v>
       </c>
       <c r="M90" t="n">
         <v>1.09</v>
@@ -12577,10 +12577,10 @@
         <v>1.36</v>
       </c>
       <c r="P90" t="n">
-        <v>1.88</v>
+        <v>1.87</v>
       </c>
       <c r="Q90" t="n">
-        <v>2.06</v>
+        <v>2.08</v>
       </c>
       <c r="R90" t="n">
         <v>1.33</v>
@@ -12589,22 +12589,22 @@
         <v>3.75</v>
       </c>
       <c r="T90" t="n">
-        <v>1.89</v>
+        <v>1.9</v>
       </c>
       <c r="U90" t="n">
         <v>2.04</v>
       </c>
       <c r="V90" t="n">
-        <v>1.29</v>
+        <v>1.31</v>
       </c>
       <c r="W90" t="n">
-        <v>1.96</v>
+        <v>1.93</v>
       </c>
       <c r="X90" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="Y90" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="Z90" t="n">
         <v>32</v>
@@ -12646,7 +12646,7 @@
         <v>40</v>
       </c>
       <c r="AM90" t="n">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="AN90" t="n">
         <v>16</v>
@@ -12691,7 +12691,7 @@
         <v>2.76</v>
       </c>
       <c r="I91" t="n">
-        <v>2.82</v>
+        <v>2.78</v>
       </c>
       <c r="J91" t="n">
         <v>3.4</v>
@@ -12700,7 +12700,7 @@
         <v>3.45</v>
       </c>
       <c r="L91" t="n">
-        <v>1.42</v>
+        <v>1.44</v>
       </c>
       <c r="M91" t="n">
         <v>1.08</v>
@@ -12712,7 +12712,7 @@
         <v>1.36</v>
       </c>
       <c r="P91" t="n">
-        <v>1.89</v>
+        <v>1.87</v>
       </c>
       <c r="Q91" t="n">
         <v>2.1</v>
@@ -12727,10 +12727,10 @@
         <v>1.82</v>
       </c>
       <c r="U91" t="n">
-        <v>2.14</v>
+        <v>2.12</v>
       </c>
       <c r="V91" t="n">
-        <v>1.54</v>
+        <v>1.56</v>
       </c>
       <c r="W91" t="n">
         <v>1.52</v>
@@ -12757,7 +12757,7 @@
         <v>12.5</v>
       </c>
       <c r="AE91" t="n">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="AF91" t="n">
         <v>18</v>
@@ -12787,7 +12787,7 @@
         <v>30</v>
       </c>
       <c r="AO91" t="n">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="92">
@@ -12817,25 +12817,25 @@
         </is>
       </c>
       <c r="F92" t="n">
-        <v>3.05</v>
+        <v>3.1</v>
       </c>
       <c r="G92" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="H92" t="n">
-        <v>2.64</v>
+        <v>2.66</v>
       </c>
       <c r="I92" t="n">
-        <v>2.8</v>
+        <v>2.78</v>
       </c>
       <c r="J92" t="n">
-        <v>3.15</v>
+        <v>3.1</v>
       </c>
       <c r="K92" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="L92" t="n">
-        <v>1.48</v>
+        <v>1.47</v>
       </c>
       <c r="M92" t="n">
         <v>1.1</v>
@@ -12847,16 +12847,16 @@
         <v>1.42</v>
       </c>
       <c r="P92" t="n">
-        <v>1.68</v>
+        <v>1.69</v>
       </c>
       <c r="Q92" t="n">
-        <v>2.26</v>
+        <v>2.28</v>
       </c>
       <c r="R92" t="n">
         <v>1.25</v>
       </c>
       <c r="S92" t="n">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="T92" t="n">
         <v>1.86</v>
@@ -12865,19 +12865,19 @@
         <v>1.96</v>
       </c>
       <c r="V92" t="n">
-        <v>1.55</v>
+        <v>1.56</v>
       </c>
       <c r="W92" t="n">
-        <v>1.43</v>
+        <v>1.44</v>
       </c>
       <c r="X92" t="n">
-        <v>11.5</v>
+        <v>10.5</v>
       </c>
       <c r="Y92" t="n">
         <v>9.6</v>
       </c>
       <c r="Z92" t="n">
-        <v>17</v>
+        <v>16.5</v>
       </c>
       <c r="AA92" t="n">
         <v>42</v>
@@ -12886,19 +12886,19 @@
         <v>11</v>
       </c>
       <c r="AC92" t="n">
-        <v>7.6</v>
+        <v>7.2</v>
       </c>
       <c r="AD92" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AE92" t="n">
         <v>34</v>
       </c>
       <c r="AF92" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AG92" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="AH92" t="n">
         <v>970</v>
@@ -12907,19 +12907,19 @@
         <v>55</v>
       </c>
       <c r="AJ92" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AK92" t="n">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="AL92" t="n">
         <v>60</v>
       </c>
       <c r="AM92" t="n">
-        <v>150</v>
+        <v>140</v>
       </c>
       <c r="AN92" t="n">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="AO92" t="n">
         <v>34</v>
@@ -12955,10 +12955,10 @@
         <v>1.42</v>
       </c>
       <c r="G93" t="n">
-        <v>1.52</v>
+        <v>1.51</v>
       </c>
       <c r="H93" t="n">
-        <v>2.92</v>
+        <v>6</v>
       </c>
       <c r="I93" t="n">
         <v>24</v>
@@ -12976,7 +12976,7 @@
         <v>0</v>
       </c>
       <c r="N93" t="n">
-        <v>3.9</v>
+        <v>3.95</v>
       </c>
       <c r="O93" t="n">
         <v>1.27</v>
@@ -13105,7 +13105,7 @@
         <v>7.4</v>
       </c>
       <c r="L94" t="n">
-        <v>1.21</v>
+        <v>1.2</v>
       </c>
       <c r="M94" t="n">
         <v>1.01</v>
@@ -13126,7 +13126,7 @@
         <v>1.73</v>
       </c>
       <c r="S94" t="n">
-        <v>1.99</v>
+        <v>2.04</v>
       </c>
       <c r="T94" t="n">
         <v>1.89</v>
@@ -13225,7 +13225,7 @@
         <v>1.99</v>
       </c>
       <c r="G95" t="n">
-        <v>2.22</v>
+        <v>2.18</v>
       </c>
       <c r="H95" t="n">
         <v>3.55</v>
@@ -13357,19 +13357,19 @@
         </is>
       </c>
       <c r="F96" t="n">
-        <v>1.61</v>
+        <v>1.62</v>
       </c>
       <c r="G96" t="n">
-        <v>1.7</v>
+        <v>1.72</v>
       </c>
       <c r="H96" t="n">
         <v>5.8</v>
       </c>
       <c r="I96" t="n">
-        <v>7.2</v>
+        <v>7</v>
       </c>
       <c r="J96" t="n">
-        <v>4</v>
+        <v>3.95</v>
       </c>
       <c r="K96" t="n">
         <v>4.5</v>
@@ -13396,19 +13396,19 @@
         <v>1.37</v>
       </c>
       <c r="S96" t="n">
-        <v>3.1</v>
+        <v>3.15</v>
       </c>
       <c r="T96" t="n">
-        <v>1.86</v>
+        <v>1.84</v>
       </c>
       <c r="U96" t="n">
         <v>1.92</v>
       </c>
       <c r="V96" t="n">
-        <v>1.16</v>
+        <v>1.17</v>
       </c>
       <c r="W96" t="n">
-        <v>2.42</v>
+        <v>2.38</v>
       </c>
       <c r="X96" t="n">
         <v>19.5</v>
@@ -13417,10 +13417,10 @@
         <v>25</v>
       </c>
       <c r="Z96" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="AA96" t="n">
-        <v>210</v>
+        <v>200</v>
       </c>
       <c r="AB96" t="n">
         <v>10.5</v>
@@ -13444,7 +13444,7 @@
         <v>26</v>
       </c>
       <c r="AI96" t="n">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="AJ96" t="n">
         <v>19.5</v>
@@ -13462,7 +13462,7 @@
         <v>11.5</v>
       </c>
       <c r="AO96" t="n">
-        <v>140</v>
+        <v>130</v>
       </c>
     </row>
     <row r="97">
@@ -13627,22 +13627,22 @@
         </is>
       </c>
       <c r="F98" t="n">
-        <v>1.19</v>
+        <v>1.16</v>
       </c>
       <c r="G98" t="n">
-        <v>1.26</v>
+        <v>1.22</v>
       </c>
       <c r="H98" t="n">
-        <v>1.04</v>
+        <v>1.09</v>
       </c>
       <c r="I98" t="n">
-        <v>42</v>
+        <v>60</v>
       </c>
       <c r="J98" t="n">
-        <v>5.5</v>
+        <v>5.8</v>
       </c>
       <c r="K98" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="L98" t="n">
         <v>1.28</v>
@@ -13657,34 +13657,34 @@
         <v>1.27</v>
       </c>
       <c r="P98" t="n">
-        <v>1.9</v>
+        <v>1.98</v>
       </c>
       <c r="Q98" t="n">
-        <v>1.65</v>
+        <v>1.73</v>
       </c>
       <c r="R98" t="n">
         <v>1.39</v>
       </c>
       <c r="S98" t="n">
-        <v>2.68</v>
+        <v>2.66</v>
       </c>
       <c r="T98" t="n">
-        <v>2.68</v>
+        <v>2.72</v>
       </c>
       <c r="U98" t="n">
-        <v>1.43</v>
+        <v>1.38</v>
       </c>
       <c r="V98" t="n">
         <v>1.03</v>
       </c>
       <c r="W98" t="n">
-        <v>4.7</v>
+        <v>5</v>
       </c>
       <c r="X98" t="n">
         <v>24</v>
       </c>
       <c r="Y98" t="n">
-        <v>65</v>
+        <v>80</v>
       </c>
       <c r="Z98" t="n">
         <v>1000</v>
@@ -13693,10 +13693,10 @@
         <v>1000</v>
       </c>
       <c r="AB98" t="n">
-        <v>8.4</v>
+        <v>970</v>
       </c>
       <c r="AC98" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AD98" t="n">
         <v>1000</v>
@@ -13705,31 +13705,31 @@
         <v>1000</v>
       </c>
       <c r="AF98" t="n">
-        <v>7.6</v>
+        <v>970</v>
       </c>
       <c r="AG98" t="n">
-        <v>15.5</v>
+        <v>970</v>
       </c>
       <c r="AH98" t="n">
-        <v>75</v>
+        <v>90</v>
       </c>
       <c r="AI98" t="n">
         <v>1000</v>
       </c>
       <c r="AJ98" t="n">
-        <v>9.6</v>
+        <v>970</v>
       </c>
       <c r="AK98" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AL98" t="n">
-        <v>85</v>
+        <v>110</v>
       </c>
       <c r="AM98" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="AN98" t="n">
-        <v>5.9</v>
+        <v>5.6</v>
       </c>
       <c r="AO98" t="n">
         <v>1000</v>
@@ -13765,13 +13765,13 @@
         <v>2.08</v>
       </c>
       <c r="G99" t="n">
-        <v>2.4</v>
+        <v>2.42</v>
       </c>
       <c r="H99" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="I99" t="n">
-        <v>4.6</v>
+        <v>5</v>
       </c>
       <c r="J99" t="n">
         <v>2.98</v>
@@ -13921,13 +13921,13 @@
         <v>1.08</v>
       </c>
       <c r="N100" t="n">
-        <v>2.82</v>
+        <v>3.15</v>
       </c>
       <c r="O100" t="n">
-        <v>1.38</v>
+        <v>1.37</v>
       </c>
       <c r="P100" t="n">
-        <v>1.72</v>
+        <v>1.73</v>
       </c>
       <c r="Q100" t="n">
         <v>2.1</v>
@@ -13936,19 +13936,19 @@
         <v>1.27</v>
       </c>
       <c r="S100" t="n">
-        <v>3.5</v>
+        <v>3.85</v>
       </c>
       <c r="T100" t="n">
         <v>1.96</v>
       </c>
       <c r="U100" t="n">
-        <v>1.81</v>
+        <v>1.83</v>
       </c>
       <c r="V100" t="n">
         <v>2.12</v>
       </c>
       <c r="W100" t="n">
-        <v>1.2</v>
+        <v>1.19</v>
       </c>
       <c r="X100" t="n">
         <v>970</v>
@@ -14032,22 +14032,22 @@
         </is>
       </c>
       <c r="F101" t="n">
-        <v>1.64</v>
+        <v>1.65</v>
       </c>
       <c r="G101" t="n">
         <v>1.66</v>
       </c>
       <c r="H101" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="I101" t="n">
         <v>5.4</v>
-      </c>
-      <c r="I101" t="n">
-        <v>5.6</v>
       </c>
       <c r="J101" t="n">
         <v>4.7</v>
       </c>
       <c r="K101" t="n">
-        <v>4.8</v>
+        <v>4.9</v>
       </c>
       <c r="L101" t="n">
         <v>1.22</v>
@@ -14080,7 +14080,7 @@
         <v>2.54</v>
       </c>
       <c r="V101" t="n">
-        <v>1.21</v>
+        <v>1.22</v>
       </c>
       <c r="W101" t="n">
         <v>2.5</v>
@@ -14173,10 +14173,10 @@
         <v>2.74</v>
       </c>
       <c r="H102" t="n">
-        <v>2.94</v>
+        <v>2.98</v>
       </c>
       <c r="I102" t="n">
-        <v>2.98</v>
+        <v>3</v>
       </c>
       <c r="J102" t="n">
         <v>3.35</v>
@@ -14185,28 +14185,28 @@
         <v>3.4</v>
       </c>
       <c r="L102" t="n">
-        <v>1.46</v>
+        <v>1.47</v>
       </c>
       <c r="M102" t="n">
         <v>1.08</v>
       </c>
       <c r="N102" t="n">
-        <v>3.5</v>
+        <v>3.55</v>
       </c>
       <c r="O102" t="n">
         <v>1.38</v>
       </c>
       <c r="P102" t="n">
-        <v>1.82</v>
+        <v>1.84</v>
       </c>
       <c r="Q102" t="n">
-        <v>2.18</v>
+        <v>2.16</v>
       </c>
       <c r="R102" t="n">
         <v>1.32</v>
       </c>
       <c r="S102" t="n">
-        <v>4</v>
+        <v>3.95</v>
       </c>
       <c r="T102" t="n">
         <v>1.86</v>
@@ -14215,7 +14215,7 @@
         <v>2.1</v>
       </c>
       <c r="V102" t="n">
-        <v>1.51</v>
+        <v>1.5</v>
       </c>
       <c r="W102" t="n">
         <v>1.57</v>
@@ -14233,7 +14233,7 @@
         <v>46</v>
       </c>
       <c r="AB102" t="n">
-        <v>10</v>
+        <v>10.5</v>
       </c>
       <c r="AC102" t="n">
         <v>7.2</v>
@@ -14260,19 +14260,19 @@
         <v>40</v>
       </c>
       <c r="AK102" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AL102" t="n">
         <v>46</v>
       </c>
       <c r="AM102" t="n">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="AN102" t="n">
         <v>29</v>
       </c>
       <c r="AO102" t="n">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="103">
@@ -14302,22 +14302,22 @@
         </is>
       </c>
       <c r="F103" t="n">
-        <v>1.44</v>
+        <v>1.38</v>
       </c>
       <c r="G103" t="n">
-        <v>1.53</v>
+        <v>1.75</v>
       </c>
       <c r="H103" t="n">
-        <v>2.88</v>
+        <v>6.6</v>
       </c>
       <c r="I103" t="n">
         <v>15</v>
       </c>
       <c r="J103" t="n">
-        <v>3.95</v>
+        <v>3.65</v>
       </c>
       <c r="K103" t="n">
-        <v>5.4</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="L103" t="n">
         <v>0</v>
@@ -14326,7 +14326,7 @@
         <v>0</v>
       </c>
       <c r="N103" t="n">
-        <v>3.4</v>
+        <v>1.1</v>
       </c>
       <c r="O103" t="n">
         <v>1.35</v>
@@ -14437,22 +14437,22 @@
         </is>
       </c>
       <c r="F104" t="n">
-        <v>1.67</v>
+        <v>1.69</v>
       </c>
       <c r="G104" t="n">
-        <v>1.85</v>
+        <v>1.82</v>
       </c>
       <c r="H104" t="n">
-        <v>5.2</v>
+        <v>5.4</v>
       </c>
       <c r="I104" t="n">
-        <v>6.6</v>
+        <v>6.4</v>
       </c>
       <c r="J104" t="n">
-        <v>3.6</v>
+        <v>3.35</v>
       </c>
       <c r="K104" t="n">
-        <v>4.3</v>
+        <v>4.2</v>
       </c>
       <c r="L104" t="n">
         <v>1.35</v>
@@ -14464,31 +14464,31 @@
         <v>3.4</v>
       </c>
       <c r="O104" t="n">
-        <v>1.33</v>
+        <v>1.34</v>
       </c>
       <c r="P104" t="n">
-        <v>1.82</v>
+        <v>1.83</v>
       </c>
       <c r="Q104" t="n">
-        <v>1.98</v>
+        <v>1.99</v>
       </c>
       <c r="R104" t="n">
         <v>1.31</v>
       </c>
       <c r="S104" t="n">
-        <v>3.6</v>
+        <v>3.55</v>
       </c>
       <c r="T104" t="n">
-        <v>1.92</v>
+        <v>1.9</v>
       </c>
       <c r="U104" t="n">
         <v>1.87</v>
       </c>
       <c r="V104" t="n">
-        <v>1.18</v>
+        <v>1.2</v>
       </c>
       <c r="W104" t="n">
-        <v>2.16</v>
+        <v>2.2</v>
       </c>
       <c r="X104" t="n">
         <v>970</v>
@@ -14500,7 +14500,7 @@
         <v>60</v>
       </c>
       <c r="AA104" t="n">
-        <v>210</v>
+        <v>200</v>
       </c>
       <c r="AB104" t="n">
         <v>9.4</v>
@@ -14509,7 +14509,7 @@
         <v>10.5</v>
       </c>
       <c r="AD104" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AE104" t="n">
         <v>110</v>
@@ -14518,7 +14518,7 @@
         <v>12.5</v>
       </c>
       <c r="AG104" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="AH104" t="n">
         <v>27</v>
@@ -14572,7 +14572,7 @@
         </is>
       </c>
       <c r="F105" t="n">
-        <v>1.6</v>
+        <v>1.62</v>
       </c>
       <c r="G105" t="n">
         <v>1.65</v>
@@ -14605,7 +14605,7 @@
         <v>2.3</v>
       </c>
       <c r="Q105" t="n">
-        <v>1.67</v>
+        <v>1.66</v>
       </c>
       <c r="R105" t="n">
         <v>1.52</v>
@@ -14674,7 +14674,7 @@
         <v>110</v>
       </c>
       <c r="AN105" t="n">
-        <v>8.800000000000001</v>
+        <v>7.8</v>
       </c>
       <c r="AO105" t="n">
         <v>90</v>
@@ -14707,10 +14707,10 @@
         </is>
       </c>
       <c r="F106" t="n">
+        <v>2.64</v>
+      </c>
+      <c r="G106" t="n">
         <v>2.68</v>
-      </c>
-      <c r="G106" t="n">
-        <v>2.7</v>
       </c>
       <c r="H106" t="n">
         <v>3.2</v>
@@ -14719,13 +14719,13 @@
         <v>3.3</v>
       </c>
       <c r="J106" t="n">
-        <v>3.1</v>
+        <v>3.15</v>
       </c>
       <c r="K106" t="n">
-        <v>3.15</v>
+        <v>3.2</v>
       </c>
       <c r="L106" t="n">
-        <v>1.54</v>
+        <v>1.46</v>
       </c>
       <c r="M106" t="n">
         <v>1.12</v>
@@ -14755,10 +14755,10 @@
         <v>1.85</v>
       </c>
       <c r="V106" t="n">
-        <v>1.43</v>
+        <v>1.44</v>
       </c>
       <c r="W106" t="n">
-        <v>1.58</v>
+        <v>1.59</v>
       </c>
       <c r="X106" t="n">
         <v>8.800000000000001</v>
@@ -14812,7 +14812,7 @@
         <v>42</v>
       </c>
       <c r="AO106" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
     </row>
     <row r="107">
@@ -14845,7 +14845,7 @@
         <v>1.99</v>
       </c>
       <c r="G107" t="n">
-        <v>2.16</v>
+        <v>2.14</v>
       </c>
       <c r="H107" t="n">
         <v>3.9</v>
@@ -14860,7 +14860,7 @@
         <v>3.75</v>
       </c>
       <c r="L107" t="n">
-        <v>1.43</v>
+        <v>1.41</v>
       </c>
       <c r="M107" t="n">
         <v>1.08</v>
@@ -14872,10 +14872,10 @@
         <v>1.34</v>
       </c>
       <c r="P107" t="n">
-        <v>1.79</v>
+        <v>1.85</v>
       </c>
       <c r="Q107" t="n">
-        <v>2.02</v>
+        <v>2.04</v>
       </c>
       <c r="R107" t="n">
         <v>1.31</v>
@@ -14884,7 +14884,7 @@
         <v>3.55</v>
       </c>
       <c r="T107" t="n">
-        <v>1.84</v>
+        <v>1.83</v>
       </c>
       <c r="U107" t="n">
         <v>2</v>
@@ -14977,19 +14977,19 @@
         </is>
       </c>
       <c r="F108" t="n">
-        <v>2.46</v>
+        <v>2.48</v>
       </c>
       <c r="G108" t="n">
-        <v>2.56</v>
+        <v>2.58</v>
       </c>
       <c r="H108" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="I108" t="n">
-        <v>3.2</v>
+        <v>3.15</v>
       </c>
       <c r="J108" t="n">
-        <v>3.45</v>
+        <v>3.5</v>
       </c>
       <c r="K108" t="n">
         <v>3.6</v>
@@ -15010,13 +15010,13 @@
         <v>1.92</v>
       </c>
       <c r="Q108" t="n">
-        <v>1.98</v>
+        <v>1.99</v>
       </c>
       <c r="R108" t="n">
         <v>1.35</v>
       </c>
       <c r="S108" t="n">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="T108" t="n">
         <v>1.76</v>
@@ -15028,7 +15028,7 @@
         <v>1.46</v>
       </c>
       <c r="W108" t="n">
-        <v>1.64</v>
+        <v>1.63</v>
       </c>
       <c r="X108" t="n">
         <v>13.5</v>
@@ -15040,7 +15040,7 @@
         <v>21</v>
       </c>
       <c r="AA108" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AB108" t="n">
         <v>11</v>
@@ -15058,16 +15058,16 @@
         <v>16.5</v>
       </c>
       <c r="AG108" t="n">
-        <v>11.5</v>
+        <v>12</v>
       </c>
       <c r="AH108" t="n">
         <v>17.5</v>
       </c>
       <c r="AI108" t="n">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="AJ108" t="n">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="AK108" t="n">
         <v>28</v>
@@ -15079,7 +15079,7 @@
         <v>95</v>
       </c>
       <c r="AN108" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="AO108" t="n">
         <v>32</v>
@@ -15118,7 +15118,7 @@
         <v>2.44</v>
       </c>
       <c r="H109" t="n">
-        <v>3.35</v>
+        <v>3.4</v>
       </c>
       <c r="I109" t="n">
         <v>3.55</v>
@@ -15127,7 +15127,7 @@
         <v>3.25</v>
       </c>
       <c r="K109" t="n">
-        <v>3.4</v>
+        <v>3.35</v>
       </c>
       <c r="L109" t="n">
         <v>1.37</v>
@@ -15142,22 +15142,22 @@
         <v>1.28</v>
       </c>
       <c r="P109" t="n">
-        <v>2.08</v>
+        <v>2.04</v>
       </c>
       <c r="Q109" t="n">
         <v>1.85</v>
       </c>
       <c r="R109" t="n">
-        <v>1.42</v>
+        <v>1.43</v>
       </c>
       <c r="S109" t="n">
-        <v>3.05</v>
+        <v>2.48</v>
       </c>
       <c r="T109" t="n">
         <v>1.66</v>
       </c>
       <c r="U109" t="n">
-        <v>2.36</v>
+        <v>2.34</v>
       </c>
       <c r="V109" t="n">
         <v>1.39</v>
@@ -15178,7 +15178,7 @@
         <v>60</v>
       </c>
       <c r="AB109" t="n">
-        <v>12</v>
+        <v>970</v>
       </c>
       <c r="AC109" t="n">
         <v>8</v>
@@ -15187,7 +15187,7 @@
         <v>14</v>
       </c>
       <c r="AE109" t="n">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="AF109" t="n">
         <v>16.5</v>
@@ -15196,7 +15196,7 @@
         <v>12</v>
       </c>
       <c r="AH109" t="n">
-        <v>15</v>
+        <v>17.5</v>
       </c>
       <c r="AI109" t="n">
         <v>46</v>
@@ -15250,16 +15250,16 @@
         <v>1.78</v>
       </c>
       <c r="G110" t="n">
-        <v>1.82</v>
+        <v>1.83</v>
       </c>
       <c r="H110" t="n">
-        <v>5.6</v>
+        <v>5.5</v>
       </c>
       <c r="I110" t="n">
-        <v>6.4</v>
+        <v>6.2</v>
       </c>
       <c r="J110" t="n">
-        <v>3.6</v>
+        <v>3.55</v>
       </c>
       <c r="K110" t="n">
         <v>3.9</v>
@@ -15289,10 +15289,10 @@
         <v>4</v>
       </c>
       <c r="T110" t="n">
-        <v>2.04</v>
+        <v>2.02</v>
       </c>
       <c r="U110" t="n">
-        <v>1.85</v>
+        <v>1.84</v>
       </c>
       <c r="V110" t="n">
         <v>1.19</v>
@@ -15304,25 +15304,25 @@
         <v>12.5</v>
       </c>
       <c r="Y110" t="n">
-        <v>19.5</v>
+        <v>19</v>
       </c>
       <c r="Z110" t="n">
         <v>46</v>
       </c>
       <c r="AA110" t="n">
-        <v>210</v>
+        <v>200</v>
       </c>
       <c r="AB110" t="n">
         <v>7.4</v>
       </c>
       <c r="AC110" t="n">
-        <v>9.800000000000001</v>
+        <v>9.6</v>
       </c>
       <c r="AD110" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AE110" t="n">
-        <v>120</v>
+        <v>95</v>
       </c>
       <c r="AF110" t="n">
         <v>11</v>
@@ -15382,7 +15382,7 @@
         </is>
       </c>
       <c r="F111" t="n">
-        <v>2.38</v>
+        <v>2.4</v>
       </c>
       <c r="G111" t="n">
         <v>2.42</v>
@@ -15394,7 +15394,7 @@
         <v>3.45</v>
       </c>
       <c r="J111" t="n">
-        <v>3.35</v>
+        <v>3.4</v>
       </c>
       <c r="K111" t="n">
         <v>3.45</v>
@@ -15415,7 +15415,7 @@
         <v>1.73</v>
       </c>
       <c r="Q111" t="n">
-        <v>2.34</v>
+        <v>2.32</v>
       </c>
       <c r="R111" t="n">
         <v>1.26</v>
@@ -15427,7 +15427,7 @@
         <v>2</v>
       </c>
       <c r="U111" t="n">
-        <v>1.94</v>
+        <v>1.96</v>
       </c>
       <c r="V111" t="n">
         <v>1.4</v>
@@ -15448,7 +15448,7 @@
         <v>65</v>
       </c>
       <c r="AB111" t="n">
-        <v>8.4</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AC111" t="n">
         <v>7.2</v>
@@ -15517,7 +15517,7 @@
         </is>
       </c>
       <c r="F112" t="n">
-        <v>1.51</v>
+        <v>1.5</v>
       </c>
       <c r="G112" t="n">
         <v>1.55</v>
@@ -15532,7 +15532,7 @@
         <v>4.2</v>
       </c>
       <c r="K112" t="n">
-        <v>4.7</v>
+        <v>4.6</v>
       </c>
       <c r="L112" t="n">
         <v>1.4</v>
@@ -15550,7 +15550,7 @@
         <v>1.9</v>
       </c>
       <c r="Q112" t="n">
-        <v>1.95</v>
+        <v>1.96</v>
       </c>
       <c r="R112" t="n">
         <v>1.34</v>
@@ -15559,7 +15559,7 @@
         <v>3.45</v>
       </c>
       <c r="T112" t="n">
-        <v>2.04</v>
+        <v>2.08</v>
       </c>
       <c r="U112" t="n">
         <v>1.76</v>
@@ -15652,55 +15652,55 @@
         </is>
       </c>
       <c r="F113" t="n">
-        <v>2.94</v>
+        <v>2.86</v>
       </c>
       <c r="G113" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="H113" t="n">
-        <v>2.42</v>
+        <v>2.44</v>
       </c>
       <c r="I113" t="n">
-        <v>2.7</v>
+        <v>2.68</v>
       </c>
       <c r="J113" t="n">
-        <v>3.15</v>
+        <v>3.4</v>
       </c>
       <c r="K113" t="n">
         <v>3.8</v>
       </c>
       <c r="L113" t="n">
-        <v>1.01</v>
+        <v>1.4</v>
       </c>
       <c r="M113" t="n">
         <v>1.06</v>
       </c>
       <c r="N113" t="n">
-        <v>3.35</v>
+        <v>3.8</v>
       </c>
       <c r="O113" t="n">
-        <v>1.32</v>
+        <v>1.3</v>
       </c>
       <c r="P113" t="n">
-        <v>1.84</v>
+        <v>1.99</v>
       </c>
       <c r="Q113" t="n">
-        <v>1.88</v>
+        <v>1.86</v>
       </c>
       <c r="R113" t="n">
-        <v>1.35</v>
+        <v>1.37</v>
       </c>
       <c r="S113" t="n">
         <v>3.2</v>
       </c>
       <c r="T113" t="n">
-        <v>1.69</v>
+        <v>1.72</v>
       </c>
       <c r="U113" t="n">
-        <v>2.14</v>
+        <v>2.2</v>
       </c>
       <c r="V113" t="n">
-        <v>1.59</v>
+        <v>1.6</v>
       </c>
       <c r="W113" t="n">
         <v>1.45</v>
@@ -15730,10 +15730,10 @@
         <v>32</v>
       </c>
       <c r="AF113" t="n">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="AG113" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="AH113" t="n">
         <v>20</v>
@@ -15745,7 +15745,7 @@
         <v>60</v>
       </c>
       <c r="AK113" t="n">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="AL113" t="n">
         <v>55</v>
@@ -15787,58 +15787,58 @@
         </is>
       </c>
       <c r="F114" t="n">
-        <v>2.72</v>
+        <v>3.05</v>
       </c>
       <c r="G114" t="n">
-        <v>3.05</v>
+        <v>3.3</v>
       </c>
       <c r="H114" t="n">
-        <v>2.34</v>
+        <v>2.32</v>
       </c>
       <c r="I114" t="n">
-        <v>2.56</v>
+        <v>2.48</v>
       </c>
       <c r="J114" t="n">
-        <v>3.75</v>
+        <v>3.7</v>
       </c>
       <c r="K114" t="n">
-        <v>4.3</v>
+        <v>4.1</v>
       </c>
       <c r="L114" t="n">
         <v>1.24</v>
       </c>
       <c r="M114" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="N114" t="n">
-        <v>5.2</v>
+        <v>5.5</v>
       </c>
       <c r="O114" t="n">
         <v>1.19</v>
       </c>
       <c r="P114" t="n">
-        <v>2.48</v>
+        <v>2.54</v>
       </c>
       <c r="Q114" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="R114" t="n">
-        <v>1.59</v>
+        <v>1.62</v>
       </c>
       <c r="S114" t="n">
-        <v>2.4</v>
+        <v>2.24</v>
       </c>
       <c r="T114" t="n">
-        <v>1.53</v>
+        <v>1.48</v>
       </c>
       <c r="U114" t="n">
-        <v>2.56</v>
+        <v>2.62</v>
       </c>
       <c r="V114" t="n">
-        <v>1.64</v>
+        <v>1.68</v>
       </c>
       <c r="W114" t="n">
-        <v>1.48</v>
+        <v>1.44</v>
       </c>
       <c r="X114" t="n">
         <v>28</v>
@@ -15871,25 +15871,25 @@
         <v>16</v>
       </c>
       <c r="AH114" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AI114" t="n">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="AJ114" t="n">
         <v>55</v>
       </c>
       <c r="AK114" t="n">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="AL114" t="n">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="AM114" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="AN114" t="n">
-        <v>21</v>
+        <v>19.5</v>
       </c>
       <c r="AO114" t="n">
         <v>15</v>
@@ -15922,7 +15922,7 @@
         </is>
       </c>
       <c r="F115" t="n">
-        <v>2.22</v>
+        <v>2.26</v>
       </c>
       <c r="G115" t="n">
         <v>2.36</v>
@@ -15931,7 +15931,7 @@
         <v>3.7</v>
       </c>
       <c r="I115" t="n">
-        <v>3.95</v>
+        <v>3.9</v>
       </c>
       <c r="J115" t="n">
         <v>3.2</v>
@@ -15952,7 +15952,7 @@
         <v>1.41</v>
       </c>
       <c r="P115" t="n">
-        <v>1.72</v>
+        <v>1.77</v>
       </c>
       <c r="Q115" t="n">
         <v>2.2</v>
@@ -15961,16 +15961,16 @@
         <v>1.27</v>
       </c>
       <c r="S115" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="T115" t="n">
-        <v>1.89</v>
+        <v>1.86</v>
       </c>
       <c r="U115" t="n">
         <v>1.96</v>
       </c>
       <c r="V115" t="n">
-        <v>1.33</v>
+        <v>1.34</v>
       </c>
       <c r="W115" t="n">
         <v>1.73</v>
@@ -16060,7 +16060,7 @@
         <v>2.22</v>
       </c>
       <c r="G116" t="n">
-        <v>2.36</v>
+        <v>2.32</v>
       </c>
       <c r="H116" t="n">
         <v>3.9</v>
@@ -16069,10 +16069,10 @@
         <v>4.1</v>
       </c>
       <c r="J116" t="n">
-        <v>3.15</v>
+        <v>3.2</v>
       </c>
       <c r="K116" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="L116" t="n">
         <v>1.51</v>
@@ -16081,25 +16081,25 @@
         <v>1.1</v>
       </c>
       <c r="N116" t="n">
-        <v>2.98</v>
+        <v>3</v>
       </c>
       <c r="O116" t="n">
-        <v>1.43</v>
+        <v>1.44</v>
       </c>
       <c r="P116" t="n">
         <v>1.67</v>
       </c>
       <c r="Q116" t="n">
-        <v>2.28</v>
+        <v>2.32</v>
       </c>
       <c r="R116" t="n">
         <v>1.24</v>
       </c>
       <c r="S116" t="n">
-        <v>4.2</v>
+        <v>4.4</v>
       </c>
       <c r="T116" t="n">
-        <v>1.94</v>
+        <v>1.9</v>
       </c>
       <c r="U116" t="n">
         <v>1.91</v>
@@ -16108,7 +16108,7 @@
         <v>1.32</v>
       </c>
       <c r="W116" t="n">
-        <v>1.74</v>
+        <v>1.75</v>
       </c>
       <c r="X116" t="n">
         <v>11</v>
@@ -16126,7 +16126,7 @@
         <v>9.800000000000001</v>
       </c>
       <c r="AC116" t="n">
-        <v>7.6</v>
+        <v>7.8</v>
       </c>
       <c r="AD116" t="n">
         <v>20</v>
@@ -16156,7 +16156,7 @@
         <v>60</v>
       </c>
       <c r="AM116" t="n">
-        <v>170</v>
+        <v>160</v>
       </c>
       <c r="AN116" t="n">
         <v>30</v>
@@ -16210,10 +16210,10 @@
         <v>4.2</v>
       </c>
       <c r="L117" t="n">
-        <v>1.24</v>
+        <v>1.25</v>
       </c>
       <c r="M117" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="N117" t="n">
         <v>5.1</v>
@@ -16231,13 +16231,13 @@
         <v>1.55</v>
       </c>
       <c r="S117" t="n">
-        <v>2.24</v>
+        <v>2.22</v>
       </c>
       <c r="T117" t="n">
         <v>1.53</v>
       </c>
       <c r="U117" t="n">
-        <v>2.5</v>
+        <v>2.48</v>
       </c>
       <c r="V117" t="n">
         <v>1.56</v>
@@ -16258,7 +16258,7 @@
         <v>44</v>
       </c>
       <c r="AB117" t="n">
-        <v>970</v>
+        <v>19.5</v>
       </c>
       <c r="AC117" t="n">
         <v>11.5</v>
@@ -16294,7 +16294,7 @@
         <v>70</v>
       </c>
       <c r="AN117" t="n">
-        <v>970</v>
+        <v>19.5</v>
       </c>
       <c r="AO117" t="n">
         <v>18</v>
@@ -16327,16 +16327,16 @@
         </is>
       </c>
       <c r="F118" t="n">
-        <v>1.82</v>
+        <v>1.83</v>
       </c>
       <c r="G118" t="n">
-        <v>2.02</v>
+        <v>2</v>
       </c>
       <c r="H118" t="n">
         <v>3.95</v>
       </c>
       <c r="I118" t="n">
-        <v>5</v>
+        <v>5.1</v>
       </c>
       <c r="J118" t="n">
         <v>3.85</v>
@@ -16345,16 +16345,16 @@
         <v>4.4</v>
       </c>
       <c r="L118" t="n">
-        <v>1.27</v>
+        <v>1.26</v>
       </c>
       <c r="M118" t="n">
         <v>1.04</v>
       </c>
       <c r="N118" t="n">
-        <v>4.6</v>
+        <v>4.7</v>
       </c>
       <c r="O118" t="n">
-        <v>1.21</v>
+        <v>1.22</v>
       </c>
       <c r="P118" t="n">
         <v>2.26</v>
@@ -16369,16 +16369,16 @@
         <v>2.6</v>
       </c>
       <c r="T118" t="n">
-        <v>1.62</v>
+        <v>1.63</v>
       </c>
       <c r="U118" t="n">
-        <v>2.28</v>
+        <v>2.3</v>
       </c>
       <c r="V118" t="n">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="W118" t="n">
-        <v>1.99</v>
+        <v>2</v>
       </c>
       <c r="X118" t="n">
         <v>26</v>
@@ -16402,7 +16402,7 @@
         <v>21</v>
       </c>
       <c r="AE118" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AF118" t="n">
         <v>16.5</v>
@@ -16420,7 +16420,7 @@
         <v>26</v>
       </c>
       <c r="AK118" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AL118" t="n">
         <v>36</v>
@@ -16432,7 +16432,7 @@
         <v>12</v>
       </c>
       <c r="AO118" t="n">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="119">
@@ -16462,28 +16462,28 @@
         </is>
       </c>
       <c r="F119" t="n">
-        <v>2.18</v>
+        <v>2.16</v>
       </c>
       <c r="G119" t="n">
-        <v>2.32</v>
+        <v>2.34</v>
       </c>
       <c r="H119" t="n">
-        <v>3.15</v>
+        <v>3.1</v>
       </c>
       <c r="I119" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="J119" t="n">
-        <v>3.75</v>
+        <v>3.65</v>
       </c>
       <c r="K119" t="n">
-        <v>4.3</v>
+        <v>4.1</v>
       </c>
       <c r="L119" t="n">
-        <v>1.25</v>
+        <v>1.26</v>
       </c>
       <c r="M119" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="N119" t="n">
         <v>4.8</v>
@@ -16498,25 +16498,25 @@
         <v>1.63</v>
       </c>
       <c r="R119" t="n">
-        <v>1.53</v>
+        <v>1.52</v>
       </c>
       <c r="S119" t="n">
         <v>2.56</v>
       </c>
       <c r="T119" t="n">
-        <v>1.58</v>
+        <v>1.56</v>
       </c>
       <c r="U119" t="n">
-        <v>2.42</v>
+        <v>2.44</v>
       </c>
       <c r="V119" t="n">
-        <v>1.42</v>
+        <v>1.4</v>
       </c>
       <c r="W119" t="n">
-        <v>1.75</v>
+        <v>1.74</v>
       </c>
       <c r="X119" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="Y119" t="n">
         <v>19</v>
@@ -16534,7 +16534,7 @@
         <v>10.5</v>
       </c>
       <c r="AD119" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="AE119" t="n">
         <v>34</v>
@@ -16597,10 +16597,10 @@
         </is>
       </c>
       <c r="F120" t="n">
-        <v>2.14</v>
+        <v>2.16</v>
       </c>
       <c r="G120" t="n">
-        <v>2.32</v>
+        <v>2.26</v>
       </c>
       <c r="H120" t="n">
         <v>4</v>
@@ -16609,34 +16609,34 @@
         <v>4.3</v>
       </c>
       <c r="J120" t="n">
-        <v>3.1</v>
+        <v>3.15</v>
       </c>
       <c r="K120" t="n">
         <v>3.35</v>
       </c>
       <c r="L120" t="n">
-        <v>1.48</v>
+        <v>1.41</v>
       </c>
       <c r="M120" t="n">
         <v>1.1</v>
       </c>
       <c r="N120" t="n">
-        <v>2.96</v>
+        <v>2.98</v>
       </c>
       <c r="O120" t="n">
-        <v>1.43</v>
+        <v>1.44</v>
       </c>
       <c r="P120" t="n">
         <v>1.66</v>
       </c>
       <c r="Q120" t="n">
-        <v>2.26</v>
+        <v>2.34</v>
       </c>
       <c r="R120" t="n">
         <v>1.23</v>
       </c>
       <c r="S120" t="n">
-        <v>4.3</v>
+        <v>4.5</v>
       </c>
       <c r="T120" t="n">
         <v>1.96</v>
@@ -16648,7 +16648,7 @@
         <v>1.3</v>
       </c>
       <c r="W120" t="n">
-        <v>1.78</v>
+        <v>1.79</v>
       </c>
       <c r="X120" t="n">
         <v>12.5</v>
@@ -16663,22 +16663,22 @@
         <v>110</v>
       </c>
       <c r="AB120" t="n">
-        <v>8.4</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AC120" t="n">
         <v>7.4</v>
       </c>
       <c r="AD120" t="n">
-        <v>970</v>
+        <v>18</v>
       </c>
       <c r="AE120" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="AF120" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="AG120" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="AH120" t="n">
         <v>22</v>
@@ -16702,7 +16702,7 @@
         <v>25</v>
       </c>
       <c r="AO120" t="n">
-        <v>90</v>
+        <v>85</v>
       </c>
     </row>
     <row r="121">
@@ -16732,100 +16732,100 @@
         </is>
       </c>
       <c r="F121" t="n">
-        <v>2.12</v>
+        <v>2.14</v>
       </c>
       <c r="G121" t="n">
-        <v>2.3</v>
+        <v>2.2</v>
       </c>
       <c r="H121" t="n">
         <v>3.65</v>
       </c>
       <c r="I121" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="J121" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="K121" t="n">
         <v>3.7</v>
       </c>
       <c r="L121" t="n">
-        <v>1.38</v>
+        <v>1.37</v>
       </c>
       <c r="M121" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="N121" t="n">
-        <v>3.15</v>
+        <v>3.25</v>
       </c>
       <c r="O121" t="n">
-        <v>1.36</v>
+        <v>1.37</v>
       </c>
       <c r="P121" t="n">
-        <v>1.75</v>
+        <v>1.78</v>
       </c>
       <c r="Q121" t="n">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="R121" t="n">
         <v>1.29</v>
       </c>
       <c r="S121" t="n">
-        <v>3.55</v>
+        <v>3.8</v>
       </c>
       <c r="T121" t="n">
-        <v>1.01</v>
+        <v>1.85</v>
       </c>
       <c r="U121" t="n">
-        <v>1.96</v>
+        <v>2</v>
       </c>
       <c r="V121" t="n">
-        <v>1.31</v>
+        <v>1.32</v>
       </c>
       <c r="W121" t="n">
-        <v>1.76</v>
+        <v>1.83</v>
       </c>
       <c r="X121" t="n">
         <v>15</v>
       </c>
       <c r="Y121" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="Z121" t="n">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="AA121" t="n">
         <v>95</v>
       </c>
       <c r="AB121" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AC121" t="n">
-        <v>9.4</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AD121" t="n">
-        <v>19.5</v>
+        <v>19</v>
       </c>
       <c r="AE121" t="n">
+        <v>55</v>
+      </c>
+      <c r="AF121" t="n">
+        <v>16</v>
+      </c>
+      <c r="AG121" t="n">
+        <v>13</v>
+      </c>
+      <c r="AH121" t="n">
+        <v>22</v>
+      </c>
+      <c r="AI121" t="n">
         <v>65</v>
       </c>
-      <c r="AF121" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="AG121" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AH121" t="n">
-        <v>23</v>
-      </c>
-      <c r="AI121" t="n">
-        <v>75</v>
-      </c>
       <c r="AJ121" t="n">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="AK121" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AL121" t="n">
         <v>55</v>
@@ -16834,7 +16834,7 @@
         <v>140</v>
       </c>
       <c r="AN121" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AO121" t="n">
         <v>70</v>
@@ -16873,13 +16873,13 @@
         <v>1.3</v>
       </c>
       <c r="H122" t="n">
-        <v>15</v>
+        <v>15.5</v>
       </c>
       <c r="I122" t="n">
         <v>19</v>
       </c>
       <c r="J122" t="n">
-        <v>5.9</v>
+        <v>6</v>
       </c>
       <c r="K122" t="n">
         <v>6.6</v>
@@ -16897,22 +16897,22 @@
         <v>1.25</v>
       </c>
       <c r="P122" t="n">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="Q122" t="n">
         <v>1.75</v>
       </c>
       <c r="R122" t="n">
-        <v>1.44</v>
+        <v>1.43</v>
       </c>
       <c r="S122" t="n">
-        <v>2.92</v>
+        <v>2.94</v>
       </c>
       <c r="T122" t="n">
         <v>2.42</v>
       </c>
       <c r="U122" t="n">
-        <v>1.57</v>
+        <v>1.58</v>
       </c>
       <c r="V122" t="n">
         <v>1.05</v>
@@ -17002,16 +17002,16 @@
         </is>
       </c>
       <c r="F123" t="n">
-        <v>5.8</v>
+        <v>5.1</v>
       </c>
       <c r="G123" t="n">
-        <v>7.4</v>
+        <v>6.4</v>
       </c>
       <c r="H123" t="n">
-        <v>1.53</v>
+        <v>1.59</v>
       </c>
       <c r="I123" t="n">
-        <v>1.69</v>
+        <v>1.74</v>
       </c>
       <c r="J123" t="n">
         <v>4</v>
@@ -17020,94 +17020,94 @@
         <v>5</v>
       </c>
       <c r="L123" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="M123" t="n">
         <v>1.05</v>
       </c>
       <c r="N123" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="O123" t="n">
-        <v>1.24</v>
+        <v>1.26</v>
       </c>
       <c r="P123" t="n">
-        <v>2.08</v>
+        <v>2.06</v>
       </c>
       <c r="Q123" t="n">
-        <v>1.73</v>
+        <v>1.75</v>
       </c>
       <c r="R123" t="n">
-        <v>1.42</v>
+        <v>1.41</v>
       </c>
       <c r="S123" t="n">
-        <v>2.82</v>
+        <v>2.92</v>
       </c>
       <c r="T123" t="n">
-        <v>1.8</v>
+        <v>1.81</v>
       </c>
       <c r="U123" t="n">
-        <v>1.96</v>
+        <v>1.97</v>
       </c>
       <c r="V123" t="n">
-        <v>2.44</v>
+        <v>2.34</v>
       </c>
       <c r="W123" t="n">
-        <v>1.15</v>
+        <v>1.19</v>
       </c>
       <c r="X123" t="n">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="Y123" t="n">
-        <v>9.800000000000001</v>
+        <v>10</v>
       </c>
       <c r="Z123" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AA123" t="n">
-        <v>16.5</v>
+        <v>18.5</v>
       </c>
       <c r="AB123" t="n">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="AC123" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="AD123" t="n">
         <v>11</v>
       </c>
       <c r="AE123" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AF123" t="n">
-        <v>65</v>
+        <v>50</v>
       </c>
       <c r="AG123" t="n">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="AH123" t="n">
         <v>23</v>
       </c>
       <c r="AI123" t="n">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="AJ123" t="n">
-        <v>210</v>
+        <v>160</v>
       </c>
       <c r="AK123" t="n">
-        <v>110</v>
+        <v>95</v>
       </c>
       <c r="AL123" t="n">
-        <v>100</v>
+        <v>85</v>
       </c>
       <c r="AM123" t="n">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="AN123" t="n">
-        <v>130</v>
+        <v>90</v>
       </c>
       <c r="AO123" t="n">
-        <v>8.800000000000001</v>
+        <v>9.199999999999999</v>
       </c>
     </row>
     <row r="124">
@@ -17140,7 +17140,7 @@
         <v>1.74</v>
       </c>
       <c r="G124" t="n">
-        <v>1.75</v>
+        <v>1.77</v>
       </c>
       <c r="H124" t="n">
         <v>5.2</v>
@@ -17149,7 +17149,7 @@
         <v>5.6</v>
       </c>
       <c r="J124" t="n">
-        <v>4</v>
+        <v>3.9</v>
       </c>
       <c r="K124" t="n">
         <v>4.2</v>
@@ -17161,13 +17161,13 @@
         <v>1.07</v>
       </c>
       <c r="N124" t="n">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="O124" t="n">
-        <v>1.33</v>
+        <v>1.32</v>
       </c>
       <c r="P124" t="n">
-        <v>1.94</v>
+        <v>1.95</v>
       </c>
       <c r="Q124" t="n">
         <v>1.97</v>
@@ -17176,25 +17176,25 @@
         <v>1.35</v>
       </c>
       <c r="S124" t="n">
-        <v>3.4</v>
+        <v>3.45</v>
       </c>
       <c r="T124" t="n">
         <v>1.9</v>
       </c>
       <c r="U124" t="n">
-        <v>1.92</v>
+        <v>2</v>
       </c>
       <c r="V124" t="n">
-        <v>1.22</v>
+        <v>1.21</v>
       </c>
       <c r="W124" t="n">
-        <v>2.32</v>
+        <v>2.28</v>
       </c>
       <c r="X124" t="n">
         <v>15</v>
       </c>
       <c r="Y124" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="Z124" t="n">
         <v>42</v>
@@ -17203,7 +17203,7 @@
         <v>150</v>
       </c>
       <c r="AB124" t="n">
-        <v>8.6</v>
+        <v>8.4</v>
       </c>
       <c r="AC124" t="n">
         <v>8.800000000000001</v>
@@ -17239,7 +17239,7 @@
         <v>130</v>
       </c>
       <c r="AN124" t="n">
-        <v>11.5</v>
+        <v>12</v>
       </c>
       <c r="AO124" t="n">
         <v>95</v>
@@ -17275,10 +17275,10 @@
         <v>1.56</v>
       </c>
       <c r="G125" t="n">
-        <v>1.57</v>
+        <v>1.58</v>
       </c>
       <c r="H125" t="n">
-        <v>7.2</v>
+        <v>7.4</v>
       </c>
       <c r="I125" t="n">
         <v>7.8</v>
@@ -17296,37 +17296,37 @@
         <v>1.06</v>
       </c>
       <c r="N125" t="n">
-        <v>3.95</v>
+        <v>3.8</v>
       </c>
       <c r="O125" t="n">
         <v>1.32</v>
       </c>
       <c r="P125" t="n">
-        <v>2</v>
+        <v>1.96</v>
       </c>
       <c r="Q125" t="n">
-        <v>1.89</v>
+        <v>1.94</v>
       </c>
       <c r="R125" t="n">
-        <v>1.38</v>
+        <v>1.37</v>
       </c>
       <c r="S125" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="T125" t="n">
-        <v>1.98</v>
+        <v>2.02</v>
       </c>
       <c r="U125" t="n">
-        <v>1.92</v>
+        <v>1.9</v>
       </c>
       <c r="V125" t="n">
         <v>1.15</v>
       </c>
       <c r="W125" t="n">
-        <v>2.74</v>
+        <v>2.72</v>
       </c>
       <c r="X125" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="Y125" t="n">
         <v>24</v>
@@ -17335,13 +17335,13 @@
         <v>60</v>
       </c>
       <c r="AA125" t="n">
-        <v>320</v>
+        <v>230</v>
       </c>
       <c r="AB125" t="n">
-        <v>8</v>
+        <v>7.8</v>
       </c>
       <c r="AC125" t="n">
-        <v>9.6</v>
+        <v>9.4</v>
       </c>
       <c r="AD125" t="n">
         <v>27</v>
@@ -17359,10 +17359,10 @@
         <v>25</v>
       </c>
       <c r="AI125" t="n">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="AJ125" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AK125" t="n">
         <v>17</v>
@@ -17371,10 +17371,10 @@
         <v>38</v>
       </c>
       <c r="AM125" t="n">
-        <v>160</v>
+        <v>150</v>
       </c>
       <c r="AN125" t="n">
-        <v>8.800000000000001</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AO125" t="n">
         <v>170</v>
@@ -17437,16 +17437,16 @@
         <v>1.25</v>
       </c>
       <c r="P126" t="n">
-        <v>2.16</v>
+        <v>2.18</v>
       </c>
       <c r="Q126" t="n">
-        <v>1.76</v>
+        <v>1.65</v>
       </c>
       <c r="R126" t="n">
-        <v>1.45</v>
+        <v>1.47</v>
       </c>
       <c r="S126" t="n">
-        <v>2.94</v>
+        <v>2.92</v>
       </c>
       <c r="T126" t="n">
         <v>1.75</v>
@@ -17491,7 +17491,7 @@
         <v>20</v>
       </c>
       <c r="AH126" t="n">
-        <v>22</v>
+        <v>18.5</v>
       </c>
       <c r="AI126" t="n">
         <v>32</v>
@@ -17500,19 +17500,19 @@
         <v>140</v>
       </c>
       <c r="AK126" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="AL126" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="AM126" t="n">
-        <v>110</v>
+        <v>90</v>
       </c>
       <c r="AN126" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="AO126" t="n">
-        <v>9.800000000000001</v>
+        <v>9.4</v>
       </c>
     </row>
     <row r="127">
@@ -17542,7 +17542,7 @@
         </is>
       </c>
       <c r="F127" t="n">
-        <v>1.59</v>
+        <v>1.6</v>
       </c>
       <c r="G127" t="n">
         <v>1.63</v>
@@ -17557,10 +17557,10 @@
         <v>4</v>
       </c>
       <c r="K127" t="n">
-        <v>4.4</v>
+        <v>4.3</v>
       </c>
       <c r="L127" t="n">
-        <v>1.4</v>
+        <v>1.41</v>
       </c>
       <c r="M127" t="n">
         <v>1.07</v>
@@ -17569,13 +17569,13 @@
         <v>3.7</v>
       </c>
       <c r="O127" t="n">
-        <v>1.32</v>
+        <v>1.33</v>
       </c>
       <c r="P127" t="n">
         <v>1.92</v>
       </c>
       <c r="Q127" t="n">
-        <v>1.87</v>
+        <v>1.96</v>
       </c>
       <c r="R127" t="n">
         <v>1.36</v>
@@ -17584,10 +17584,10 @@
         <v>3.4</v>
       </c>
       <c r="T127" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="U127" t="n">
-        <v>1.87</v>
+        <v>1.89</v>
       </c>
       <c r="V127" t="n">
         <v>1.16</v>
@@ -17596,7 +17596,7 @@
         <v>2.58</v>
       </c>
       <c r="X127" t="n">
-        <v>18</v>
+        <v>17.5</v>
       </c>
       <c r="Y127" t="n">
         <v>21</v>
@@ -17605,7 +17605,7 @@
         <v>60</v>
       </c>
       <c r="AA127" t="n">
-        <v>250</v>
+        <v>240</v>
       </c>
       <c r="AB127" t="n">
         <v>970</v>
@@ -17626,7 +17626,7 @@
         <v>970</v>
       </c>
       <c r="AH127" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AI127" t="n">
         <v>120</v>
@@ -17641,10 +17641,10 @@
         <v>40</v>
       </c>
       <c r="AM127" t="n">
-        <v>180</v>
+        <v>170</v>
       </c>
       <c r="AN127" t="n">
-        <v>10</v>
+        <v>10.5</v>
       </c>
       <c r="AO127" t="n">
         <v>180</v>
@@ -17677,22 +17677,22 @@
         </is>
       </c>
       <c r="F128" t="n">
-        <v>1.46</v>
+        <v>1.47</v>
       </c>
       <c r="G128" t="n">
-        <v>1.49</v>
+        <v>1.5</v>
       </c>
       <c r="H128" t="n">
-        <v>8.6</v>
+        <v>8.4</v>
       </c>
       <c r="I128" t="n">
-        <v>9.800000000000001</v>
+        <v>9.6</v>
       </c>
       <c r="J128" t="n">
         <v>4.6</v>
       </c>
       <c r="K128" t="n">
-        <v>4.9</v>
+        <v>4.8</v>
       </c>
       <c r="L128" t="n">
         <v>1.41</v>
@@ -17704,43 +17704,43 @@
         <v>3.65</v>
       </c>
       <c r="O128" t="n">
-        <v>1.33</v>
+        <v>1.34</v>
       </c>
       <c r="P128" t="n">
         <v>1.9</v>
       </c>
       <c r="Q128" t="n">
-        <v>2.02</v>
+        <v>2</v>
       </c>
       <c r="R128" t="n">
         <v>1.33</v>
       </c>
       <c r="S128" t="n">
-        <v>3.65</v>
+        <v>3.7</v>
       </c>
       <c r="T128" t="n">
         <v>2.22</v>
       </c>
       <c r="U128" t="n">
-        <v>1.74</v>
+        <v>1.75</v>
       </c>
       <c r="V128" t="n">
         <v>1.11</v>
       </c>
       <c r="W128" t="n">
-        <v>3.05</v>
+        <v>3</v>
       </c>
       <c r="X128" t="n">
         <v>15</v>
       </c>
       <c r="Y128" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="Z128" t="n">
         <v>80</v>
       </c>
       <c r="AA128" t="n">
-        <v>380</v>
+        <v>350</v>
       </c>
       <c r="AB128" t="n">
         <v>7</v>
@@ -17749,10 +17749,10 @@
         <v>10.5</v>
       </c>
       <c r="AD128" t="n">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="AE128" t="n">
-        <v>180</v>
+        <v>170</v>
       </c>
       <c r="AF128" t="n">
         <v>7.8</v>
@@ -17764,10 +17764,10 @@
         <v>32</v>
       </c>
       <c r="AI128" t="n">
-        <v>170</v>
+        <v>160</v>
       </c>
       <c r="AJ128" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="AK128" t="n">
         <v>17</v>
@@ -17782,7 +17782,7 @@
         <v>8.6</v>
       </c>
       <c r="AO128" t="n">
-        <v>280</v>
+        <v>270</v>
       </c>
     </row>
     <row r="129">
@@ -17818,16 +17818,16 @@
         <v>2</v>
       </c>
       <c r="H129" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="I129" t="n">
-        <v>4.3</v>
+        <v>4.4</v>
       </c>
       <c r="J129" t="n">
         <v>3.75</v>
       </c>
       <c r="K129" t="n">
-        <v>3.85</v>
+        <v>3.8</v>
       </c>
       <c r="L129" t="n">
         <v>1.39</v>
@@ -17836,13 +17836,13 @@
         <v>1.06</v>
       </c>
       <c r="N129" t="n">
-        <v>3.9</v>
+        <v>4</v>
       </c>
       <c r="O129" t="n">
         <v>1.3</v>
       </c>
       <c r="P129" t="n">
-        <v>2.02</v>
+        <v>2.04</v>
       </c>
       <c r="Q129" t="n">
         <v>1.89</v>
@@ -17851,7 +17851,7 @@
         <v>1.39</v>
       </c>
       <c r="S129" t="n">
-        <v>3.15</v>
+        <v>3.2</v>
       </c>
       <c r="T129" t="n">
         <v>1.77</v>
@@ -17860,7 +17860,7 @@
         <v>2.16</v>
       </c>
       <c r="V129" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="W129" t="n">
         <v>2</v>
@@ -17872,10 +17872,10 @@
         <v>16</v>
       </c>
       <c r="Z129" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="AA129" t="n">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="AB129" t="n">
         <v>10</v>
@@ -17884,25 +17884,25 @@
         <v>8.199999999999999</v>
       </c>
       <c r="AD129" t="n">
-        <v>16</v>
+        <v>16.5</v>
       </c>
       <c r="AE129" t="n">
         <v>50</v>
       </c>
       <c r="AF129" t="n">
-        <v>13.5</v>
+        <v>12.5</v>
       </c>
       <c r="AG129" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AH129" t="n">
-        <v>18</v>
+        <v>17.5</v>
       </c>
       <c r="AI129" t="n">
         <v>60</v>
       </c>
       <c r="AJ129" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="AK129" t="n">
         <v>21</v>
@@ -17914,10 +17914,10 @@
         <v>95</v>
       </c>
       <c r="AN129" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="AO129" t="n">
-        <v>48</v>
+        <v>50</v>
       </c>
     </row>
     <row r="130">
@@ -17947,22 +17947,22 @@
         </is>
       </c>
       <c r="F130" t="n">
-        <v>2.34</v>
+        <v>2.42</v>
       </c>
       <c r="G130" t="n">
-        <v>2.4</v>
+        <v>2.48</v>
       </c>
       <c r="H130" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="I130" t="n">
         <v>3.5</v>
       </c>
-      <c r="I130" t="n">
-        <v>3.6</v>
-      </c>
       <c r="J130" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="K130" t="n">
-        <v>3.4</v>
+        <v>3.35</v>
       </c>
       <c r="L130" t="n">
         <v>1.49</v>
@@ -17992,37 +17992,37 @@
         <v>1.9</v>
       </c>
       <c r="U130" t="n">
-        <v>1.93</v>
+        <v>1.97</v>
       </c>
       <c r="V130" t="n">
-        <v>1.38</v>
+        <v>1.4</v>
       </c>
       <c r="W130" t="n">
-        <v>1.71</v>
+        <v>1.67</v>
       </c>
       <c r="X130" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="Y130" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="Z130" t="n">
         <v>23</v>
       </c>
       <c r="AA130" t="n">
-        <v>80</v>
+        <v>65</v>
       </c>
       <c r="AB130" t="n">
-        <v>8.6</v>
+        <v>9</v>
       </c>
       <c r="AC130" t="n">
-        <v>7.4</v>
+        <v>7.2</v>
       </c>
       <c r="AD130" t="n">
         <v>15</v>
       </c>
       <c r="AE130" t="n">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="AF130" t="n">
         <v>14.5</v>
@@ -18031,10 +18031,10 @@
         <v>11.5</v>
       </c>
       <c r="AH130" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AI130" t="n">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="AJ130" t="n">
         <v>34</v>
@@ -18049,7 +18049,7 @@
         <v>130</v>
       </c>
       <c r="AN130" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AO130" t="n">
         <v>55</v>
@@ -18082,7 +18082,7 @@
         </is>
       </c>
       <c r="F131" t="n">
-        <v>1.75</v>
+        <v>1.76</v>
       </c>
       <c r="G131" t="n">
         <v>1.8</v>
@@ -18097,7 +18097,7 @@
         <v>3.9</v>
       </c>
       <c r="K131" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="L131" t="n">
         <v>1.39</v>
@@ -18118,7 +18118,7 @@
         <v>1.86</v>
       </c>
       <c r="R131" t="n">
-        <v>1.4</v>
+        <v>1.41</v>
       </c>
       <c r="S131" t="n">
         <v>3.15</v>
@@ -18142,10 +18142,10 @@
         <v>20</v>
       </c>
       <c r="Z131" t="n">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="AA131" t="n">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="AB131" t="n">
         <v>970</v>
@@ -18154,7 +18154,7 @@
         <v>9</v>
       </c>
       <c r="AD131" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AE131" t="n">
         <v>70</v>
@@ -18184,7 +18184,7 @@
         <v>110</v>
       </c>
       <c r="AN131" t="n">
-        <v>12.5</v>
+        <v>11</v>
       </c>
       <c r="AO131" t="n">
         <v>80</v>
@@ -18217,7 +18217,7 @@
         </is>
       </c>
       <c r="F132" t="n">
-        <v>5.3</v>
+        <v>5.4</v>
       </c>
       <c r="G132" t="n">
         <v>6.8</v>
@@ -18226,7 +18226,7 @@
         <v>1.47</v>
       </c>
       <c r="I132" t="n">
-        <v>1.61</v>
+        <v>1.6</v>
       </c>
       <c r="J132" t="n">
         <v>4.3</v>
@@ -18241,16 +18241,16 @@
         <v>0</v>
       </c>
       <c r="N132" t="n">
-        <v>7.6</v>
+        <v>7.8</v>
       </c>
       <c r="O132" t="n">
         <v>1.11</v>
       </c>
       <c r="P132" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="Q132" t="n">
-        <v>1.34</v>
+        <v>1.29</v>
       </c>
       <c r="R132" t="n">
         <v>0</v>
@@ -18259,7 +18259,7 @@
         <v>0</v>
       </c>
       <c r="T132" t="n">
-        <v>1.49</v>
+        <v>1.5</v>
       </c>
       <c r="U132" t="n">
         <v>2.56</v>
@@ -18283,7 +18283,7 @@
         <v>20</v>
       </c>
       <c r="AB132" t="n">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="AC132" t="n">
         <v>17.5</v>
@@ -18295,34 +18295,34 @@
         <v>17.5</v>
       </c>
       <c r="AF132" t="n">
-        <v>65</v>
+        <v>75</v>
       </c>
       <c r="AG132" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AH132" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AI132" t="n">
         <v>28</v>
       </c>
       <c r="AJ132" t="n">
-        <v>160</v>
+        <v>170</v>
       </c>
       <c r="AK132" t="n">
         <v>75</v>
       </c>
       <c r="AL132" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="AM132" t="n">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="AN132" t="n">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="AO132" t="n">
-        <v>5.2</v>
+        <v>5.1</v>
       </c>
     </row>
     <row r="133">
@@ -18355,7 +18355,7 @@
         <v>1.9</v>
       </c>
       <c r="G133" t="n">
-        <v>1.92</v>
+        <v>1.93</v>
       </c>
       <c r="H133" t="n">
         <v>5.1</v>
@@ -18370,22 +18370,22 @@
         <v>3.5</v>
       </c>
       <c r="L133" t="n">
-        <v>1.54</v>
+        <v>1.55</v>
       </c>
       <c r="M133" t="n">
-        <v>1.09</v>
+        <v>1.1</v>
       </c>
       <c r="N133" t="n">
-        <v>2.86</v>
+        <v>2.88</v>
       </c>
       <c r="O133" t="n">
-        <v>1.49</v>
+        <v>1.48</v>
       </c>
       <c r="P133" t="n">
         <v>1.63</v>
       </c>
       <c r="Q133" t="n">
-        <v>2.36</v>
+        <v>2.38</v>
       </c>
       <c r="R133" t="n">
         <v>1.23</v>
@@ -18394,7 +18394,7 @@
         <v>4.9</v>
       </c>
       <c r="T133" t="n">
-        <v>2.12</v>
+        <v>2.14</v>
       </c>
       <c r="U133" t="n">
         <v>1.79</v>
@@ -18403,7 +18403,7 @@
         <v>1.22</v>
       </c>
       <c r="W133" t="n">
-        <v>2.08</v>
+        <v>2.06</v>
       </c>
       <c r="X133" t="n">
         <v>10</v>
@@ -18433,10 +18433,10 @@
         <v>10.5</v>
       </c>
       <c r="AG133" t="n">
-        <v>10.5</v>
+        <v>11</v>
       </c>
       <c r="AH133" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AI133" t="n">
         <v>110</v>
@@ -18487,19 +18487,19 @@
         </is>
       </c>
       <c r="F134" t="n">
-        <v>2.88</v>
+        <v>2.9</v>
       </c>
       <c r="G134" t="n">
-        <v>3.55</v>
+        <v>3.4</v>
       </c>
       <c r="H134" t="n">
         <v>2.26</v>
       </c>
       <c r="I134" t="n">
-        <v>2.54</v>
+        <v>2.52</v>
       </c>
       <c r="J134" t="n">
-        <v>3.2</v>
+        <v>3.6</v>
       </c>
       <c r="K134" t="n">
         <v>4.2</v>
@@ -18523,19 +18523,19 @@
         <v>1.67</v>
       </c>
       <c r="R134" t="n">
-        <v>1.47</v>
+        <v>1.48</v>
       </c>
       <c r="S134" t="n">
-        <v>2.66</v>
+        <v>2.68</v>
       </c>
       <c r="T134" t="n">
-        <v>1.59</v>
+        <v>1.6</v>
       </c>
       <c r="U134" t="n">
-        <v>2.36</v>
+        <v>2.38</v>
       </c>
       <c r="V134" t="n">
-        <v>1.65</v>
+        <v>1.66</v>
       </c>
       <c r="W134" t="n">
         <v>1.41</v>
@@ -18553,7 +18553,7 @@
         <v>40</v>
       </c>
       <c r="AB134" t="n">
-        <v>18.5</v>
+        <v>19</v>
       </c>
       <c r="AC134" t="n">
         <v>11</v>
@@ -18625,13 +18625,13 @@
         <v>3.35</v>
       </c>
       <c r="G135" t="n">
-        <v>3.4</v>
+        <v>3.45</v>
       </c>
       <c r="H135" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="I135" t="n">
         <v>2.32</v>
-      </c>
-      <c r="I135" t="n">
-        <v>2.36</v>
       </c>
       <c r="J135" t="n">
         <v>3.6</v>
@@ -18646,22 +18646,22 @@
         <v>1.06</v>
       </c>
       <c r="N135" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="O135" t="n">
-        <v>1.3</v>
+        <v>1.31</v>
       </c>
       <c r="P135" t="n">
         <v>2.04</v>
       </c>
       <c r="Q135" t="n">
-        <v>1.92</v>
+        <v>1.91</v>
       </c>
       <c r="R135" t="n">
         <v>1.4</v>
       </c>
       <c r="S135" t="n">
-        <v>3.35</v>
+        <v>3.3</v>
       </c>
       <c r="T135" t="n">
         <v>1.75</v>
@@ -18670,10 +18670,10 @@
         <v>2.24</v>
       </c>
       <c r="V135" t="n">
-        <v>1.73</v>
+        <v>1.75</v>
       </c>
       <c r="W135" t="n">
-        <v>1.41</v>
+        <v>1.4</v>
       </c>
       <c r="X135" t="n">
         <v>14.5</v>
@@ -18700,7 +18700,7 @@
         <v>24</v>
       </c>
       <c r="AF135" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AG135" t="n">
         <v>14</v>
@@ -18757,16 +18757,16 @@
         </is>
       </c>
       <c r="F136" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="G136" t="n">
         <v>2.64</v>
       </c>
-      <c r="G136" t="n">
-        <v>2.66</v>
-      </c>
       <c r="H136" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="I136" t="n">
         <v>3.4</v>
-      </c>
-      <c r="I136" t="n">
-        <v>3.45</v>
       </c>
       <c r="J136" t="n">
         <v>3.05</v>
@@ -18775,13 +18775,13 @@
         <v>3.1</v>
       </c>
       <c r="L136" t="n">
-        <v>1.55</v>
+        <v>1.56</v>
       </c>
       <c r="M136" t="n">
         <v>1.12</v>
       </c>
       <c r="N136" t="n">
-        <v>2.82</v>
+        <v>2.8</v>
       </c>
       <c r="O136" t="n">
         <v>1.52</v>
@@ -18799,16 +18799,16 @@
         <v>5.3</v>
       </c>
       <c r="T136" t="n">
-        <v>2.1</v>
+        <v>2.08</v>
       </c>
       <c r="U136" t="n">
-        <v>1.86</v>
+        <v>1.87</v>
       </c>
       <c r="V136" t="n">
         <v>1.41</v>
       </c>
       <c r="W136" t="n">
-        <v>1.59</v>
+        <v>1.6</v>
       </c>
       <c r="X136" t="n">
         <v>8.6</v>
@@ -18835,7 +18835,7 @@
         <v>48</v>
       </c>
       <c r="AF136" t="n">
-        <v>14.5</v>
+        <v>15</v>
       </c>
       <c r="AG136" t="n">
         <v>12.5</v>
@@ -18859,10 +18859,10 @@
         <v>170</v>
       </c>
       <c r="AN136" t="n">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="AO136" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
     </row>
     <row r="137">
@@ -18892,19 +18892,19 @@
         </is>
       </c>
       <c r="F137" t="n">
-        <v>1.99</v>
+        <v>2.04</v>
       </c>
       <c r="G137" t="n">
-        <v>2.16</v>
+        <v>2.14</v>
       </c>
       <c r="H137" t="n">
         <v>4.2</v>
       </c>
       <c r="I137" t="n">
-        <v>4.8</v>
+        <v>4.6</v>
       </c>
       <c r="J137" t="n">
-        <v>3.2</v>
+        <v>3.35</v>
       </c>
       <c r="K137" t="n">
         <v>3.5</v>
@@ -18913,10 +18913,10 @@
         <v>1.49</v>
       </c>
       <c r="M137" t="n">
-        <v>1.08</v>
+        <v>1.09</v>
       </c>
       <c r="N137" t="n">
-        <v>3</v>
+        <v>3.05</v>
       </c>
       <c r="O137" t="n">
         <v>1.43</v>
@@ -18925,25 +18925,25 @@
         <v>1.68</v>
       </c>
       <c r="Q137" t="n">
-        <v>2.26</v>
+        <v>2.28</v>
       </c>
       <c r="R137" t="n">
         <v>1.24</v>
       </c>
       <c r="S137" t="n">
-        <v>3.85</v>
+        <v>4.3</v>
       </c>
       <c r="T137" t="n">
-        <v>1.92</v>
+        <v>1.94</v>
       </c>
       <c r="U137" t="n">
-        <v>1.86</v>
+        <v>1.88</v>
       </c>
       <c r="V137" t="n">
-        <v>1.26</v>
+        <v>1.28</v>
       </c>
       <c r="W137" t="n">
-        <v>1.86</v>
+        <v>1.87</v>
       </c>
       <c r="X137" t="n">
         <v>13.5</v>
@@ -18958,7 +18958,7 @@
         <v>130</v>
       </c>
       <c r="AB137" t="n">
-        <v>9.4</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AC137" t="n">
         <v>9.199999999999999</v>
@@ -18970,10 +18970,10 @@
         <v>80</v>
       </c>
       <c r="AF137" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="AG137" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AH137" t="n">
         <v>26</v>
@@ -19027,22 +19027,22 @@
         </is>
       </c>
       <c r="F138" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="G138" t="n">
         <v>1.31</v>
       </c>
-      <c r="G138" t="n">
-        <v>1.32</v>
-      </c>
       <c r="H138" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="I138" t="n">
         <v>12</v>
       </c>
       <c r="J138" t="n">
-        <v>6.4</v>
+        <v>6.8</v>
       </c>
       <c r="K138" t="n">
-        <v>6.8</v>
+        <v>7</v>
       </c>
       <c r="L138" t="n">
         <v>1.18</v>
@@ -19054,34 +19054,34 @@
         <v>8.199999999999999</v>
       </c>
       <c r="O138" t="n">
-        <v>1.13</v>
+        <v>1.12</v>
       </c>
       <c r="P138" t="n">
         <v>3.35</v>
       </c>
       <c r="Q138" t="n">
-        <v>1.4</v>
+        <v>1.39</v>
       </c>
       <c r="R138" t="n">
-        <v>1.98</v>
+        <v>1.97</v>
       </c>
       <c r="S138" t="n">
-        <v>2</v>
+        <v>1.99</v>
       </c>
       <c r="T138" t="n">
-        <v>1.75</v>
+        <v>1.76</v>
       </c>
       <c r="U138" t="n">
-        <v>2.3</v>
+        <v>2.24</v>
       </c>
       <c r="V138" t="n">
         <v>1.09</v>
       </c>
       <c r="W138" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="X138" t="n">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="Y138" t="n">
         <v>55</v>
@@ -19096,13 +19096,13 @@
         <v>14.5</v>
       </c>
       <c r="AC138" t="n">
-        <v>15.5</v>
+        <v>16</v>
       </c>
       <c r="AD138" t="n">
         <v>40</v>
       </c>
       <c r="AE138" t="n">
-        <v>130</v>
+        <v>140</v>
       </c>
       <c r="AF138" t="n">
         <v>11</v>
@@ -19111,7 +19111,7 @@
         <v>11</v>
       </c>
       <c r="AH138" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AI138" t="n">
         <v>100</v>
@@ -19132,7 +19132,7 @@
         <v>3.45</v>
       </c>
       <c r="AO138" t="n">
-        <v>100</v>
+        <v>120</v>
       </c>
     </row>
     <row r="139">
@@ -19162,16 +19162,16 @@
         </is>
       </c>
       <c r="F139" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G139" t="n">
-        <v>15</v>
+        <v>15.5</v>
       </c>
       <c r="H139" t="n">
-        <v>1.28</v>
+        <v>1.26</v>
       </c>
       <c r="I139" t="n">
-        <v>1.29</v>
+        <v>1.27</v>
       </c>
       <c r="J139" t="n">
         <v>6.6</v>
@@ -19189,31 +19189,31 @@
         <v>4.4</v>
       </c>
       <c r="O139" t="n">
-        <v>1.25</v>
+        <v>1.26</v>
       </c>
       <c r="P139" t="n">
-        <v>2.14</v>
+        <v>2.16</v>
       </c>
       <c r="Q139" t="n">
-        <v>1.72</v>
+        <v>1.75</v>
       </c>
       <c r="R139" t="n">
-        <v>1.45</v>
+        <v>1.44</v>
       </c>
       <c r="S139" t="n">
-        <v>2.88</v>
+        <v>2.92</v>
       </c>
       <c r="T139" t="n">
-        <v>2.4</v>
+        <v>2.44</v>
       </c>
       <c r="U139" t="n">
-        <v>1.6</v>
+        <v>1.61</v>
       </c>
       <c r="V139" t="n">
-        <v>4.4</v>
+        <v>4.7</v>
       </c>
       <c r="W139" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="X139" t="n">
         <v>21</v>
@@ -19228,7 +19228,7 @@
         <v>9.4</v>
       </c>
       <c r="AB139" t="n">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="AC139" t="n">
         <v>14.5</v>
@@ -19237,10 +19237,10 @@
         <v>11.5</v>
       </c>
       <c r="AE139" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="AF139" t="n">
-        <v>160</v>
+        <v>170</v>
       </c>
       <c r="AG139" t="n">
         <v>60</v>
@@ -19255,16 +19255,16 @@
         <v>980</v>
       </c>
       <c r="AK139" t="n">
-        <v>380</v>
+        <v>370</v>
       </c>
       <c r="AL139" t="n">
         <v>350</v>
       </c>
       <c r="AM139" t="n">
-        <v>320</v>
+        <v>330</v>
       </c>
       <c r="AN139" t="n">
-        <v>600</v>
+        <v>680</v>
       </c>
       <c r="AO139" t="n">
         <v>5.5</v>
@@ -19297,25 +19297,25 @@
         </is>
       </c>
       <c r="F140" t="n">
-        <v>2.72</v>
+        <v>2.76</v>
       </c>
       <c r="G140" t="n">
-        <v>2.84</v>
+        <v>2.78</v>
       </c>
       <c r="H140" t="n">
-        <v>2.76</v>
+        <v>2.8</v>
       </c>
       <c r="I140" t="n">
         <v>2.88</v>
       </c>
       <c r="J140" t="n">
-        <v>3.35</v>
+        <v>3.4</v>
       </c>
       <c r="K140" t="n">
         <v>3.6</v>
       </c>
       <c r="L140" t="n">
-        <v>1.37</v>
+        <v>1.32</v>
       </c>
       <c r="M140" t="n">
         <v>1.06</v>
@@ -19327,28 +19327,28 @@
         <v>1.28</v>
       </c>
       <c r="P140" t="n">
-        <v>2.06</v>
+        <v>2.04</v>
       </c>
       <c r="Q140" t="n">
-        <v>1.85</v>
+        <v>1.87</v>
       </c>
       <c r="R140" t="n">
         <v>1.42</v>
       </c>
       <c r="S140" t="n">
-        <v>3.05</v>
+        <v>3.1</v>
       </c>
       <c r="T140" t="n">
-        <v>1.67</v>
+        <v>1.69</v>
       </c>
       <c r="U140" t="n">
-        <v>2.32</v>
+        <v>2.3</v>
       </c>
       <c r="V140" t="n">
         <v>1.53</v>
       </c>
       <c r="W140" t="n">
-        <v>1.54</v>
+        <v>1.56</v>
       </c>
       <c r="X140" t="n">
         <v>15.5</v>
@@ -19357,7 +19357,7 @@
         <v>13</v>
       </c>
       <c r="Z140" t="n">
-        <v>19</v>
+        <v>19.5</v>
       </c>
       <c r="AA140" t="n">
         <v>42</v>
@@ -19366,10 +19366,10 @@
         <v>13</v>
       </c>
       <c r="AC140" t="n">
-        <v>8</v>
+        <v>7.8</v>
       </c>
       <c r="AD140" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AE140" t="n">
         <v>29</v>
@@ -19381,22 +19381,22 @@
         <v>12.5</v>
       </c>
       <c r="AH140" t="n">
-        <v>16</v>
+        <v>16.5</v>
       </c>
       <c r="AI140" t="n">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="AJ140" t="n">
         <v>44</v>
       </c>
       <c r="AK140" t="n">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="AL140" t="n">
         <v>40</v>
       </c>
       <c r="AM140" t="n">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="AN140" t="n">
         <v>23</v>
@@ -19450,7 +19450,7 @@
         <v>5.3</v>
       </c>
       <c r="L141" t="n">
-        <v>1.26</v>
+        <v>1.27</v>
       </c>
       <c r="M141" t="n">
         <v>1.04</v>
@@ -19567,22 +19567,22 @@
         </is>
       </c>
       <c r="F142" t="n">
-        <v>2.78</v>
+        <v>2.7</v>
       </c>
       <c r="G142" t="n">
-        <v>2.98</v>
+        <v>3.15</v>
       </c>
       <c r="H142" t="n">
-        <v>2.28</v>
+        <v>2.24</v>
       </c>
       <c r="I142" t="n">
         <v>2.5</v>
       </c>
       <c r="J142" t="n">
-        <v>4.1</v>
+        <v>3.8</v>
       </c>
       <c r="K142" t="n">
-        <v>4.6</v>
+        <v>4.5</v>
       </c>
       <c r="L142" t="n">
         <v>1.18</v>
@@ -19591,52 +19591,52 @@
         <v>1.01</v>
       </c>
       <c r="N142" t="n">
-        <v>7.4</v>
+        <v>8</v>
       </c>
       <c r="O142" t="n">
         <v>1.11</v>
       </c>
       <c r="P142" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="Q142" t="n">
-        <v>1.33</v>
+        <v>1.34</v>
       </c>
       <c r="R142" t="n">
-        <v>2.04</v>
+        <v>1.96</v>
       </c>
       <c r="S142" t="n">
-        <v>1.79</v>
+        <v>1.82</v>
       </c>
       <c r="T142" t="n">
         <v>1.35</v>
       </c>
       <c r="U142" t="n">
-        <v>3.2</v>
+        <v>3.15</v>
       </c>
       <c r="V142" t="n">
         <v>1.66</v>
       </c>
       <c r="W142" t="n">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="X142" t="n">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="Y142" t="n">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="Z142" t="n">
         <v>26</v>
       </c>
       <c r="AA142" t="n">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="AB142" t="n">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="AC142" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AD142" t="n">
         <v>14</v>
@@ -19648,7 +19648,7 @@
         <v>32</v>
       </c>
       <c r="AG142" t="n">
-        <v>15.5</v>
+        <v>16</v>
       </c>
       <c r="AH142" t="n">
         <v>13.5</v>
@@ -19660,19 +19660,19 @@
         <v>60</v>
       </c>
       <c r="AK142" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AL142" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AM142" t="n">
+        <v>100</v>
+      </c>
+      <c r="AN142" t="n">
         <v>36</v>
       </c>
-      <c r="AN142" t="n">
-        <v>14.5</v>
-      </c>
       <c r="AO142" t="n">
-        <v>8.6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="143">
@@ -19759,7 +19759,7 @@
         <v>21</v>
       </c>
       <c r="Y143" t="n">
-        <v>19.5</v>
+        <v>970</v>
       </c>
       <c r="Z143" t="n">
         <v>38</v>
@@ -19804,7 +19804,7 @@
         <v>110</v>
       </c>
       <c r="AN143" t="n">
-        <v>16</v>
+        <v>970</v>
       </c>
       <c r="AO143" t="n">
         <v>55</v>
@@ -19837,40 +19837,40 @@
         </is>
       </c>
       <c r="F144" t="n">
-        <v>1.92</v>
+        <v>1.96</v>
       </c>
       <c r="G144" t="n">
-        <v>2</v>
+        <v>2.04</v>
       </c>
       <c r="H144" t="n">
         <v>4.7</v>
       </c>
       <c r="I144" t="n">
-        <v>5.5</v>
+        <v>5.2</v>
       </c>
       <c r="J144" t="n">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="K144" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="L144" t="n">
-        <v>1.51</v>
+        <v>1.52</v>
       </c>
       <c r="M144" t="n">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="N144" t="n">
-        <v>2.86</v>
+        <v>2.9</v>
       </c>
       <c r="O144" t="n">
-        <v>1.46</v>
+        <v>1.47</v>
       </c>
       <c r="P144" t="n">
-        <v>1.62</v>
+        <v>1.63</v>
       </c>
       <c r="Q144" t="n">
-        <v>2.36</v>
+        <v>2.4</v>
       </c>
       <c r="R144" t="n">
         <v>1.23</v>
@@ -19879,70 +19879,70 @@
         <v>4.6</v>
       </c>
       <c r="T144" t="n">
-        <v>2.06</v>
+        <v>2.12</v>
       </c>
       <c r="U144" t="n">
-        <v>1.8</v>
+        <v>1.81</v>
       </c>
       <c r="V144" t="n">
-        <v>1.22</v>
+        <v>1.24</v>
       </c>
       <c r="W144" t="n">
-        <v>2</v>
+        <v>1.96</v>
       </c>
       <c r="X144" t="n">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="Y144" t="n">
-        <v>14.5</v>
+        <v>13.5</v>
       </c>
       <c r="Z144" t="n">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="AA144" t="n">
-        <v>170</v>
+        <v>150</v>
       </c>
       <c r="AB144" t="n">
         <v>7.2</v>
       </c>
       <c r="AC144" t="n">
-        <v>7.8</v>
+        <v>7.6</v>
       </c>
       <c r="AD144" t="n">
         <v>22</v>
       </c>
       <c r="AE144" t="n">
-        <v>110</v>
+        <v>85</v>
       </c>
       <c r="AF144" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="AG144" t="n">
         <v>11</v>
       </c>
       <c r="AH144" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="AI144" t="n">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="AJ144" t="n">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="AK144" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AL144" t="n">
         <v>55</v>
       </c>
       <c r="AM144" t="n">
-        <v>210</v>
+        <v>190</v>
       </c>
       <c r="AN144" t="n">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="AO144" t="n">
-        <v>160</v>
+        <v>140</v>
       </c>
     </row>
     <row r="145">
@@ -19975,7 +19975,7 @@
         <v>1.71</v>
       </c>
       <c r="G145" t="n">
-        <v>2.02</v>
+        <v>1.96</v>
       </c>
       <c r="H145" t="n">
         <v>4</v>
@@ -19984,7 +19984,7 @@
         <v>6.4</v>
       </c>
       <c r="J145" t="n">
-        <v>3.45</v>
+        <v>1.09</v>
       </c>
       <c r="K145" t="n">
         <v>4.6</v>
@@ -20002,7 +20002,7 @@
         <v>1.25</v>
       </c>
       <c r="P145" t="n">
-        <v>2</v>
+        <v>1.93</v>
       </c>
       <c r="Q145" t="n">
         <v>1.73</v>
@@ -20093,7 +20093,7 @@
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>20:30:00</t>
+          <t>21:00:00</t>
         </is>
       </c>
       <c r="D146" t="inlineStr">
@@ -20107,112 +20107,112 @@
         </is>
       </c>
       <c r="F146" t="n">
-        <v>1.86</v>
+        <v>1.3</v>
       </c>
       <c r="G146" t="n">
-        <v>2.02</v>
+        <v>2.22</v>
       </c>
       <c r="H146" t="n">
-        <v>3.8</v>
+        <v>3.65</v>
       </c>
       <c r="I146" t="n">
-        <v>4.3</v>
+        <v>1000</v>
       </c>
       <c r="J146" t="n">
-        <v>4</v>
+        <v>1.85</v>
       </c>
       <c r="K146" t="n">
-        <v>4.6</v>
+        <v>1000</v>
       </c>
       <c r="L146" t="n">
-        <v>1.24</v>
+        <v>1.01</v>
       </c>
       <c r="M146" t="n">
         <v>1.02</v>
       </c>
       <c r="N146" t="n">
-        <v>5.3</v>
+        <v>1.01</v>
       </c>
       <c r="O146" t="n">
-        <v>1.19</v>
+        <v>1.18</v>
       </c>
       <c r="P146" t="n">
-        <v>2.48</v>
+        <v>1.24</v>
       </c>
       <c r="Q146" t="n">
-        <v>1.49</v>
+        <v>1.18</v>
       </c>
       <c r="R146" t="n">
-        <v>1.59</v>
+        <v>1.24</v>
       </c>
       <c r="S146" t="n">
-        <v>2.42</v>
+        <v>1.01</v>
       </c>
       <c r="T146" t="n">
-        <v>1.48</v>
+        <v>1.01</v>
       </c>
       <c r="U146" t="n">
-        <v>2.22</v>
+        <v>1.01</v>
       </c>
       <c r="V146" t="n">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="W146" t="n">
-        <v>1.98</v>
+        <v>1.81</v>
       </c>
       <c r="X146" t="n">
-        <v>30</v>
+        <v>1000</v>
       </c>
       <c r="Y146" t="n">
-        <v>25</v>
+        <v>1000</v>
       </c>
       <c r="Z146" t="n">
-        <v>42</v>
+        <v>1000</v>
       </c>
       <c r="AA146" t="n">
-        <v>90</v>
+        <v>1000</v>
       </c>
       <c r="AB146" t="n">
-        <v>16</v>
+        <v>1000</v>
       </c>
       <c r="AC146" t="n">
-        <v>12.5</v>
+        <v>1000</v>
       </c>
       <c r="AD146" t="n">
-        <v>21</v>
+        <v>1000</v>
       </c>
       <c r="AE146" t="n">
-        <v>50</v>
+        <v>1000</v>
       </c>
       <c r="AF146" t="n">
-        <v>18</v>
+        <v>1000</v>
       </c>
       <c r="AG146" t="n">
-        <v>13</v>
+        <v>1000</v>
       </c>
       <c r="AH146" t="n">
-        <v>19.5</v>
+        <v>1000</v>
       </c>
       <c r="AI146" t="n">
-        <v>50</v>
+        <v>1000</v>
       </c>
       <c r="AJ146" t="n">
-        <v>27</v>
+        <v>1000</v>
       </c>
       <c r="AK146" t="n">
-        <v>22</v>
+        <v>1000</v>
       </c>
       <c r="AL146" t="n">
-        <v>34</v>
+        <v>1000</v>
       </c>
       <c r="AM146" t="n">
-        <v>75</v>
+        <v>1000</v>
       </c>
       <c r="AN146" t="n">
-        <v>11</v>
+        <v>1000</v>
       </c>
       <c r="AO146" t="n">
-        <v>38</v>
+        <v>1000</v>
       </c>
     </row>
   </sheetData>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-12-07.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-12-07.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AO6"/>
+  <dimension ref="A1:AO3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -643,7 +643,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Bolivian Liga de Futbol Profesional</t>
+          <t>Chilean Primera B</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -653,21 +653,21 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>18:15:00</t>
+          <t>20:15:00</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>The Strongest</t>
+          <t>Cobreloa Calama</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Always Ready</t>
+          <t>Deportes Concepcion</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>55</v>
+        <v>1000</v>
       </c>
       <c r="G2" t="n">
         <v>1000</v>
@@ -679,7 +679,7 @@
         <v>1.07</v>
       </c>
       <c r="J2" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="K2" t="n">
         <v>22</v>
@@ -715,7 +715,7 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>1.01</v>
+        <v>17.5</v>
       </c>
       <c r="W2" t="n">
         <v>1.01</v>
@@ -754,7 +754,7 @@
         <v>1000</v>
       </c>
       <c r="AI2" t="n">
-        <v>1.48</v>
+        <v>1.09</v>
       </c>
       <c r="AJ2" t="n">
         <v>1000</v>
@@ -766,19 +766,19 @@
         <v>1000</v>
       </c>
       <c r="AM2" t="n">
-        <v>850</v>
+        <v>1000</v>
       </c>
       <c r="AN2" t="n">
         <v>1000</v>
       </c>
       <c r="AO2" t="n">
-        <v>870</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Ecuadorian Serie A</t>
+          <t>Bolivian Liga de Futbol Profesional</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -788,72 +788,72 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>18:30:00</t>
+          <t>21:00:00</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Barcelona (Ecu)</t>
+          <t>Aurora</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Univ Catolica (Ecu)</t>
+          <t>Universitario de Vinto</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>3.35</v>
+        <v>1.45</v>
       </c>
       <c r="G3" t="n">
-        <v>3.5</v>
+        <v>1.5</v>
       </c>
       <c r="H3" t="n">
-        <v>5.9</v>
+        <v>8.6</v>
       </c>
       <c r="I3" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="J3" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="K3" t="n">
+        <v>5</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N3" t="n">
         <v>7.2</v>
       </c>
-      <c r="J3" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="K3" t="n">
-        <v>1.86</v>
-      </c>
-      <c r="L3" t="n">
-        <v>0</v>
-      </c>
-      <c r="M3" t="n">
-        <v>0</v>
-      </c>
-      <c r="N3" t="n">
-        <v>0</v>
-      </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>1.15</v>
       </c>
       <c r="P3" t="n">
-        <v>2.24</v>
+        <v>2.26</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.75</v>
+        <v>1.49</v>
       </c>
       <c r="R3" t="n">
-        <v>1.21</v>
+        <v>1.43</v>
       </c>
       <c r="S3" t="n">
-        <v>5.4</v>
+        <v>3.15</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>1.56</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="V3" t="n">
-        <v>1.17</v>
+        <v>1.11</v>
       </c>
       <c r="W3" t="n">
-        <v>1.46</v>
+        <v>3</v>
       </c>
       <c r="X3" t="n">
         <v>1000</v>
@@ -868,450 +868,45 @@
         <v>1000</v>
       </c>
       <c r="AB3" t="n">
-        <v>1000</v>
+        <v>8</v>
       </c>
       <c r="AC3" t="n">
-        <v>2.26</v>
+        <v>8</v>
       </c>
       <c r="AD3" t="n">
-        <v>8.6</v>
+        <v>16.5</v>
       </c>
       <c r="AE3" t="n">
         <v>1000</v>
       </c>
       <c r="AF3" t="n">
-        <v>1000</v>
+        <v>7.6</v>
       </c>
       <c r="AG3" t="n">
-        <v>4.4</v>
+        <v>7.8</v>
       </c>
       <c r="AH3" t="n">
-        <v>17.5</v>
+        <v>16.5</v>
       </c>
       <c r="AI3" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AJ3" t="n">
-        <v>1000</v>
+        <v>14.5</v>
       </c>
       <c r="AK3" t="n">
-        <v>23</v>
+        <v>15.5</v>
       </c>
       <c r="AL3" t="n">
-        <v>1000</v>
+        <v>36</v>
       </c>
       <c r="AM3" t="n">
         <v>1000</v>
       </c>
       <c r="AN3" t="n">
-        <v>150</v>
+        <v>14</v>
       </c>
       <c r="AO3" t="n">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>Argentinian Primera Division</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>2025-12-07</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>19:00:00</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>Boca Juniors</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>Racing Club</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
-        <v>2.54</v>
-      </c>
-      <c r="G4" t="n">
-        <v>2.56</v>
-      </c>
-      <c r="H4" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="I4" t="n">
-        <v>5.7</v>
-      </c>
-      <c r="J4" t="n">
-        <v>2.32</v>
-      </c>
-      <c r="K4" t="n">
-        <v>2.34</v>
-      </c>
-      <c r="L4" t="n">
-        <v>0</v>
-      </c>
-      <c r="M4" t="n">
-        <v>1.43</v>
-      </c>
-      <c r="N4" t="n">
-        <v>1.52</v>
-      </c>
-      <c r="O4" t="n">
-        <v>2.88</v>
-      </c>
-      <c r="P4" t="n">
-        <v>1.13</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>8.4</v>
-      </c>
-      <c r="R4" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="S4" t="n">
-        <v>30</v>
-      </c>
-      <c r="T4" t="n">
-        <v>4.6</v>
-      </c>
-      <c r="U4" t="n">
-        <v>1.26</v>
-      </c>
-      <c r="V4" t="n">
-        <v>1.21</v>
-      </c>
-      <c r="W4" t="n">
-        <v>1.64</v>
-      </c>
-      <c r="X4" t="n">
-        <v>3.35</v>
-      </c>
-      <c r="Y4" t="n">
-        <v>8.6</v>
-      </c>
-      <c r="Z4" t="n">
-        <v>42</v>
-      </c>
-      <c r="AA4" t="n">
-        <v>360</v>
-      </c>
-      <c r="AB4" t="n">
-        <v>4.4</v>
-      </c>
-      <c r="AC4" t="n">
-        <v>8.6</v>
-      </c>
-      <c r="AD4" t="n">
-        <v>46</v>
-      </c>
-      <c r="AE4" t="n">
-        <v>470</v>
-      </c>
-      <c r="AF4" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AG4" t="n">
-        <v>25</v>
-      </c>
-      <c r="AH4" t="n">
-        <v>120</v>
-      </c>
-      <c r="AI4" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AJ4" t="n">
-        <v>60</v>
-      </c>
-      <c r="AK4" t="n">
-        <v>130</v>
-      </c>
-      <c r="AL4" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AM4" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AN4" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AO4" t="n">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>Chilean Primera B</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>2025-12-07</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>20:15:00</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>Cobreloa Calama</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>Deportes Concepcion</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
-        <v>1.89</v>
-      </c>
-      <c r="G5" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="H5" t="n">
-        <v>4.7</v>
-      </c>
-      <c r="I5" t="n">
-        <v>4.9</v>
-      </c>
-      <c r="J5" t="n">
-        <v>3.65</v>
-      </c>
-      <c r="K5" t="n">
-        <v>3.9</v>
-      </c>
-      <c r="L5" t="n">
-        <v>1.38</v>
-      </c>
-      <c r="M5" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="N5" t="n">
-        <v>4.1</v>
-      </c>
-      <c r="O5" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="P5" t="n">
-        <v>2.04</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>1.93</v>
-      </c>
-      <c r="R5" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="S5" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="T5" t="n">
-        <v>1.77</v>
-      </c>
-      <c r="U5" t="n">
-        <v>2.14</v>
-      </c>
-      <c r="V5" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="W5" t="n">
-        <v>2.04</v>
-      </c>
-      <c r="X5" t="n">
-        <v>16</v>
-      </c>
-      <c r="Y5" t="n">
-        <v>18</v>
-      </c>
-      <c r="Z5" t="n">
-        <v>980</v>
-      </c>
-      <c r="AA5" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AB5" t="n">
-        <v>9.6</v>
-      </c>
-      <c r="AC5" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AD5" t="n">
-        <v>23</v>
-      </c>
-      <c r="AE5" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AF5" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="AG5" t="n">
-        <v>11</v>
-      </c>
-      <c r="AH5" t="n">
-        <v>21</v>
-      </c>
-      <c r="AI5" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AJ5" t="n">
-        <v>22</v>
-      </c>
-      <c r="AK5" t="n">
-        <v>20</v>
-      </c>
-      <c r="AL5" t="n">
-        <v>36</v>
-      </c>
-      <c r="AM5" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AN5" t="n">
-        <v>13</v>
-      </c>
-      <c r="AO5" t="n">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>Bolivian Liga de Futbol Profesional</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>2025-12-07</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>21:00:00</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>Aurora</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>Universitario de Vinto</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
-        <v>1.93</v>
-      </c>
-      <c r="G6" t="n">
-        <v>1.99</v>
-      </c>
-      <c r="H6" t="n">
-        <v>3.45</v>
-      </c>
-      <c r="I6" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="J6" t="n">
-        <v>4.4</v>
-      </c>
-      <c r="K6" t="n">
-        <v>5.1</v>
-      </c>
-      <c r="L6" t="n">
-        <v>1.17</v>
-      </c>
-      <c r="M6" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="N6" t="n">
-        <v>11</v>
-      </c>
-      <c r="O6" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="P6" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>1.26</v>
-      </c>
-      <c r="R6" t="n">
-        <v>2.46</v>
-      </c>
-      <c r="S6" t="n">
-        <v>1.64</v>
-      </c>
-      <c r="T6" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="U6" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="V6" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="W6" t="n">
-        <v>1.98</v>
-      </c>
-      <c r="X6" t="n">
-        <v>65</v>
-      </c>
-      <c r="Y6" t="n">
-        <v>990</v>
-      </c>
-      <c r="Z6" t="n">
-        <v>980</v>
-      </c>
-      <c r="AA6" t="n">
-        <v>80</v>
-      </c>
-      <c r="AB6" t="n">
-        <v>960</v>
-      </c>
-      <c r="AC6" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AD6" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AE6" t="n">
-        <v>32</v>
-      </c>
-      <c r="AF6" t="n">
-        <v>970</v>
-      </c>
-      <c r="AG6" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AH6" t="n">
-        <v>14</v>
-      </c>
-      <c r="AI6" t="n">
-        <v>27</v>
-      </c>
-      <c r="AJ6" t="n">
-        <v>32</v>
-      </c>
-      <c r="AK6" t="n">
-        <v>18</v>
-      </c>
-      <c r="AL6" t="n">
-        <v>19.5</v>
-      </c>
-      <c r="AM6" t="n">
-        <v>42</v>
-      </c>
-      <c r="AN6" t="n">
-        <v>990</v>
-      </c>
-      <c r="AO6" t="n">
         <v>1000</v>
       </c>
     </row>
